--- a/AutotestScriptForWeb/insightSearch/test_cases.xlsx
+++ b/AutotestScriptForWeb/insightSearch/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FluxAutotest\insightSearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xushengqing/CougerAutoTestScript/AutotestScriptForWeb/insightSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460C3D88-9106-47A2-B224-E5514408E2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7826EE3-8730-9549-8DAD-B80C4117A159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flux_動作確認(CG実検証用）" sheetId="3" r:id="rId1"/>
@@ -51,6 +51,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -116,14 +117,14 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>入力した内容を削除欄をクリックして、「チケットの払い戻し方法を教えて」を入力する</t>
+    <t>入力した内容を削除欄をクリックして、「雑誌の返品方法を教えて」を入力する</t>
     <rPh sb="9" eb="10">
       <t>ラン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>入力した内容を削除欄をクリックして、「雑誌の返品方法を教えて」を入力する</t>
+    <t>入力欄をクリックして、「チケットの払い戻し方法を教えて」を入力する</t>
     <rPh sb="9" eb="10">
       <t>ラン</t>
     </rPh>
@@ -134,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -168,6 +169,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -502,17 +510,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="90.08984375" customWidth="1"/>
-    <col min="3" max="22" width="8.36328125" customWidth="1"/>
+    <col min="2" max="2" width="90.1640625" customWidth="1"/>
+    <col min="3" max="22" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.25" customHeight="1">
+    <row r="1" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -540,7 +548,7 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:22" ht="14.25" customHeight="1">
+    <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>ROW()-1</f>
         <v>1</v>
@@ -569,7 +577,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1">
+    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <f t="shared" ref="A3:A70" si="0">ROW()-1</f>
         <v>2</v>
@@ -598,7 +606,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22" ht="14.25" customHeight="1">
+    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -627,7 +635,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22" ht="14.25" customHeight="1">
+    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -656,7 +664,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="14.25" customHeight="1">
+    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -685,7 +693,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="14.25" customHeight="1">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -714,13 +722,13 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="14.25" customHeight="1">
+    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -743,7 +751,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="14.25" customHeight="1">
+    <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -772,7 +780,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="14.25" customHeight="1">
+    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -801,13 +809,13 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="14.25" customHeight="1">
+    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -830,7 +838,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="14.25" customHeight="1">
+    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -859,7 +867,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="14.25" customHeight="1">
+    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -888,7 +896,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="14.25" customHeight="1">
+    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -915,7 +923,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="14.25" customHeight="1">
+    <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -942,7 +950,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="14.25" customHeight="1">
+    <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -969,7 +977,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="14.25" customHeight="1">
+    <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -996,7 +1004,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="14.25" customHeight="1">
+    <row r="18" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1023,7 +1031,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="14.25" customHeight="1">
+    <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1050,7 +1058,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="14.25" customHeight="1">
+    <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1077,7 +1085,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" ht="14.25" customHeight="1">
+    <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1104,7 +1112,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1131,7 +1139,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" ht="14.25" customHeight="1">
+    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1158,7 +1166,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="14.25" customHeight="1">
+    <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1185,7 +1193,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" ht="14.25" customHeight="1">
+    <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1212,7 +1220,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" ht="14.25" customHeight="1">
+    <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1239,7 +1247,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="14.25" customHeight="1">
+    <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1266,7 +1274,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" ht="14.25" customHeight="1">
+    <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1293,7 +1301,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" ht="14.25" customHeight="1">
+    <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1320,7 +1328,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="14.25" customHeight="1">
+    <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1347,7 +1355,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" ht="14.25" customHeight="1">
+    <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1374,7 +1382,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
     </row>
-    <row r="32" spans="1:22" ht="14.25" customHeight="1">
+    <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1401,7 +1409,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
     </row>
-    <row r="33" spans="1:22" ht="14.25" customHeight="1">
+    <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1428,7 +1436,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
     </row>
-    <row r="34" spans="1:22" ht="14.25" customHeight="1">
+    <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1455,7 +1463,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
     </row>
-    <row r="35" spans="1:22" ht="14.25" customHeight="1">
+    <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1482,7 +1490,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
     </row>
-    <row r="36" spans="1:22" ht="14.25" customHeight="1">
+    <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1509,7 +1517,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
     </row>
-    <row r="37" spans="1:22" ht="14.25" customHeight="1">
+    <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1536,7 +1544,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
     </row>
-    <row r="38" spans="1:22" ht="14.25" customHeight="1">
+    <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1563,7 +1571,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
     </row>
-    <row r="39" spans="1:22" ht="14.25" customHeight="1">
+    <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1590,7 +1598,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
     </row>
-    <row r="40" spans="1:22" ht="14.25" customHeight="1">
+    <row r="40" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1617,7 +1625,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
     </row>
-    <row r="41" spans="1:22" ht="14.25" customHeight="1">
+    <row r="41" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1644,7 +1652,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
     </row>
-    <row r="42" spans="1:22" ht="14.25" customHeight="1">
+    <row r="42" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1671,7 +1679,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
     </row>
-    <row r="43" spans="1:22" ht="14.25" customHeight="1">
+    <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1698,7 +1706,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
     </row>
-    <row r="44" spans="1:22" ht="14.25" customHeight="1">
+    <row r="44" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1725,7 +1733,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
     </row>
-    <row r="45" spans="1:22" ht="14.25" customHeight="1">
+    <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1752,7 +1760,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
     </row>
-    <row r="46" spans="1:22" ht="14.25" customHeight="1">
+    <row r="46" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1779,7 +1787,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
     </row>
-    <row r="47" spans="1:22" ht="14.25" customHeight="1">
+    <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1806,7 +1814,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
     </row>
-    <row r="48" spans="1:22" ht="14.25" customHeight="1">
+    <row r="48" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1833,7 +1841,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
     </row>
-    <row r="49" spans="1:22" ht="14.25" customHeight="1">
+    <row r="49" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1860,7 +1868,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
     </row>
-    <row r="50" spans="1:22" ht="14.25" customHeight="1">
+    <row r="50" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1887,7 +1895,7 @@
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
     </row>
-    <row r="51" spans="1:22" ht="14.25" customHeight="1">
+    <row r="51" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1914,7 +1922,7 @@
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
     </row>
-    <row r="52" spans="1:22" ht="14.25" customHeight="1">
+    <row r="52" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1941,7 +1949,7 @@
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
     </row>
-    <row r="53" spans="1:22" ht="14.25" customHeight="1">
+    <row r="53" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1968,7 +1976,7 @@
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
     </row>
-    <row r="54" spans="1:22" ht="14.25" customHeight="1">
+    <row r="54" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1995,7 +2003,7 @@
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
     </row>
-    <row r="55" spans="1:22" ht="14.25" customHeight="1">
+    <row r="55" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2022,7 +2030,7 @@
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
     </row>
-    <row r="56" spans="1:22" ht="14.25" customHeight="1">
+    <row r="56" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2049,7 +2057,7 @@
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
     </row>
-    <row r="57" spans="1:22" ht="14.25" customHeight="1">
+    <row r="57" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2076,7 +2084,7 @@
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
     </row>
-    <row r="58" spans="1:22" ht="14.25" customHeight="1">
+    <row r="58" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2103,7 +2111,7 @@
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
     </row>
-    <row r="59" spans="1:22" ht="14.25" customHeight="1">
+    <row r="59" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2130,7 +2138,7 @@
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
     </row>
-    <row r="60" spans="1:22" ht="14.25" customHeight="1">
+    <row r="60" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2157,7 +2165,7 @@
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
     </row>
-    <row r="61" spans="1:22" ht="14.25" customHeight="1">
+    <row r="61" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2184,7 +2192,7 @@
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
     </row>
-    <row r="62" spans="1:22" ht="14.25" customHeight="1">
+    <row r="62" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2211,7 +2219,7 @@
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
     </row>
-    <row r="63" spans="1:22" ht="14.25" customHeight="1">
+    <row r="63" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2238,7 +2246,7 @@
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
     </row>
-    <row r="64" spans="1:22" ht="14.25" customHeight="1">
+    <row r="64" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2265,7 +2273,7 @@
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
     </row>
-    <row r="65" spans="1:22" ht="14.25" customHeight="1">
+    <row r="65" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2292,7 +2300,7 @@
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
     </row>
-    <row r="66" spans="1:22" ht="14.25" customHeight="1">
+    <row r="66" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2319,7 +2327,7 @@
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
     </row>
-    <row r="67" spans="1:22" ht="14.25" customHeight="1">
+    <row r="67" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2346,7 +2354,7 @@
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
     </row>
-    <row r="68" spans="1:22" ht="14.25" customHeight="1">
+    <row r="68" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2373,7 +2381,7 @@
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
     </row>
-    <row r="69" spans="1:22" ht="14.25" customHeight="1">
+    <row r="69" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -2400,7 +2408,7 @@
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
     </row>
-    <row r="70" spans="1:22" ht="14.25" customHeight="1">
+    <row r="70" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -2427,7 +2435,7 @@
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
     </row>
-    <row r="71" spans="1:22" ht="14.25" customHeight="1">
+    <row r="71" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <f t="shared" ref="A71:A134" si="1">ROW()-1</f>
         <v>70</v>
@@ -2454,7 +2462,7 @@
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
     </row>
-    <row r="72" spans="1:22" ht="14.25" customHeight="1">
+    <row r="72" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2481,7 +2489,7 @@
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
     </row>
-    <row r="73" spans="1:22" ht="14.25" customHeight="1">
+    <row r="73" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2508,7 +2516,7 @@
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
     </row>
-    <row r="74" spans="1:22" ht="14.25" customHeight="1">
+    <row r="74" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2535,7 +2543,7 @@
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
     </row>
-    <row r="75" spans="1:22" ht="14.25" customHeight="1">
+    <row r="75" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2562,7 +2570,7 @@
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
     </row>
-    <row r="76" spans="1:22" ht="14.25" customHeight="1">
+    <row r="76" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2589,7 +2597,7 @@
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
     </row>
-    <row r="77" spans="1:22" ht="14.25" customHeight="1">
+    <row r="77" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2616,7 +2624,7 @@
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
     </row>
-    <row r="78" spans="1:22" ht="14.25" customHeight="1">
+    <row r="78" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2643,7 +2651,7 @@
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
     </row>
-    <row r="79" spans="1:22" ht="14.25" customHeight="1">
+    <row r="79" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2670,7 +2678,7 @@
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
     </row>
-    <row r="80" spans="1:22" ht="14.25" customHeight="1">
+    <row r="80" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2697,7 +2705,7 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" spans="1:22" ht="14.25" customHeight="1">
+    <row r="81" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2724,7 +2732,7 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:22" ht="14.25" customHeight="1">
+    <row r="82" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2751,7 +2759,7 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83" spans="1:22" ht="14.25" customHeight="1">
+    <row r="83" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2778,7 +2786,7 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
     </row>
-    <row r="84" spans="1:22" ht="14.25" customHeight="1">
+    <row r="84" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2805,7 +2813,7 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:22" ht="14.25" customHeight="1">
+    <row r="85" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2832,7 +2840,7 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" spans="1:22" ht="14.25" customHeight="1">
+    <row r="86" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2859,7 +2867,7 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" spans="1:22" ht="14.25" customHeight="1">
+    <row r="87" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2886,7 +2894,7 @@
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="1:22" ht="14.25" customHeight="1">
+    <row r="88" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -2913,7 +2921,7 @@
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" spans="1:22" ht="14.25" customHeight="1">
+    <row r="89" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2940,7 +2948,7 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" spans="1:22" ht="14.25" customHeight="1">
+    <row r="90" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2967,7 +2975,7 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" spans="1:22" ht="14.25" customHeight="1">
+    <row r="91" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2994,7 +3002,7 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" spans="1:22" ht="14.25" customHeight="1">
+    <row r="92" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -3021,7 +3029,7 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" spans="1:22" ht="14.25" customHeight="1">
+    <row r="93" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -3048,7 +3056,7 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:22" ht="14.25" customHeight="1">
+    <row r="94" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -3075,7 +3083,7 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:22" ht="14.25" customHeight="1">
+    <row r="95" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -3102,7 +3110,7 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:22" ht="14.25" customHeight="1">
+    <row r="96" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -3129,7 +3137,7 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:22" ht="14.25" customHeight="1">
+    <row r="97" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -3156,7 +3164,7 @@
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:22" ht="14.25" customHeight="1">
+    <row r="98" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -3183,7 +3191,7 @@
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
     </row>
-    <row r="99" spans="1:22" ht="14.25" customHeight="1">
+    <row r="99" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -3210,7 +3218,7 @@
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100" spans="1:22" ht="14.25" customHeight="1">
+    <row r="100" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -3237,7 +3245,7 @@
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
     </row>
-    <row r="101" spans="1:22" ht="14.25" customHeight="1">
+    <row r="101" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -3264,7 +3272,7 @@
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
     </row>
-    <row r="102" spans="1:22" ht="14.25" customHeight="1">
+    <row r="102" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -3291,7 +3299,7 @@
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
     </row>
-    <row r="103" spans="1:22" ht="14.25" customHeight="1">
+    <row r="103" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -3318,7 +3326,7 @@
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:22" ht="14.25" customHeight="1">
+    <row r="104" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -3345,7 +3353,7 @@
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:22" ht="14.25" customHeight="1">
+    <row r="105" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -3372,7 +3380,7 @@
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
     </row>
-    <row r="106" spans="1:22" ht="14.25" customHeight="1">
+    <row r="106" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -3399,7 +3407,7 @@
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" spans="1:22" ht="14.25" customHeight="1">
+    <row r="107" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -3426,7 +3434,7 @@
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" spans="1:22" ht="14.25" customHeight="1">
+    <row r="108" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -3453,7 +3461,7 @@
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
     </row>
-    <row r="109" spans="1:22" ht="14.25" customHeight="1">
+    <row r="109" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -3480,7 +3488,7 @@
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
     </row>
-    <row r="110" spans="1:22" ht="14.25" customHeight="1">
+    <row r="110" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -3507,7 +3515,7 @@
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
     </row>
-    <row r="111" spans="1:22" ht="14.25" customHeight="1">
+    <row r="111" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -3534,7 +3542,7 @@
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
     </row>
-    <row r="112" spans="1:22" ht="14.25" customHeight="1">
+    <row r="112" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -3561,7 +3569,7 @@
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
     </row>
-    <row r="113" spans="1:22" ht="14.25" customHeight="1">
+    <row r="113" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -3588,7 +3596,7 @@
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
     </row>
-    <row r="114" spans="1:22" ht="14.25" customHeight="1">
+    <row r="114" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -3615,7 +3623,7 @@
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
     </row>
-    <row r="115" spans="1:22" ht="14.25" customHeight="1">
+    <row r="115" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -3642,7 +3650,7 @@
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
     </row>
-    <row r="116" spans="1:22" ht="14.25" customHeight="1">
+    <row r="116" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -3669,7 +3677,7 @@
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
     </row>
-    <row r="117" spans="1:22" ht="14.25" customHeight="1">
+    <row r="117" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -3696,7 +3704,7 @@
       <c r="U117" s="9"/>
       <c r="V117" s="9"/>
     </row>
-    <row r="118" spans="1:22" ht="14.25" customHeight="1">
+    <row r="118" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -3723,7 +3731,7 @@
       <c r="U118" s="9"/>
       <c r="V118" s="9"/>
     </row>
-    <row r="119" spans="1:22" ht="14.25" customHeight="1">
+    <row r="119" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -3750,7 +3758,7 @@
       <c r="U119" s="9"/>
       <c r="V119" s="9"/>
     </row>
-    <row r="120" spans="1:22" ht="14.25" customHeight="1">
+    <row r="120" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -3777,7 +3785,7 @@
       <c r="U120" s="9"/>
       <c r="V120" s="9"/>
     </row>
-    <row r="121" spans="1:22" ht="14.25" customHeight="1">
+    <row r="121" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -3804,7 +3812,7 @@
       <c r="U121" s="9"/>
       <c r="V121" s="9"/>
     </row>
-    <row r="122" spans="1:22" ht="14.25" customHeight="1">
+    <row r="122" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -3831,7 +3839,7 @@
       <c r="U122" s="9"/>
       <c r="V122" s="9"/>
     </row>
-    <row r="123" spans="1:22" ht="14.25" customHeight="1">
+    <row r="123" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -3858,7 +3866,7 @@
       <c r="U123" s="9"/>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:22" ht="14.25" customHeight="1">
+    <row r="124" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -3885,7 +3893,7 @@
       <c r="U124" s="9"/>
       <c r="V124" s="9"/>
     </row>
-    <row r="125" spans="1:22" ht="14.25" customHeight="1">
+    <row r="125" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -3912,7 +3920,7 @@
       <c r="U125" s="9"/>
       <c r="V125" s="9"/>
     </row>
-    <row r="126" spans="1:22" ht="14.25" customHeight="1">
+    <row r="126" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -3939,7 +3947,7 @@
       <c r="U126" s="9"/>
       <c r="V126" s="9"/>
     </row>
-    <row r="127" spans="1:22" ht="14.25" customHeight="1">
+    <row r="127" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -3966,7 +3974,7 @@
       <c r="U127" s="9"/>
       <c r="V127" s="9"/>
     </row>
-    <row r="128" spans="1:22" ht="14.25" customHeight="1">
+    <row r="128" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -3993,7 +4001,7 @@
       <c r="U128" s="9"/>
       <c r="V128" s="9"/>
     </row>
-    <row r="129" spans="1:22" ht="14.25" customHeight="1">
+    <row r="129" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -4020,7 +4028,7 @@
       <c r="U129" s="9"/>
       <c r="V129" s="9"/>
     </row>
-    <row r="130" spans="1:22" ht="14.25" customHeight="1">
+    <row r="130" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -4047,7 +4055,7 @@
       <c r="U130" s="9"/>
       <c r="V130" s="9"/>
     </row>
-    <row r="131" spans="1:22" ht="14.25" customHeight="1">
+    <row r="131" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -4074,7 +4082,7 @@
       <c r="U131" s="9"/>
       <c r="V131" s="9"/>
     </row>
-    <row r="132" spans="1:22" ht="14.25" customHeight="1">
+    <row r="132" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -4101,7 +4109,7 @@
       <c r="U132" s="9"/>
       <c r="V132" s="9"/>
     </row>
-    <row r="133" spans="1:22" ht="14.25" customHeight="1">
+    <row r="133" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -4128,7 +4136,7 @@
       <c r="U133" s="9"/>
       <c r="V133" s="9"/>
     </row>
-    <row r="134" spans="1:22" ht="14.25" customHeight="1">
+    <row r="134" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -4155,7 +4163,7 @@
       <c r="U134" s="9"/>
       <c r="V134" s="9"/>
     </row>
-    <row r="135" spans="1:22" ht="14.25" customHeight="1">
+    <row r="135" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6">
         <f t="shared" ref="A135:A198" si="2">ROW()-1</f>
         <v>134</v>
@@ -4182,7 +4190,7 @@
       <c r="U135" s="9"/>
       <c r="V135" s="9"/>
     </row>
-    <row r="136" spans="1:22" ht="14.25" customHeight="1">
+    <row r="136" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -4209,7 +4217,7 @@
       <c r="U136" s="9"/>
       <c r="V136" s="9"/>
     </row>
-    <row r="137" spans="1:22" ht="14.25" customHeight="1">
+    <row r="137" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -4236,7 +4244,7 @@
       <c r="U137" s="9"/>
       <c r="V137" s="9"/>
     </row>
-    <row r="138" spans="1:22" ht="14.25" customHeight="1">
+    <row r="138" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -4263,7 +4271,7 @@
       <c r="U138" s="9"/>
       <c r="V138" s="9"/>
     </row>
-    <row r="139" spans="1:22" ht="14.25" customHeight="1">
+    <row r="139" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -4290,7 +4298,7 @@
       <c r="U139" s="9"/>
       <c r="V139" s="9"/>
     </row>
-    <row r="140" spans="1:22" ht="14.25" customHeight="1">
+    <row r="140" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -4317,7 +4325,7 @@
       <c r="U140" s="9"/>
       <c r="V140" s="9"/>
     </row>
-    <row r="141" spans="1:22" ht="14.25" customHeight="1">
+    <row r="141" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -4344,7 +4352,7 @@
       <c r="U141" s="9"/>
       <c r="V141" s="9"/>
     </row>
-    <row r="142" spans="1:22" ht="14.25" customHeight="1">
+    <row r="142" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -4371,7 +4379,7 @@
       <c r="U142" s="9"/>
       <c r="V142" s="9"/>
     </row>
-    <row r="143" spans="1:22" ht="14.25" customHeight="1">
+    <row r="143" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -4398,7 +4406,7 @@
       <c r="U143" s="9"/>
       <c r="V143" s="9"/>
     </row>
-    <row r="144" spans="1:22" ht="14.25" customHeight="1">
+    <row r="144" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -4425,7 +4433,7 @@
       <c r="U144" s="9"/>
       <c r="V144" s="9"/>
     </row>
-    <row r="145" spans="1:22" ht="14.25" customHeight="1">
+    <row r="145" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -4452,7 +4460,7 @@
       <c r="U145" s="9"/>
       <c r="V145" s="9"/>
     </row>
-    <row r="146" spans="1:22" ht="14.25" customHeight="1">
+    <row r="146" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -4479,7 +4487,7 @@
       <c r="U146" s="9"/>
       <c r="V146" s="9"/>
     </row>
-    <row r="147" spans="1:22" ht="14.25" customHeight="1">
+    <row r="147" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -4506,7 +4514,7 @@
       <c r="U147" s="9"/>
       <c r="V147" s="9"/>
     </row>
-    <row r="148" spans="1:22" ht="14.25" customHeight="1">
+    <row r="148" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -4533,7 +4541,7 @@
       <c r="U148" s="9"/>
       <c r="V148" s="9"/>
     </row>
-    <row r="149" spans="1:22" ht="14.25" customHeight="1">
+    <row r="149" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -4560,7 +4568,7 @@
       <c r="U149" s="9"/>
       <c r="V149" s="9"/>
     </row>
-    <row r="150" spans="1:22" ht="14.25" customHeight="1">
+    <row r="150" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -4587,7 +4595,7 @@
       <c r="U150" s="9"/>
       <c r="V150" s="9"/>
     </row>
-    <row r="151" spans="1:22" ht="14.25" customHeight="1">
+    <row r="151" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -4614,7 +4622,7 @@
       <c r="U151" s="9"/>
       <c r="V151" s="9"/>
     </row>
-    <row r="152" spans="1:22" ht="14.25" customHeight="1">
+    <row r="152" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -4641,7 +4649,7 @@
       <c r="U152" s="9"/>
       <c r="V152" s="9"/>
     </row>
-    <row r="153" spans="1:22" ht="14.25" customHeight="1">
+    <row r="153" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -4668,7 +4676,7 @@
       <c r="U153" s="9"/>
       <c r="V153" s="9"/>
     </row>
-    <row r="154" spans="1:22" ht="14.25" customHeight="1">
+    <row r="154" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -4695,7 +4703,7 @@
       <c r="U154" s="9"/>
       <c r="V154" s="9"/>
     </row>
-    <row r="155" spans="1:22" ht="14.25" customHeight="1">
+    <row r="155" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -4722,7 +4730,7 @@
       <c r="U155" s="9"/>
       <c r="V155" s="9"/>
     </row>
-    <row r="156" spans="1:22" ht="14.25" customHeight="1">
+    <row r="156" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -4749,7 +4757,7 @@
       <c r="U156" s="9"/>
       <c r="V156" s="9"/>
     </row>
-    <row r="157" spans="1:22" ht="14.25" customHeight="1">
+    <row r="157" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -4776,7 +4784,7 @@
       <c r="U157" s="9"/>
       <c r="V157" s="9"/>
     </row>
-    <row r="158" spans="1:22" ht="14.25" customHeight="1">
+    <row r="158" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -4803,7 +4811,7 @@
       <c r="U158" s="9"/>
       <c r="V158" s="9"/>
     </row>
-    <row r="159" spans="1:22" ht="14.25" customHeight="1">
+    <row r="159" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -4830,7 +4838,7 @@
       <c r="U159" s="9"/>
       <c r="V159" s="9"/>
     </row>
-    <row r="160" spans="1:22" ht="14.25" customHeight="1">
+    <row r="160" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -4857,7 +4865,7 @@
       <c r="U160" s="9"/>
       <c r="V160" s="9"/>
     </row>
-    <row r="161" spans="1:22" ht="14.25" customHeight="1">
+    <row r="161" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -4884,7 +4892,7 @@
       <c r="U161" s="9"/>
       <c r="V161" s="9"/>
     </row>
-    <row r="162" spans="1:22" ht="14.25" customHeight="1">
+    <row r="162" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -4911,7 +4919,7 @@
       <c r="U162" s="9"/>
       <c r="V162" s="9"/>
     </row>
-    <row r="163" spans="1:22" ht="14.25" customHeight="1">
+    <row r="163" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -4938,7 +4946,7 @@
       <c r="U163" s="9"/>
       <c r="V163" s="9"/>
     </row>
-    <row r="164" spans="1:22" ht="14.25" customHeight="1">
+    <row r="164" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -4965,7 +4973,7 @@
       <c r="U164" s="9"/>
       <c r="V164" s="9"/>
     </row>
-    <row r="165" spans="1:22" ht="14.25" customHeight="1">
+    <row r="165" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -4992,7 +5000,7 @@
       <c r="U165" s="9"/>
       <c r="V165" s="9"/>
     </row>
-    <row r="166" spans="1:22" ht="14.25" customHeight="1">
+    <row r="166" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5019,7 +5027,7 @@
       <c r="U166" s="9"/>
       <c r="V166" s="9"/>
     </row>
-    <row r="167" spans="1:22" ht="14.25" customHeight="1">
+    <row r="167" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5046,7 +5054,7 @@
       <c r="U167" s="9"/>
       <c r="V167" s="9"/>
     </row>
-    <row r="168" spans="1:22" ht="14.25" customHeight="1">
+    <row r="168" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5073,7 +5081,7 @@
       <c r="U168" s="9"/>
       <c r="V168" s="9"/>
     </row>
-    <row r="169" spans="1:22" ht="14.25" customHeight="1">
+    <row r="169" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5100,7 +5108,7 @@
       <c r="U169" s="9"/>
       <c r="V169" s="9"/>
     </row>
-    <row r="170" spans="1:22" ht="14.25" customHeight="1">
+    <row r="170" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5127,7 +5135,7 @@
       <c r="U170" s="9"/>
       <c r="V170" s="9"/>
     </row>
-    <row r="171" spans="1:22" ht="14.25" customHeight="1">
+    <row r="171" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5154,7 +5162,7 @@
       <c r="U171" s="9"/>
       <c r="V171" s="9"/>
     </row>
-    <row r="172" spans="1:22" ht="14.25" customHeight="1">
+    <row r="172" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5181,7 +5189,7 @@
       <c r="U172" s="9"/>
       <c r="V172" s="9"/>
     </row>
-    <row r="173" spans="1:22" ht="14.25" customHeight="1">
+    <row r="173" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="6">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5208,7 +5216,7 @@
       <c r="U173" s="9"/>
       <c r="V173" s="9"/>
     </row>
-    <row r="174" spans="1:22" ht="14.25" customHeight="1">
+    <row r="174" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -5235,7 +5243,7 @@
       <c r="U174" s="9"/>
       <c r="V174" s="9"/>
     </row>
-    <row r="175" spans="1:22" ht="14.25" customHeight="1">
+    <row r="175" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -5262,7 +5270,7 @@
       <c r="U175" s="9"/>
       <c r="V175" s="9"/>
     </row>
-    <row r="176" spans="1:22" ht="14.25" customHeight="1">
+    <row r="176" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -5289,7 +5297,7 @@
       <c r="U176" s="9"/>
       <c r="V176" s="9"/>
     </row>
-    <row r="177" spans="1:22" ht="14.25" customHeight="1">
+    <row r="177" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5316,7 +5324,7 @@
       <c r="U177" s="9"/>
       <c r="V177" s="9"/>
     </row>
-    <row r="178" spans="1:22" ht="14.25" customHeight="1">
+    <row r="178" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -5343,7 +5351,7 @@
       <c r="U178" s="9"/>
       <c r="V178" s="9"/>
     </row>
-    <row r="179" spans="1:22" ht="14.25" customHeight="1">
+    <row r="179" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -5370,7 +5378,7 @@
       <c r="U179" s="9"/>
       <c r="V179" s="9"/>
     </row>
-    <row r="180" spans="1:22" ht="14.25" customHeight="1">
+    <row r="180" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -5397,7 +5405,7 @@
       <c r="U180" s="9"/>
       <c r="V180" s="9"/>
     </row>
-    <row r="181" spans="1:22" ht="14.25" customHeight="1">
+    <row r="181" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -5424,7 +5432,7 @@
       <c r="U181" s="9"/>
       <c r="V181" s="9"/>
     </row>
-    <row r="182" spans="1:22" ht="14.25" customHeight="1">
+    <row r="182" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="6">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -5451,7 +5459,7 @@
       <c r="U182" s="9"/>
       <c r="V182" s="9"/>
     </row>
-    <row r="183" spans="1:22" ht="14.25" customHeight="1">
+    <row r="183" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -5478,7 +5486,7 @@
       <c r="U183" s="9"/>
       <c r="V183" s="9"/>
     </row>
-    <row r="184" spans="1:22" ht="14.25" customHeight="1">
+    <row r="184" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -5505,7 +5513,7 @@
       <c r="U184" s="9"/>
       <c r="V184" s="9"/>
     </row>
-    <row r="185" spans="1:22" ht="14.25" customHeight="1">
+    <row r="185" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -5532,7 +5540,7 @@
       <c r="U185" s="9"/>
       <c r="V185" s="9"/>
     </row>
-    <row r="186" spans="1:22" ht="14.25" customHeight="1">
+    <row r="186" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -5559,7 +5567,7 @@
       <c r="U186" s="9"/>
       <c r="V186" s="9"/>
     </row>
-    <row r="187" spans="1:22" ht="14.25" customHeight="1">
+    <row r="187" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -5586,7 +5594,7 @@
       <c r="U187" s="9"/>
       <c r="V187" s="9"/>
     </row>
-    <row r="188" spans="1:22" ht="14.25" customHeight="1">
+    <row r="188" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -5613,7 +5621,7 @@
       <c r="U188" s="9"/>
       <c r="V188" s="9"/>
     </row>
-    <row r="189" spans="1:22" ht="14.25" customHeight="1">
+    <row r="189" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -5640,7 +5648,7 @@
       <c r="U189" s="9"/>
       <c r="V189" s="9"/>
     </row>
-    <row r="190" spans="1:22" ht="14.25" customHeight="1">
+    <row r="190" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -5667,7 +5675,7 @@
       <c r="U190" s="9"/>
       <c r="V190" s="9"/>
     </row>
-    <row r="191" spans="1:22" ht="14.25" customHeight="1">
+    <row r="191" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="6">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -5694,7 +5702,7 @@
       <c r="U191" s="9"/>
       <c r="V191" s="9"/>
     </row>
-    <row r="192" spans="1:22" ht="14.25" customHeight="1">
+    <row r="192" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -5721,7 +5729,7 @@
       <c r="U192" s="9"/>
       <c r="V192" s="9"/>
     </row>
-    <row r="193" spans="1:22" ht="14.25" customHeight="1">
+    <row r="193" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -5748,7 +5756,7 @@
       <c r="U193" s="9"/>
       <c r="V193" s="9"/>
     </row>
-    <row r="194" spans="1:22" ht="14.25" customHeight="1">
+    <row r="194" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -5775,7 +5783,7 @@
       <c r="U194" s="9"/>
       <c r="V194" s="9"/>
     </row>
-    <row r="195" spans="1:22" ht="14.25" customHeight="1">
+    <row r="195" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -5802,7 +5810,7 @@
       <c r="U195" s="9"/>
       <c r="V195" s="9"/>
     </row>
-    <row r="196" spans="1:22" ht="14.25" customHeight="1">
+    <row r="196" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -5829,7 +5837,7 @@
       <c r="U196" s="9"/>
       <c r="V196" s="9"/>
     </row>
-    <row r="197" spans="1:22" ht="14.25" customHeight="1">
+    <row r="197" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -5856,7 +5864,7 @@
       <c r="U197" s="9"/>
       <c r="V197" s="9"/>
     </row>
-    <row r="198" spans="1:22" ht="14.25" customHeight="1">
+    <row r="198" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -5883,7 +5891,7 @@
       <c r="U198" s="9"/>
       <c r="V198" s="9"/>
     </row>
-    <row r="199" spans="1:22" ht="14.25" customHeight="1">
+    <row r="199" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6">
         <f t="shared" ref="A199:A262" si="3">ROW()-1</f>
         <v>198</v>
@@ -5910,7 +5918,7 @@
       <c r="U199" s="9"/>
       <c r="V199" s="9"/>
     </row>
-    <row r="200" spans="1:22" ht="14.25" customHeight="1">
+    <row r="200" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -5937,7 +5945,7 @@
       <c r="U200" s="9"/>
       <c r="V200" s="9"/>
     </row>
-    <row r="201" spans="1:22" ht="14.25" customHeight="1">
+    <row r="201" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -5964,7 +5972,7 @@
       <c r="U201" s="9"/>
       <c r="V201" s="9"/>
     </row>
-    <row r="202" spans="1:22" ht="14.25" customHeight="1">
+    <row r="202" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -5991,7 +5999,7 @@
       <c r="U202" s="9"/>
       <c r="V202" s="9"/>
     </row>
-    <row r="203" spans="1:22" ht="14.25" customHeight="1">
+    <row r="203" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6018,7 +6026,7 @@
       <c r="U203" s="9"/>
       <c r="V203" s="9"/>
     </row>
-    <row r="204" spans="1:22" ht="14.25" customHeight="1">
+    <row r="204" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6045,7 +6053,7 @@
       <c r="U204" s="9"/>
       <c r="V204" s="9"/>
     </row>
-    <row r="205" spans="1:22" ht="14.25" customHeight="1">
+    <row r="205" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="6">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6072,7 +6080,7 @@
       <c r="U205" s="9"/>
       <c r="V205" s="9"/>
     </row>
-    <row r="206" spans="1:22" ht="14.25" customHeight="1">
+    <row r="206" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="6">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6099,7 +6107,7 @@
       <c r="U206" s="9"/>
       <c r="V206" s="9"/>
     </row>
-    <row r="207" spans="1:22" ht="14.25" customHeight="1">
+    <row r="207" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6126,7 +6134,7 @@
       <c r="U207" s="9"/>
       <c r="V207" s="9"/>
     </row>
-    <row r="208" spans="1:22" ht="14.25" customHeight="1">
+    <row r="208" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -6153,7 +6161,7 @@
       <c r="U208" s="9"/>
       <c r="V208" s="9"/>
     </row>
-    <row r="209" spans="1:22" ht="14.25" customHeight="1">
+    <row r="209" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6180,7 +6188,7 @@
       <c r="U209" s="9"/>
       <c r="V209" s="9"/>
     </row>
-    <row r="210" spans="1:22" ht="14.25" customHeight="1">
+    <row r="210" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6207,7 +6215,7 @@
       <c r="U210" s="9"/>
       <c r="V210" s="9"/>
     </row>
-    <row r="211" spans="1:22" ht="14.25" customHeight="1">
+    <row r="211" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6234,7 +6242,7 @@
       <c r="U211" s="9"/>
       <c r="V211" s="9"/>
     </row>
-    <row r="212" spans="1:22" ht="14.25" customHeight="1">
+    <row r="212" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -6261,7 +6269,7 @@
       <c r="U212" s="9"/>
       <c r="V212" s="9"/>
     </row>
-    <row r="213" spans="1:22" ht="14.25" customHeight="1">
+    <row r="213" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6288,7 +6296,7 @@
       <c r="U213" s="9"/>
       <c r="V213" s="9"/>
     </row>
-    <row r="214" spans="1:22" ht="14.25" customHeight="1">
+    <row r="214" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6315,7 +6323,7 @@
       <c r="U214" s="9"/>
       <c r="V214" s="9"/>
     </row>
-    <row r="215" spans="1:22" ht="14.25" customHeight="1">
+    <row r="215" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6342,7 +6350,7 @@
       <c r="U215" s="9"/>
       <c r="V215" s="9"/>
     </row>
-    <row r="216" spans="1:22" ht="14.25" customHeight="1">
+    <row r="216" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -6369,7 +6377,7 @@
       <c r="U216" s="9"/>
       <c r="V216" s="9"/>
     </row>
-    <row r="217" spans="1:22" ht="14.25" customHeight="1">
+    <row r="217" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6396,7 +6404,7 @@
       <c r="U217" s="9"/>
       <c r="V217" s="9"/>
     </row>
-    <row r="218" spans="1:22" ht="14.25" customHeight="1">
+    <row r="218" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -6423,7 +6431,7 @@
       <c r="U218" s="9"/>
       <c r="V218" s="9"/>
     </row>
-    <row r="219" spans="1:22" ht="14.25" customHeight="1">
+    <row r="219" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -6450,7 +6458,7 @@
       <c r="U219" s="9"/>
       <c r="V219" s="9"/>
     </row>
-    <row r="220" spans="1:22" ht="14.25" customHeight="1">
+    <row r="220" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="6">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -6477,7 +6485,7 @@
       <c r="U220" s="9"/>
       <c r="V220" s="9"/>
     </row>
-    <row r="221" spans="1:22" ht="14.25" customHeight="1">
+    <row r="221" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="6">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6504,7 +6512,7 @@
       <c r="U221" s="9"/>
       <c r="V221" s="9"/>
     </row>
-    <row r="222" spans="1:22" ht="14.25" customHeight="1">
+    <row r="222" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="6">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -6531,7 +6539,7 @@
       <c r="U222" s="9"/>
       <c r="V222" s="9"/>
     </row>
-    <row r="223" spans="1:22" ht="14.25" customHeight="1">
+    <row r="223" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="6">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -6558,7 +6566,7 @@
       <c r="U223" s="9"/>
       <c r="V223" s="9"/>
     </row>
-    <row r="224" spans="1:22" ht="14.25" customHeight="1">
+    <row r="224" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="6">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -6585,7 +6593,7 @@
       <c r="U224" s="9"/>
       <c r="V224" s="9"/>
     </row>
-    <row r="225" spans="1:22" ht="14.25" customHeight="1">
+    <row r="225" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="6">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -6612,7 +6620,7 @@
       <c r="U225" s="9"/>
       <c r="V225" s="9"/>
     </row>
-    <row r="226" spans="1:22" ht="14.25" customHeight="1">
+    <row r="226" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="6">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -6639,7 +6647,7 @@
       <c r="U226" s="9"/>
       <c r="V226" s="9"/>
     </row>
-    <row r="227" spans="1:22" ht="14.25" customHeight="1">
+    <row r="227" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="6">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -6666,7 +6674,7 @@
       <c r="U227" s="9"/>
       <c r="V227" s="9"/>
     </row>
-    <row r="228" spans="1:22" ht="14.25" customHeight="1">
+    <row r="228" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="6">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -6693,7 +6701,7 @@
       <c r="U228" s="9"/>
       <c r="V228" s="9"/>
     </row>
-    <row r="229" spans="1:22" ht="14.25" customHeight="1">
+    <row r="229" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="6">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -6720,7 +6728,7 @@
       <c r="U229" s="9"/>
       <c r="V229" s="9"/>
     </row>
-    <row r="230" spans="1:22" ht="14.25" customHeight="1">
+    <row r="230" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="6">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -6747,7 +6755,7 @@
       <c r="U230" s="9"/>
       <c r="V230" s="9"/>
     </row>
-    <row r="231" spans="1:22" ht="14.25" customHeight="1">
+    <row r="231" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="6">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -6774,7 +6782,7 @@
       <c r="U231" s="9"/>
       <c r="V231" s="9"/>
     </row>
-    <row r="232" spans="1:22" ht="14.25" customHeight="1">
+    <row r="232" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="6">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -6801,7 +6809,7 @@
       <c r="U232" s="9"/>
       <c r="V232" s="9"/>
     </row>
-    <row r="233" spans="1:22" ht="14.25" customHeight="1">
+    <row r="233" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="6">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -6828,7 +6836,7 @@
       <c r="U233" s="9"/>
       <c r="V233" s="9"/>
     </row>
-    <row r="234" spans="1:22" ht="14.25" customHeight="1">
+    <row r="234" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="6">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -6855,7 +6863,7 @@
       <c r="U234" s="9"/>
       <c r="V234" s="9"/>
     </row>
-    <row r="235" spans="1:22" ht="14.25" customHeight="1">
+    <row r="235" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="6">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -6882,7 +6890,7 @@
       <c r="U235" s="9"/>
       <c r="V235" s="9"/>
     </row>
-    <row r="236" spans="1:22" ht="14.25" customHeight="1">
+    <row r="236" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="6">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -6909,7 +6917,7 @@
       <c r="U236" s="9"/>
       <c r="V236" s="9"/>
     </row>
-    <row r="237" spans="1:22" ht="14.25" customHeight="1">
+    <row r="237" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="6">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -6936,7 +6944,7 @@
       <c r="U237" s="9"/>
       <c r="V237" s="9"/>
     </row>
-    <row r="238" spans="1:22" ht="14.25" customHeight="1">
+    <row r="238" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="6">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -6963,7 +6971,7 @@
       <c r="U238" s="9"/>
       <c r="V238" s="9"/>
     </row>
-    <row r="239" spans="1:22" ht="14.25" customHeight="1">
+    <row r="239" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="6">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -6990,7 +6998,7 @@
       <c r="U239" s="9"/>
       <c r="V239" s="9"/>
     </row>
-    <row r="240" spans="1:22" ht="14.25" customHeight="1">
+    <row r="240" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="6">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -7017,7 +7025,7 @@
       <c r="U240" s="9"/>
       <c r="V240" s="9"/>
     </row>
-    <row r="241" spans="1:22" ht="14.25" customHeight="1">
+    <row r="241" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="6">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -7044,7 +7052,7 @@
       <c r="U241" s="9"/>
       <c r="V241" s="9"/>
     </row>
-    <row r="242" spans="1:22" ht="14.25" customHeight="1">
+    <row r="242" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="6">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -7071,7 +7079,7 @@
       <c r="U242" s="9"/>
       <c r="V242" s="9"/>
     </row>
-    <row r="243" spans="1:22" ht="14.25" customHeight="1">
+    <row r="243" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="6">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -7098,7 +7106,7 @@
       <c r="U243" s="9"/>
       <c r="V243" s="9"/>
     </row>
-    <row r="244" spans="1:22" ht="14.25" customHeight="1">
+    <row r="244" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="6">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -7125,7 +7133,7 @@
       <c r="U244" s="9"/>
       <c r="V244" s="9"/>
     </row>
-    <row r="245" spans="1:22" ht="14.25" customHeight="1">
+    <row r="245" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="6">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -7152,7 +7160,7 @@
       <c r="U245" s="9"/>
       <c r="V245" s="9"/>
     </row>
-    <row r="246" spans="1:22" ht="14.25" customHeight="1">
+    <row r="246" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -7179,7 +7187,7 @@
       <c r="U246" s="9"/>
       <c r="V246" s="9"/>
     </row>
-    <row r="247" spans="1:22" ht="14.25" customHeight="1">
+    <row r="247" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -7206,7 +7214,7 @@
       <c r="U247" s="9"/>
       <c r="V247" s="9"/>
     </row>
-    <row r="248" spans="1:22" ht="14.25" customHeight="1">
+    <row r="248" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -7233,7 +7241,7 @@
       <c r="U248" s="9"/>
       <c r="V248" s="9"/>
     </row>
-    <row r="249" spans="1:22" ht="14.25" customHeight="1">
+    <row r="249" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -7260,7 +7268,7 @@
       <c r="U249" s="9"/>
       <c r="V249" s="9"/>
     </row>
-    <row r="250" spans="1:22" ht="14.25" customHeight="1">
+    <row r="250" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="6">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -7287,7 +7295,7 @@
       <c r="U250" s="9"/>
       <c r="V250" s="9"/>
     </row>
-    <row r="251" spans="1:22" ht="14.25" customHeight="1">
+    <row r="251" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="6">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -7314,7 +7322,7 @@
       <c r="U251" s="9"/>
       <c r="V251" s="9"/>
     </row>
-    <row r="252" spans="1:22" ht="14.25" customHeight="1">
+    <row r="252" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="6">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -7341,7 +7349,7 @@
       <c r="U252" s="9"/>
       <c r="V252" s="9"/>
     </row>
-    <row r="253" spans="1:22" ht="14.25" customHeight="1">
+    <row r="253" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="6">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -7368,7 +7376,7 @@
       <c r="U253" s="9"/>
       <c r="V253" s="9"/>
     </row>
-    <row r="254" spans="1:22" ht="14.25" customHeight="1">
+    <row r="254" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="6">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -7395,7 +7403,7 @@
       <c r="U254" s="9"/>
       <c r="V254" s="9"/>
     </row>
-    <row r="255" spans="1:22" ht="14.25" customHeight="1">
+    <row r="255" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="6">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -7422,7 +7430,7 @@
       <c r="U255" s="9"/>
       <c r="V255" s="9"/>
     </row>
-    <row r="256" spans="1:22" ht="14.25" customHeight="1">
+    <row r="256" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="6">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -7449,7 +7457,7 @@
       <c r="U256" s="9"/>
       <c r="V256" s="9"/>
     </row>
-    <row r="257" spans="1:22" ht="14.25" customHeight="1">
+    <row r="257" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -7476,7 +7484,7 @@
       <c r="U257" s="9"/>
       <c r="V257" s="9"/>
     </row>
-    <row r="258" spans="1:22" ht="14.25" customHeight="1">
+    <row r="258" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="6">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -7503,7 +7511,7 @@
       <c r="U258" s="9"/>
       <c r="V258" s="9"/>
     </row>
-    <row r="259" spans="1:22" ht="14.25" customHeight="1">
+    <row r="259" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="6">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -7530,7 +7538,7 @@
       <c r="U259" s="9"/>
       <c r="V259" s="9"/>
     </row>
-    <row r="260" spans="1:22" ht="14.25" customHeight="1">
+    <row r="260" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="6">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -7557,7 +7565,7 @@
       <c r="U260" s="9"/>
       <c r="V260" s="9"/>
     </row>
-    <row r="261" spans="1:22" ht="14.25" customHeight="1">
+    <row r="261" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -7584,7 +7592,7 @@
       <c r="U261" s="9"/>
       <c r="V261" s="9"/>
     </row>
-    <row r="262" spans="1:22" ht="14.25" customHeight="1">
+    <row r="262" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="6">
         <f t="shared" si="3"/>
         <v>261</v>
@@ -7611,7 +7619,7 @@
       <c r="U262" s="9"/>
       <c r="V262" s="9"/>
     </row>
-    <row r="263" spans="1:22" ht="14.25" customHeight="1">
+    <row r="263" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="6">
         <f t="shared" ref="A263:A326" si="4">ROW()-1</f>
         <v>262</v>
@@ -7638,7 +7646,7 @@
       <c r="U263" s="9"/>
       <c r="V263" s="9"/>
     </row>
-    <row r="264" spans="1:22" ht="14.25" customHeight="1">
+    <row r="264" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="6">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -7665,7 +7673,7 @@
       <c r="U264" s="9"/>
       <c r="V264" s="9"/>
     </row>
-    <row r="265" spans="1:22" ht="14.25" customHeight="1">
+    <row r="265" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="6">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -7692,7 +7700,7 @@
       <c r="U265" s="9"/>
       <c r="V265" s="9"/>
     </row>
-    <row r="266" spans="1:22" ht="14.25" customHeight="1">
+    <row r="266" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="6">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -7719,7 +7727,7 @@
       <c r="U266" s="9"/>
       <c r="V266" s="9"/>
     </row>
-    <row r="267" spans="1:22" ht="14.25" customHeight="1">
+    <row r="267" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="6">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -7746,7 +7754,7 @@
       <c r="U267" s="9"/>
       <c r="V267" s="9"/>
     </row>
-    <row r="268" spans="1:22" ht="14.25" customHeight="1">
+    <row r="268" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="6">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -7773,7 +7781,7 @@
       <c r="U268" s="9"/>
       <c r="V268" s="9"/>
     </row>
-    <row r="269" spans="1:22" ht="14.25" customHeight="1">
+    <row r="269" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="6">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -7800,7 +7808,7 @@
       <c r="U269" s="9"/>
       <c r="V269" s="9"/>
     </row>
-    <row r="270" spans="1:22" ht="14.25" customHeight="1">
+    <row r="270" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="6">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -7827,7 +7835,7 @@
       <c r="U270" s="9"/>
       <c r="V270" s="9"/>
     </row>
-    <row r="271" spans="1:22" ht="14.25" customHeight="1">
+    <row r="271" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="6">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -7854,7 +7862,7 @@
       <c r="U271" s="9"/>
       <c r="V271" s="9"/>
     </row>
-    <row r="272" spans="1:22" ht="14.25" customHeight="1">
+    <row r="272" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="6">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -7881,7 +7889,7 @@
       <c r="U272" s="9"/>
       <c r="V272" s="9"/>
     </row>
-    <row r="273" spans="1:22" ht="14.25" customHeight="1">
+    <row r="273" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="6">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -7908,7 +7916,7 @@
       <c r="U273" s="9"/>
       <c r="V273" s="9"/>
     </row>
-    <row r="274" spans="1:22" ht="14.25" customHeight="1">
+    <row r="274" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="6">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -7935,7 +7943,7 @@
       <c r="U274" s="9"/>
       <c r="V274" s="9"/>
     </row>
-    <row r="275" spans="1:22" ht="14.25" customHeight="1">
+    <row r="275" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="6">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -7962,7 +7970,7 @@
       <c r="U275" s="9"/>
       <c r="V275" s="9"/>
     </row>
-    <row r="276" spans="1:22" ht="14.25" customHeight="1">
+    <row r="276" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="6">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -7989,7 +7997,7 @@
       <c r="U276" s="9"/>
       <c r="V276" s="9"/>
     </row>
-    <row r="277" spans="1:22" ht="14.25" customHeight="1">
+    <row r="277" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="6">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -8016,7 +8024,7 @@
       <c r="U277" s="9"/>
       <c r="V277" s="9"/>
     </row>
-    <row r="278" spans="1:22" ht="14.25" customHeight="1">
+    <row r="278" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="6">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -8043,7 +8051,7 @@
       <c r="U278" s="9"/>
       <c r="V278" s="9"/>
     </row>
-    <row r="279" spans="1:22" ht="14.25" customHeight="1">
+    <row r="279" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="6">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -8070,7 +8078,7 @@
       <c r="U279" s="9"/>
       <c r="V279" s="9"/>
     </row>
-    <row r="280" spans="1:22" ht="14.25" customHeight="1">
+    <row r="280" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="6">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -8097,7 +8105,7 @@
       <c r="U280" s="9"/>
       <c r="V280" s="9"/>
     </row>
-    <row r="281" spans="1:22" ht="14.25" customHeight="1">
+    <row r="281" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="6">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -8124,7 +8132,7 @@
       <c r="U281" s="9"/>
       <c r="V281" s="9"/>
     </row>
-    <row r="282" spans="1:22" ht="14.25" customHeight="1">
+    <row r="282" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="6">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -8151,7 +8159,7 @@
       <c r="U282" s="9"/>
       <c r="V282" s="9"/>
     </row>
-    <row r="283" spans="1:22" ht="14.25" customHeight="1">
+    <row r="283" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="6">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -8178,7 +8186,7 @@
       <c r="U283" s="9"/>
       <c r="V283" s="9"/>
     </row>
-    <row r="284" spans="1:22" ht="14.25" customHeight="1">
+    <row r="284" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="6">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -8205,7 +8213,7 @@
       <c r="U284" s="9"/>
       <c r="V284" s="9"/>
     </row>
-    <row r="285" spans="1:22" ht="14.25" customHeight="1">
+    <row r="285" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="6">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -8232,7 +8240,7 @@
       <c r="U285" s="9"/>
       <c r="V285" s="9"/>
     </row>
-    <row r="286" spans="1:22" ht="14.25" customHeight="1">
+    <row r="286" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -8259,7 +8267,7 @@
       <c r="U286" s="9"/>
       <c r="V286" s="9"/>
     </row>
-    <row r="287" spans="1:22" ht="14.25" customHeight="1">
+    <row r="287" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="6">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -8286,7 +8294,7 @@
       <c r="U287" s="9"/>
       <c r="V287" s="9"/>
     </row>
-    <row r="288" spans="1:22" ht="14.25" customHeight="1">
+    <row r="288" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="6">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -8313,7 +8321,7 @@
       <c r="U288" s="9"/>
       <c r="V288" s="9"/>
     </row>
-    <row r="289" spans="1:22" ht="14.25" customHeight="1">
+    <row r="289" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -8340,7 +8348,7 @@
       <c r="U289" s="9"/>
       <c r="V289" s="9"/>
     </row>
-    <row r="290" spans="1:22" ht="14.25" customHeight="1">
+    <row r="290" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="6">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -8367,7 +8375,7 @@
       <c r="U290" s="9"/>
       <c r="V290" s="9"/>
     </row>
-    <row r="291" spans="1:22" ht="14.25" customHeight="1">
+    <row r="291" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="6">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -8394,7 +8402,7 @@
       <c r="U291" s="9"/>
       <c r="V291" s="9"/>
     </row>
-    <row r="292" spans="1:22" ht="14.25" customHeight="1">
+    <row r="292" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="6">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -8421,7 +8429,7 @@
       <c r="U292" s="9"/>
       <c r="V292" s="9"/>
     </row>
-    <row r="293" spans="1:22" ht="14.25" customHeight="1">
+    <row r="293" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="6">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -8448,7 +8456,7 @@
       <c r="U293" s="9"/>
       <c r="V293" s="9"/>
     </row>
-    <row r="294" spans="1:22" ht="14.25" customHeight="1">
+    <row r="294" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="6">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -8475,7 +8483,7 @@
       <c r="U294" s="9"/>
       <c r="V294" s="9"/>
     </row>
-    <row r="295" spans="1:22" ht="14.25" customHeight="1">
+    <row r="295" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="6">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -8502,7 +8510,7 @@
       <c r="U295" s="9"/>
       <c r="V295" s="9"/>
     </row>
-    <row r="296" spans="1:22" ht="14.25" customHeight="1">
+    <row r="296" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="6">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -8529,7 +8537,7 @@
       <c r="U296" s="9"/>
       <c r="V296" s="9"/>
     </row>
-    <row r="297" spans="1:22" ht="14.25" customHeight="1">
+    <row r="297" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="6">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -8556,7 +8564,7 @@
       <c r="U297" s="9"/>
       <c r="V297" s="9"/>
     </row>
-    <row r="298" spans="1:22" ht="14.25" customHeight="1">
+    <row r="298" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="6">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -8583,7 +8591,7 @@
       <c r="U298" s="9"/>
       <c r="V298" s="9"/>
     </row>
-    <row r="299" spans="1:22" ht="14.25" customHeight="1">
+    <row r="299" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="6">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -8610,7 +8618,7 @@
       <c r="U299" s="9"/>
       <c r="V299" s="9"/>
     </row>
-    <row r="300" spans="1:22" ht="14.25" customHeight="1">
+    <row r="300" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="6">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -8637,7 +8645,7 @@
       <c r="U300" s="9"/>
       <c r="V300" s="9"/>
     </row>
-    <row r="301" spans="1:22" ht="14.25" customHeight="1">
+    <row r="301" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="6">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -8664,7 +8672,7 @@
       <c r="U301" s="9"/>
       <c r="V301" s="9"/>
     </row>
-    <row r="302" spans="1:22" ht="14.25" customHeight="1">
+    <row r="302" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="6">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -8691,7 +8699,7 @@
       <c r="U302" s="9"/>
       <c r="V302" s="9"/>
     </row>
-    <row r="303" spans="1:22" ht="14.25" customHeight="1">
+    <row r="303" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="6">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -8718,7 +8726,7 @@
       <c r="U303" s="9"/>
       <c r="V303" s="9"/>
     </row>
-    <row r="304" spans="1:22" ht="14.25" customHeight="1">
+    <row r="304" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="6">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -8745,7 +8753,7 @@
       <c r="U304" s="9"/>
       <c r="V304" s="9"/>
     </row>
-    <row r="305" spans="1:22" ht="14.25" customHeight="1">
+    <row r="305" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="6">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -8772,7 +8780,7 @@
       <c r="U305" s="9"/>
       <c r="V305" s="9"/>
     </row>
-    <row r="306" spans="1:22" ht="14.25" customHeight="1">
+    <row r="306" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="6">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -8799,7 +8807,7 @@
       <c r="U306" s="9"/>
       <c r="V306" s="9"/>
     </row>
-    <row r="307" spans="1:22" ht="14.25" customHeight="1">
+    <row r="307" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="6">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -8826,7 +8834,7 @@
       <c r="U307" s="9"/>
       <c r="V307" s="9"/>
     </row>
-    <row r="308" spans="1:22" ht="14.25" customHeight="1">
+    <row r="308" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="6">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -8853,7 +8861,7 @@
       <c r="U308" s="9"/>
       <c r="V308" s="9"/>
     </row>
-    <row r="309" spans="1:22" ht="14.25" customHeight="1">
+    <row r="309" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="6">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -8880,7 +8888,7 @@
       <c r="U309" s="9"/>
       <c r="V309" s="9"/>
     </row>
-    <row r="310" spans="1:22" ht="14.25" customHeight="1">
+    <row r="310" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="6">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -8907,7 +8915,7 @@
       <c r="U310" s="9"/>
       <c r="V310" s="9"/>
     </row>
-    <row r="311" spans="1:22" ht="14.25" customHeight="1">
+    <row r="311" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="6">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -8934,7 +8942,7 @@
       <c r="U311" s="9"/>
       <c r="V311" s="9"/>
     </row>
-    <row r="312" spans="1:22" ht="14.25" customHeight="1">
+    <row r="312" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="6">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -8961,7 +8969,7 @@
       <c r="U312" s="9"/>
       <c r="V312" s="9"/>
     </row>
-    <row r="313" spans="1:22" ht="14.25" customHeight="1">
+    <row r="313" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="6">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -8988,7 +8996,7 @@
       <c r="U313" s="9"/>
       <c r="V313" s="9"/>
     </row>
-    <row r="314" spans="1:22" ht="14.25" customHeight="1">
+    <row r="314" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="6">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -9015,7 +9023,7 @@
       <c r="U314" s="9"/>
       <c r="V314" s="9"/>
     </row>
-    <row r="315" spans="1:22" ht="14.25" customHeight="1">
+    <row r="315" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="6">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -9042,7 +9050,7 @@
       <c r="U315" s="9"/>
       <c r="V315" s="9"/>
     </row>
-    <row r="316" spans="1:22" ht="14.25" customHeight="1">
+    <row r="316" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="6">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -9069,7 +9077,7 @@
       <c r="U316" s="9"/>
       <c r="V316" s="9"/>
     </row>
-    <row r="317" spans="1:22" ht="14.25" customHeight="1">
+    <row r="317" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="6">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -9096,7 +9104,7 @@
       <c r="U317" s="9"/>
       <c r="V317" s="9"/>
     </row>
-    <row r="318" spans="1:22" ht="14.25" customHeight="1">
+    <row r="318" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="6">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -9123,7 +9131,7 @@
       <c r="U318" s="9"/>
       <c r="V318" s="9"/>
     </row>
-    <row r="319" spans="1:22" ht="14.25" customHeight="1">
+    <row r="319" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="6">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -9150,7 +9158,7 @@
       <c r="U319" s="9"/>
       <c r="V319" s="9"/>
     </row>
-    <row r="320" spans="1:22" ht="14.25" customHeight="1">
+    <row r="320" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="6">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -9177,7 +9185,7 @@
       <c r="U320" s="9"/>
       <c r="V320" s="9"/>
     </row>
-    <row r="321" spans="1:22" ht="14.25" customHeight="1">
+    <row r="321" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="6">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -9204,7 +9212,7 @@
       <c r="U321" s="9"/>
       <c r="V321" s="9"/>
     </row>
-    <row r="322" spans="1:22" ht="14.25" customHeight="1">
+    <row r="322" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="6">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -9231,7 +9239,7 @@
       <c r="U322" s="9"/>
       <c r="V322" s="9"/>
     </row>
-    <row r="323" spans="1:22" ht="14.25" customHeight="1">
+    <row r="323" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="6">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -9258,7 +9266,7 @@
       <c r="U323" s="9"/>
       <c r="V323" s="9"/>
     </row>
-    <row r="324" spans="1:22" ht="14.25" customHeight="1">
+    <row r="324" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="6">
         <f t="shared" si="4"/>
         <v>323</v>
@@ -9285,7 +9293,7 @@
       <c r="U324" s="9"/>
       <c r="V324" s="9"/>
     </row>
-    <row r="325" spans="1:22" ht="14.25" customHeight="1">
+    <row r="325" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="6">
         <f t="shared" si="4"/>
         <v>324</v>
@@ -9312,7 +9320,7 @@
       <c r="U325" s="9"/>
       <c r="V325" s="9"/>
     </row>
-    <row r="326" spans="1:22" ht="14.25" customHeight="1">
+    <row r="326" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="6">
         <f t="shared" si="4"/>
         <v>325</v>
@@ -9339,7 +9347,7 @@
       <c r="U326" s="9"/>
       <c r="V326" s="9"/>
     </row>
-    <row r="327" spans="1:22" ht="14.25" customHeight="1">
+    <row r="327" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="6">
         <f t="shared" ref="A327:A390" si="5">ROW()-1</f>
         <v>326</v>
@@ -9366,7 +9374,7 @@
       <c r="U327" s="9"/>
       <c r="V327" s="9"/>
     </row>
-    <row r="328" spans="1:22" ht="14.25" customHeight="1">
+    <row r="328" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="6">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -9393,7 +9401,7 @@
       <c r="U328" s="9"/>
       <c r="V328" s="9"/>
     </row>
-    <row r="329" spans="1:22" ht="14.25" customHeight="1">
+    <row r="329" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="6">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -9420,7 +9428,7 @@
       <c r="U329" s="9"/>
       <c r="V329" s="9"/>
     </row>
-    <row r="330" spans="1:22" ht="14.25" customHeight="1">
+    <row r="330" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="6">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -9447,7 +9455,7 @@
       <c r="U330" s="9"/>
       <c r="V330" s="9"/>
     </row>
-    <row r="331" spans="1:22" ht="14.25" customHeight="1">
+    <row r="331" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="6">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -9474,7 +9482,7 @@
       <c r="U331" s="9"/>
       <c r="V331" s="9"/>
     </row>
-    <row r="332" spans="1:22" ht="14.25" customHeight="1">
+    <row r="332" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="6">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -9501,7 +9509,7 @@
       <c r="U332" s="9"/>
       <c r="V332" s="9"/>
     </row>
-    <row r="333" spans="1:22" ht="14.25" customHeight="1">
+    <row r="333" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="6">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -9528,7 +9536,7 @@
       <c r="U333" s="9"/>
       <c r="V333" s="9"/>
     </row>
-    <row r="334" spans="1:22" ht="14.25" customHeight="1">
+    <row r="334" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="6">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -9555,7 +9563,7 @@
       <c r="U334" s="9"/>
       <c r="V334" s="9"/>
     </row>
-    <row r="335" spans="1:22" ht="14.25" customHeight="1">
+    <row r="335" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="6">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -9582,7 +9590,7 @@
       <c r="U335" s="9"/>
       <c r="V335" s="9"/>
     </row>
-    <row r="336" spans="1:22" ht="14.25" customHeight="1">
+    <row r="336" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="6">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -9609,7 +9617,7 @@
       <c r="U336" s="9"/>
       <c r="V336" s="9"/>
     </row>
-    <row r="337" spans="1:22" ht="14.25" customHeight="1">
+    <row r="337" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="6">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -9636,7 +9644,7 @@
       <c r="U337" s="9"/>
       <c r="V337" s="9"/>
     </row>
-    <row r="338" spans="1:22" ht="14.25" customHeight="1">
+    <row r="338" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="6">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -9663,7 +9671,7 @@
       <c r="U338" s="9"/>
       <c r="V338" s="9"/>
     </row>
-    <row r="339" spans="1:22" ht="14.25" customHeight="1">
+    <row r="339" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="6">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -9690,7 +9698,7 @@
       <c r="U339" s="9"/>
       <c r="V339" s="9"/>
     </row>
-    <row r="340" spans="1:22" ht="14.25" customHeight="1">
+    <row r="340" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="6">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -9717,7 +9725,7 @@
       <c r="U340" s="9"/>
       <c r="V340" s="9"/>
     </row>
-    <row r="341" spans="1:22" ht="14.25" customHeight="1">
+    <row r="341" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="6">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -9744,7 +9752,7 @@
       <c r="U341" s="9"/>
       <c r="V341" s="9"/>
     </row>
-    <row r="342" spans="1:22" ht="14.25" customHeight="1">
+    <row r="342" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="6">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -9771,7 +9779,7 @@
       <c r="U342" s="9"/>
       <c r="V342" s="9"/>
     </row>
-    <row r="343" spans="1:22" ht="14.25" customHeight="1">
+    <row r="343" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="6">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -9798,7 +9806,7 @@
       <c r="U343" s="9"/>
       <c r="V343" s="9"/>
     </row>
-    <row r="344" spans="1:22" ht="14.25" customHeight="1">
+    <row r="344" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="6">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -9825,7 +9833,7 @@
       <c r="U344" s="9"/>
       <c r="V344" s="9"/>
     </row>
-    <row r="345" spans="1:22" ht="14.25" customHeight="1">
+    <row r="345" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="6">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -9852,7 +9860,7 @@
       <c r="U345" s="9"/>
       <c r="V345" s="9"/>
     </row>
-    <row r="346" spans="1:22" ht="14.25" customHeight="1">
+    <row r="346" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="6">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -9879,7 +9887,7 @@
       <c r="U346" s="9"/>
       <c r="V346" s="9"/>
     </row>
-    <row r="347" spans="1:22" ht="14.25" customHeight="1">
+    <row r="347" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="6">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -9906,7 +9914,7 @@
       <c r="U347" s="9"/>
       <c r="V347" s="9"/>
     </row>
-    <row r="348" spans="1:22" ht="14.25" customHeight="1">
+    <row r="348" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="6">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -9933,7 +9941,7 @@
       <c r="U348" s="9"/>
       <c r="V348" s="9"/>
     </row>
-    <row r="349" spans="1:22" ht="14.25" customHeight="1">
+    <row r="349" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="6">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -9960,7 +9968,7 @@
       <c r="U349" s="9"/>
       <c r="V349" s="9"/>
     </row>
-    <row r="350" spans="1:22" ht="14.25" customHeight="1">
+    <row r="350" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="6">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -9987,7 +9995,7 @@
       <c r="U350" s="9"/>
       <c r="V350" s="9"/>
     </row>
-    <row r="351" spans="1:22" ht="14.25" customHeight="1">
+    <row r="351" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="6">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -10014,7 +10022,7 @@
       <c r="U351" s="9"/>
       <c r="V351" s="9"/>
     </row>
-    <row r="352" spans="1:22" ht="14.25" customHeight="1">
+    <row r="352" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="6">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -10041,7 +10049,7 @@
       <c r="U352" s="9"/>
       <c r="V352" s="9"/>
     </row>
-    <row r="353" spans="1:22" ht="14.25" customHeight="1">
+    <row r="353" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="6">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -10068,7 +10076,7 @@
       <c r="U353" s="9"/>
       <c r="V353" s="9"/>
     </row>
-    <row r="354" spans="1:22" ht="14.25" customHeight="1">
+    <row r="354" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="6">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -10095,7 +10103,7 @@
       <c r="U354" s="9"/>
       <c r="V354" s="9"/>
     </row>
-    <row r="355" spans="1:22" ht="14.25" customHeight="1">
+    <row r="355" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="6">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -10122,7 +10130,7 @@
       <c r="U355" s="9"/>
       <c r="V355" s="9"/>
     </row>
-    <row r="356" spans="1:22" ht="14.25" customHeight="1">
+    <row r="356" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="6">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -10149,7 +10157,7 @@
       <c r="U356" s="9"/>
       <c r="V356" s="9"/>
     </row>
-    <row r="357" spans="1:22" ht="14.25" customHeight="1">
+    <row r="357" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="6">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -10176,7 +10184,7 @@
       <c r="U357" s="9"/>
       <c r="V357" s="9"/>
     </row>
-    <row r="358" spans="1:22" ht="14.25" customHeight="1">
+    <row r="358" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="6">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -10203,7 +10211,7 @@
       <c r="U358" s="9"/>
       <c r="V358" s="9"/>
     </row>
-    <row r="359" spans="1:22" ht="14.25" customHeight="1">
+    <row r="359" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="6">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -10230,7 +10238,7 @@
       <c r="U359" s="9"/>
       <c r="V359" s="9"/>
     </row>
-    <row r="360" spans="1:22" ht="14.25" customHeight="1">
+    <row r="360" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="6">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -10257,7 +10265,7 @@
       <c r="U360" s="9"/>
       <c r="V360" s="9"/>
     </row>
-    <row r="361" spans="1:22" ht="14.25" customHeight="1">
+    <row r="361" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="6">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -10284,7 +10292,7 @@
       <c r="U361" s="9"/>
       <c r="V361" s="9"/>
     </row>
-    <row r="362" spans="1:22" ht="14.25" customHeight="1">
+    <row r="362" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="6">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -10311,7 +10319,7 @@
       <c r="U362" s="9"/>
       <c r="V362" s="9"/>
     </row>
-    <row r="363" spans="1:22" ht="14.25" customHeight="1">
+    <row r="363" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="6">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -10338,7 +10346,7 @@
       <c r="U363" s="9"/>
       <c r="V363" s="9"/>
     </row>
-    <row r="364" spans="1:22" ht="14.25" customHeight="1">
+    <row r="364" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="6">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -10365,7 +10373,7 @@
       <c r="U364" s="9"/>
       <c r="V364" s="9"/>
     </row>
-    <row r="365" spans="1:22" ht="14.25" customHeight="1">
+    <row r="365" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="6">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -10392,7 +10400,7 @@
       <c r="U365" s="9"/>
       <c r="V365" s="9"/>
     </row>
-    <row r="366" spans="1:22" ht="14.25" customHeight="1">
+    <row r="366" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="6">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -10419,7 +10427,7 @@
       <c r="U366" s="9"/>
       <c r="V366" s="9"/>
     </row>
-    <row r="367" spans="1:22" ht="14.25" customHeight="1">
+    <row r="367" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="6">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -10446,7 +10454,7 @@
       <c r="U367" s="9"/>
       <c r="V367" s="9"/>
     </row>
-    <row r="368" spans="1:22" ht="14.25" customHeight="1">
+    <row r="368" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="6">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -10473,7 +10481,7 @@
       <c r="U368" s="9"/>
       <c r="V368" s="9"/>
     </row>
-    <row r="369" spans="1:22" ht="14.25" customHeight="1">
+    <row r="369" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="6">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -10500,7 +10508,7 @@
       <c r="U369" s="9"/>
       <c r="V369" s="9"/>
     </row>
-    <row r="370" spans="1:22" ht="14.25" customHeight="1">
+    <row r="370" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="6">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -10527,7 +10535,7 @@
       <c r="U370" s="9"/>
       <c r="V370" s="9"/>
     </row>
-    <row r="371" spans="1:22" ht="14.25" customHeight="1">
+    <row r="371" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="6">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -10554,7 +10562,7 @@
       <c r="U371" s="9"/>
       <c r="V371" s="9"/>
     </row>
-    <row r="372" spans="1:22" ht="14.25" customHeight="1">
+    <row r="372" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="6">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -10581,7 +10589,7 @@
       <c r="U372" s="9"/>
       <c r="V372" s="9"/>
     </row>
-    <row r="373" spans="1:22" ht="14.25" customHeight="1">
+    <row r="373" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="6">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -10608,7 +10616,7 @@
       <c r="U373" s="9"/>
       <c r="V373" s="9"/>
     </row>
-    <row r="374" spans="1:22" ht="14.25" customHeight="1">
+    <row r="374" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="6">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -10635,7 +10643,7 @@
       <c r="U374" s="9"/>
       <c r="V374" s="9"/>
     </row>
-    <row r="375" spans="1:22" ht="14.25" customHeight="1">
+    <row r="375" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="6">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -10662,7 +10670,7 @@
       <c r="U375" s="9"/>
       <c r="V375" s="9"/>
     </row>
-    <row r="376" spans="1:22" ht="14.25" customHeight="1">
+    <row r="376" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="6">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -10689,7 +10697,7 @@
       <c r="U376" s="9"/>
       <c r="V376" s="9"/>
     </row>
-    <row r="377" spans="1:22" ht="14.25" customHeight="1">
+    <row r="377" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="6">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -10716,7 +10724,7 @@
       <c r="U377" s="9"/>
       <c r="V377" s="9"/>
     </row>
-    <row r="378" spans="1:22" ht="14.25" customHeight="1">
+    <row r="378" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="6">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -10743,7 +10751,7 @@
       <c r="U378" s="9"/>
       <c r="V378" s="9"/>
     </row>
-    <row r="379" spans="1:22" ht="14.25" customHeight="1">
+    <row r="379" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="6">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -10770,7 +10778,7 @@
       <c r="U379" s="9"/>
       <c r="V379" s="9"/>
     </row>
-    <row r="380" spans="1:22" ht="14.25" customHeight="1">
+    <row r="380" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="6">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -10797,7 +10805,7 @@
       <c r="U380" s="9"/>
       <c r="V380" s="9"/>
     </row>
-    <row r="381" spans="1:22" ht="14.25" customHeight="1">
+    <row r="381" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="6">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -10824,7 +10832,7 @@
       <c r="U381" s="9"/>
       <c r="V381" s="9"/>
     </row>
-    <row r="382" spans="1:22" ht="14.25" customHeight="1">
+    <row r="382" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="6">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -10851,7 +10859,7 @@
       <c r="U382" s="9"/>
       <c r="V382" s="9"/>
     </row>
-    <row r="383" spans="1:22" ht="14.25" customHeight="1">
+    <row r="383" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="6">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -10878,7 +10886,7 @@
       <c r="U383" s="9"/>
       <c r="V383" s="9"/>
     </row>
-    <row r="384" spans="1:22" ht="14.25" customHeight="1">
+    <row r="384" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="6">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -10905,7 +10913,7 @@
       <c r="U384" s="9"/>
       <c r="V384" s="9"/>
     </row>
-    <row r="385" spans="1:22" ht="14.25" customHeight="1">
+    <row r="385" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="6">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -10932,7 +10940,7 @@
       <c r="U385" s="9"/>
       <c r="V385" s="9"/>
     </row>
-    <row r="386" spans="1:22" ht="14.25" customHeight="1">
+    <row r="386" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="6">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -10959,7 +10967,7 @@
       <c r="U386" s="9"/>
       <c r="V386" s="9"/>
     </row>
-    <row r="387" spans="1:22" ht="14.25" customHeight="1">
+    <row r="387" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="6">
         <f t="shared" si="5"/>
         <v>386</v>
@@ -10986,7 +10994,7 @@
       <c r="U387" s="9"/>
       <c r="V387" s="9"/>
     </row>
-    <row r="388" spans="1:22" ht="14.25" customHeight="1">
+    <row r="388" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="6">
         <f t="shared" si="5"/>
         <v>387</v>
@@ -11013,7 +11021,7 @@
       <c r="U388" s="9"/>
       <c r="V388" s="9"/>
     </row>
-    <row r="389" spans="1:22" ht="14.25" customHeight="1">
+    <row r="389" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="6">
         <f t="shared" si="5"/>
         <v>388</v>
@@ -11040,7 +11048,7 @@
       <c r="U389" s="9"/>
       <c r="V389" s="9"/>
     </row>
-    <row r="390" spans="1:22" ht="14.25" customHeight="1">
+    <row r="390" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="6">
         <f t="shared" si="5"/>
         <v>389</v>
@@ -11067,7 +11075,7 @@
       <c r="U390" s="9"/>
       <c r="V390" s="9"/>
     </row>
-    <row r="391" spans="1:22" ht="14.25" customHeight="1">
+    <row r="391" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="6">
         <f t="shared" ref="A391:A454" si="6">ROW()-1</f>
         <v>390</v>
@@ -11094,7 +11102,7 @@
       <c r="U391" s="9"/>
       <c r="V391" s="9"/>
     </row>
-    <row r="392" spans="1:22" ht="14.25" customHeight="1">
+    <row r="392" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="6">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -11121,7 +11129,7 @@
       <c r="U392" s="9"/>
       <c r="V392" s="9"/>
     </row>
-    <row r="393" spans="1:22" ht="14.25" customHeight="1">
+    <row r="393" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="6">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -11148,7 +11156,7 @@
       <c r="U393" s="9"/>
       <c r="V393" s="9"/>
     </row>
-    <row r="394" spans="1:22" ht="14.25" customHeight="1">
+    <row r="394" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="6">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -11175,7 +11183,7 @@
       <c r="U394" s="9"/>
       <c r="V394" s="9"/>
     </row>
-    <row r="395" spans="1:22" ht="14.25" customHeight="1">
+    <row r="395" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="6">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -11202,7 +11210,7 @@
       <c r="U395" s="9"/>
       <c r="V395" s="9"/>
     </row>
-    <row r="396" spans="1:22" ht="14.25" customHeight="1">
+    <row r="396" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="6">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -11229,7 +11237,7 @@
       <c r="U396" s="9"/>
       <c r="V396" s="9"/>
     </row>
-    <row r="397" spans="1:22" ht="14.25" customHeight="1">
+    <row r="397" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="6">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -11256,7 +11264,7 @@
       <c r="U397" s="9"/>
       <c r="V397" s="9"/>
     </row>
-    <row r="398" spans="1:22" ht="14.25" customHeight="1">
+    <row r="398" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="6">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -11283,7 +11291,7 @@
       <c r="U398" s="9"/>
       <c r="V398" s="9"/>
     </row>
-    <row r="399" spans="1:22" ht="14.25" customHeight="1">
+    <row r="399" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="6">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -11310,7 +11318,7 @@
       <c r="U399" s="9"/>
       <c r="V399" s="9"/>
     </row>
-    <row r="400" spans="1:22" ht="14.25" customHeight="1">
+    <row r="400" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="6">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -11337,7 +11345,7 @@
       <c r="U400" s="9"/>
       <c r="V400" s="9"/>
     </row>
-    <row r="401" spans="1:22" ht="14.25" customHeight="1">
+    <row r="401" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="6">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -11364,7 +11372,7 @@
       <c r="U401" s="9"/>
       <c r="V401" s="9"/>
     </row>
-    <row r="402" spans="1:22" ht="14.25" customHeight="1">
+    <row r="402" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="6">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -11391,7 +11399,7 @@
       <c r="U402" s="9"/>
       <c r="V402" s="9"/>
     </row>
-    <row r="403" spans="1:22" ht="14.25" customHeight="1">
+    <row r="403" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="6">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -11418,7 +11426,7 @@
       <c r="U403" s="9"/>
       <c r="V403" s="9"/>
     </row>
-    <row r="404" spans="1:22" ht="14.25" customHeight="1">
+    <row r="404" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="6">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -11445,7 +11453,7 @@
       <c r="U404" s="9"/>
       <c r="V404" s="9"/>
     </row>
-    <row r="405" spans="1:22" ht="14.25" customHeight="1">
+    <row r="405" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="6">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -11472,7 +11480,7 @@
       <c r="U405" s="9"/>
       <c r="V405" s="9"/>
     </row>
-    <row r="406" spans="1:22" ht="14.25" customHeight="1">
+    <row r="406" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="6">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -11499,7 +11507,7 @@
       <c r="U406" s="9"/>
       <c r="V406" s="9"/>
     </row>
-    <row r="407" spans="1:22" ht="14.25" customHeight="1">
+    <row r="407" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="6">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -11526,7 +11534,7 @@
       <c r="U407" s="9"/>
       <c r="V407" s="9"/>
     </row>
-    <row r="408" spans="1:22" ht="14.25" customHeight="1">
+    <row r="408" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="6">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -11553,7 +11561,7 @@
       <c r="U408" s="9"/>
       <c r="V408" s="9"/>
     </row>
-    <row r="409" spans="1:22" ht="14.25" customHeight="1">
+    <row r="409" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="6">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -11580,7 +11588,7 @@
       <c r="U409" s="9"/>
       <c r="V409" s="9"/>
     </row>
-    <row r="410" spans="1:22" ht="14.25" customHeight="1">
+    <row r="410" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="6">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -11607,7 +11615,7 @@
       <c r="U410" s="9"/>
       <c r="V410" s="9"/>
     </row>
-    <row r="411" spans="1:22" ht="14.25" customHeight="1">
+    <row r="411" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="6">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -11634,7 +11642,7 @@
       <c r="U411" s="9"/>
       <c r="V411" s="9"/>
     </row>
-    <row r="412" spans="1:22" ht="14.25" customHeight="1">
+    <row r="412" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="6">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -11661,7 +11669,7 @@
       <c r="U412" s="9"/>
       <c r="V412" s="9"/>
     </row>
-    <row r="413" spans="1:22" ht="14.25" customHeight="1">
+    <row r="413" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="6">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -11688,7 +11696,7 @@
       <c r="U413" s="9"/>
       <c r="V413" s="9"/>
     </row>
-    <row r="414" spans="1:22" ht="14.25" customHeight="1">
+    <row r="414" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="6">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -11715,7 +11723,7 @@
       <c r="U414" s="9"/>
       <c r="V414" s="9"/>
     </row>
-    <row r="415" spans="1:22" ht="14.25" customHeight="1">
+    <row r="415" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="6">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -11742,7 +11750,7 @@
       <c r="U415" s="9"/>
       <c r="V415" s="9"/>
     </row>
-    <row r="416" spans="1:22" ht="14.25" customHeight="1">
+    <row r="416" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="6">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -11769,7 +11777,7 @@
       <c r="U416" s="9"/>
       <c r="V416" s="9"/>
     </row>
-    <row r="417" spans="1:22" ht="14.25" customHeight="1">
+    <row r="417" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="6">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -11796,7 +11804,7 @@
       <c r="U417" s="9"/>
       <c r="V417" s="9"/>
     </row>
-    <row r="418" spans="1:22" ht="14.25" customHeight="1">
+    <row r="418" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="6">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -11823,7 +11831,7 @@
       <c r="U418" s="9"/>
       <c r="V418" s="9"/>
     </row>
-    <row r="419" spans="1:22" ht="14.25" customHeight="1">
+    <row r="419" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="6">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -11850,7 +11858,7 @@
       <c r="U419" s="9"/>
       <c r="V419" s="9"/>
     </row>
-    <row r="420" spans="1:22" ht="14.25" customHeight="1">
+    <row r="420" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="6">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -11877,7 +11885,7 @@
       <c r="U420" s="9"/>
       <c r="V420" s="9"/>
     </row>
-    <row r="421" spans="1:22" ht="14.25" customHeight="1">
+    <row r="421" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="6">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -11904,7 +11912,7 @@
       <c r="U421" s="9"/>
       <c r="V421" s="9"/>
     </row>
-    <row r="422" spans="1:22" ht="14.25" customHeight="1">
+    <row r="422" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="6">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -11931,7 +11939,7 @@
       <c r="U422" s="9"/>
       <c r="V422" s="9"/>
     </row>
-    <row r="423" spans="1:22" ht="14.25" customHeight="1">
+    <row r="423" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="6">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -11958,7 +11966,7 @@
       <c r="U423" s="9"/>
       <c r="V423" s="9"/>
     </row>
-    <row r="424" spans="1:22" ht="14.25" customHeight="1">
+    <row r="424" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="6">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -11985,7 +11993,7 @@
       <c r="U424" s="9"/>
       <c r="V424" s="9"/>
     </row>
-    <row r="425" spans="1:22" ht="14.25" customHeight="1">
+    <row r="425" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="6">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -12012,7 +12020,7 @@
       <c r="U425" s="9"/>
       <c r="V425" s="9"/>
     </row>
-    <row r="426" spans="1:22" ht="14.25" customHeight="1">
+    <row r="426" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="6">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -12039,7 +12047,7 @@
       <c r="U426" s="9"/>
       <c r="V426" s="9"/>
     </row>
-    <row r="427" spans="1:22" ht="14.25" customHeight="1">
+    <row r="427" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="6">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -12066,7 +12074,7 @@
       <c r="U427" s="9"/>
       <c r="V427" s="9"/>
     </row>
-    <row r="428" spans="1:22" ht="14.25" customHeight="1">
+    <row r="428" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="6">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -12093,7 +12101,7 @@
       <c r="U428" s="9"/>
       <c r="V428" s="9"/>
     </row>
-    <row r="429" spans="1:22" ht="14.25" customHeight="1">
+    <row r="429" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="6">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -12120,7 +12128,7 @@
       <c r="U429" s="9"/>
       <c r="V429" s="9"/>
     </row>
-    <row r="430" spans="1:22" ht="14.25" customHeight="1">
+    <row r="430" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="6">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -12147,7 +12155,7 @@
       <c r="U430" s="9"/>
       <c r="V430" s="9"/>
     </row>
-    <row r="431" spans="1:22" ht="14.25" customHeight="1">
+    <row r="431" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="6">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -12174,7 +12182,7 @@
       <c r="U431" s="9"/>
       <c r="V431" s="9"/>
     </row>
-    <row r="432" spans="1:22" ht="14.25" customHeight="1">
+    <row r="432" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="6">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -12201,7 +12209,7 @@
       <c r="U432" s="9"/>
       <c r="V432" s="9"/>
     </row>
-    <row r="433" spans="1:22" ht="14.25" customHeight="1">
+    <row r="433" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="6">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -12228,7 +12236,7 @@
       <c r="U433" s="9"/>
       <c r="V433" s="9"/>
     </row>
-    <row r="434" spans="1:22" ht="14.25" customHeight="1">
+    <row r="434" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="6">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -12255,7 +12263,7 @@
       <c r="U434" s="9"/>
       <c r="V434" s="9"/>
     </row>
-    <row r="435" spans="1:22" ht="14.25" customHeight="1">
+    <row r="435" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="6">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -12282,7 +12290,7 @@
       <c r="U435" s="9"/>
       <c r="V435" s="9"/>
     </row>
-    <row r="436" spans="1:22" ht="14.25" customHeight="1">
+    <row r="436" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="6">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -12309,7 +12317,7 @@
       <c r="U436" s="9"/>
       <c r="V436" s="9"/>
     </row>
-    <row r="437" spans="1:22" ht="14.25" customHeight="1">
+    <row r="437" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="6">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -12336,7 +12344,7 @@
       <c r="U437" s="9"/>
       <c r="V437" s="9"/>
     </row>
-    <row r="438" spans="1:22" ht="14.25" customHeight="1">
+    <row r="438" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="6">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -12363,7 +12371,7 @@
       <c r="U438" s="9"/>
       <c r="V438" s="9"/>
     </row>
-    <row r="439" spans="1:22" ht="14.25" customHeight="1">
+    <row r="439" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="6">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -12390,7 +12398,7 @@
       <c r="U439" s="9"/>
       <c r="V439" s="9"/>
     </row>
-    <row r="440" spans="1:22" ht="14.25" customHeight="1">
+    <row r="440" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="6">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -12417,7 +12425,7 @@
       <c r="U440" s="9"/>
       <c r="V440" s="9"/>
     </row>
-    <row r="441" spans="1:22" ht="14.25" customHeight="1">
+    <row r="441" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="6">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -12444,7 +12452,7 @@
       <c r="U441" s="9"/>
       <c r="V441" s="9"/>
     </row>
-    <row r="442" spans="1:22" ht="14.25" customHeight="1">
+    <row r="442" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="6">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -12471,7 +12479,7 @@
       <c r="U442" s="9"/>
       <c r="V442" s="9"/>
     </row>
-    <row r="443" spans="1:22" ht="14.25" customHeight="1">
+    <row r="443" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="6">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -12498,7 +12506,7 @@
       <c r="U443" s="9"/>
       <c r="V443" s="9"/>
     </row>
-    <row r="444" spans="1:22" ht="14.25" customHeight="1">
+    <row r="444" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -12525,7 +12533,7 @@
       <c r="U444" s="2"/>
       <c r="V444" s="2"/>
     </row>
-    <row r="445" spans="1:22" ht="14.25" customHeight="1">
+    <row r="445" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -12552,7 +12560,7 @@
       <c r="U445" s="2"/>
       <c r="V445" s="2"/>
     </row>
-    <row r="446" spans="1:22" ht="14.25" customHeight="1">
+    <row r="446" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -12579,7 +12587,7 @@
       <c r="U446" s="2"/>
       <c r="V446" s="2"/>
     </row>
-    <row r="447" spans="1:22" ht="14.25" customHeight="1">
+    <row r="447" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -12606,7 +12614,7 @@
       <c r="U447" s="2"/>
       <c r="V447" s="2"/>
     </row>
-    <row r="448" spans="1:22" ht="14.25" customHeight="1">
+    <row r="448" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -12633,7 +12641,7 @@
       <c r="U448" s="2"/>
       <c r="V448" s="2"/>
     </row>
-    <row r="449" spans="1:22" ht="14.25" customHeight="1">
+    <row r="449" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -12660,7 +12668,7 @@
       <c r="U449" s="2"/>
       <c r="V449" s="2"/>
     </row>
-    <row r="450" spans="1:22" ht="14.25" customHeight="1">
+    <row r="450" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -12687,7 +12695,7 @@
       <c r="U450" s="2"/>
       <c r="V450" s="2"/>
     </row>
-    <row r="451" spans="1:22" ht="14.25" customHeight="1">
+    <row r="451" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6">
         <f t="shared" si="6"/>
         <v>450</v>
@@ -12714,7 +12722,7 @@
       <c r="U451" s="2"/>
       <c r="V451" s="2"/>
     </row>
-    <row r="452" spans="1:22" ht="14.25" customHeight="1">
+    <row r="452" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6">
         <f t="shared" si="6"/>
         <v>451</v>
@@ -12741,7 +12749,7 @@
       <c r="U452" s="2"/>
       <c r="V452" s="2"/>
     </row>
-    <row r="453" spans="1:22" ht="14.25" customHeight="1">
+    <row r="453" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6">
         <f t="shared" si="6"/>
         <v>452</v>
@@ -12768,7 +12776,7 @@
       <c r="U453" s="2"/>
       <c r="V453" s="2"/>
     </row>
-    <row r="454" spans="1:22" ht="14.25" customHeight="1">
+    <row r="454" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6">
         <f t="shared" si="6"/>
         <v>453</v>
@@ -12795,7 +12803,7 @@
       <c r="U454" s="2"/>
       <c r="V454" s="2"/>
     </row>
-    <row r="455" spans="1:22" ht="14.25" customHeight="1">
+    <row r="455" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6">
         <f t="shared" ref="A455:A493" si="7">ROW()-1</f>
         <v>454</v>
@@ -12822,7 +12830,7 @@
       <c r="U455" s="2"/>
       <c r="V455" s="2"/>
     </row>
-    <row r="456" spans="1:22" ht="14.25" customHeight="1">
+    <row r="456" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -12849,7 +12857,7 @@
       <c r="U456" s="2"/>
       <c r="V456" s="2"/>
     </row>
-    <row r="457" spans="1:22" ht="14.25" customHeight="1">
+    <row r="457" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -12876,7 +12884,7 @@
       <c r="U457" s="2"/>
       <c r="V457" s="2"/>
     </row>
-    <row r="458" spans="1:22" ht="14.25" customHeight="1">
+    <row r="458" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -12903,7 +12911,7 @@
       <c r="U458" s="2"/>
       <c r="V458" s="2"/>
     </row>
-    <row r="459" spans="1:22" ht="14.25" customHeight="1">
+    <row r="459" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -12930,7 +12938,7 @@
       <c r="U459" s="2"/>
       <c r="V459" s="2"/>
     </row>
-    <row r="460" spans="1:22" ht="14.25" customHeight="1">
+    <row r="460" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -12957,7 +12965,7 @@
       <c r="U460" s="2"/>
       <c r="V460" s="2"/>
     </row>
-    <row r="461" spans="1:22" ht="14.25" customHeight="1">
+    <row r="461" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -12984,7 +12992,7 @@
       <c r="U461" s="2"/>
       <c r="V461" s="2"/>
     </row>
-    <row r="462" spans="1:22" ht="14.25" customHeight="1">
+    <row r="462" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -13011,7 +13019,7 @@
       <c r="U462" s="2"/>
       <c r="V462" s="2"/>
     </row>
-    <row r="463" spans="1:22" ht="14.25" customHeight="1">
+    <row r="463" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -13038,7 +13046,7 @@
       <c r="U463" s="2"/>
       <c r="V463" s="2"/>
     </row>
-    <row r="464" spans="1:22" ht="14.25" customHeight="1">
+    <row r="464" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -13065,7 +13073,7 @@
       <c r="U464" s="2"/>
       <c r="V464" s="2"/>
     </row>
-    <row r="465" spans="1:22" ht="14.25" customHeight="1">
+    <row r="465" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -13092,7 +13100,7 @@
       <c r="U465" s="2"/>
       <c r="V465" s="2"/>
     </row>
-    <row r="466" spans="1:22" ht="14.25" customHeight="1">
+    <row r="466" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -13119,7 +13127,7 @@
       <c r="U466" s="2"/>
       <c r="V466" s="2"/>
     </row>
-    <row r="467" spans="1:22" ht="14.25" customHeight="1">
+    <row r="467" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -13146,7 +13154,7 @@
       <c r="U467" s="2"/>
       <c r="V467" s="2"/>
     </row>
-    <row r="468" spans="1:22" ht="14.25" customHeight="1">
+    <row r="468" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -13173,7 +13181,7 @@
       <c r="U468" s="2"/>
       <c r="V468" s="2"/>
     </row>
-    <row r="469" spans="1:22" ht="14.25" customHeight="1">
+    <row r="469" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -13200,7 +13208,7 @@
       <c r="U469" s="2"/>
       <c r="V469" s="2"/>
     </row>
-    <row r="470" spans="1:22" ht="14.25" customHeight="1">
+    <row r="470" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="6">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -13227,7 +13235,7 @@
       <c r="U470" s="2"/>
       <c r="V470" s="2"/>
     </row>
-    <row r="471" spans="1:22" ht="14.25" customHeight="1">
+    <row r="471" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="6">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -13254,7 +13262,7 @@
       <c r="U471" s="2"/>
       <c r="V471" s="2"/>
     </row>
-    <row r="472" spans="1:22" ht="14.25" customHeight="1">
+    <row r="472" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -13281,7 +13289,7 @@
       <c r="U472" s="2"/>
       <c r="V472" s="2"/>
     </row>
-    <row r="473" spans="1:22" ht="14.25" customHeight="1">
+    <row r="473" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="6">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -13308,7 +13316,7 @@
       <c r="U473" s="2"/>
       <c r="V473" s="2"/>
     </row>
-    <row r="474" spans="1:22" ht="14.25" customHeight="1">
+    <row r="474" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -13335,7 +13343,7 @@
       <c r="U474" s="2"/>
       <c r="V474" s="2"/>
     </row>
-    <row r="475" spans="1:22" ht="14.25" customHeight="1">
+    <row r="475" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -13362,7 +13370,7 @@
       <c r="U475" s="2"/>
       <c r="V475" s="2"/>
     </row>
-    <row r="476" spans="1:22" ht="14.25" customHeight="1">
+    <row r="476" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -13389,7 +13397,7 @@
       <c r="U476" s="2"/>
       <c r="V476" s="2"/>
     </row>
-    <row r="477" spans="1:22" ht="14.25" customHeight="1">
+    <row r="477" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -13416,7 +13424,7 @@
       <c r="U477" s="2"/>
       <c r="V477" s="2"/>
     </row>
-    <row r="478" spans="1:22" ht="14.25" customHeight="1">
+    <row r="478" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -13443,7 +13451,7 @@
       <c r="U478" s="2"/>
       <c r="V478" s="2"/>
     </row>
-    <row r="479" spans="1:22" ht="14.25" customHeight="1">
+    <row r="479" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -13470,7 +13478,7 @@
       <c r="U479" s="2"/>
       <c r="V479" s="2"/>
     </row>
-    <row r="480" spans="1:22" ht="14.25" customHeight="1">
+    <row r="480" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -13497,7 +13505,7 @@
       <c r="U480" s="2"/>
       <c r="V480" s="2"/>
     </row>
-    <row r="481" spans="1:22" ht="14.25" customHeight="1">
+    <row r="481" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -13524,7 +13532,7 @@
       <c r="U481" s="2"/>
       <c r="V481" s="2"/>
     </row>
-    <row r="482" spans="1:22" ht="14.25" customHeight="1">
+    <row r="482" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="6">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -13551,7 +13559,7 @@
       <c r="U482" s="2"/>
       <c r="V482" s="2"/>
     </row>
-    <row r="483" spans="1:22" ht="14.25" customHeight="1">
+    <row r="483" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="6">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -13578,7 +13586,7 @@
       <c r="U483" s="2"/>
       <c r="V483" s="2"/>
     </row>
-    <row r="484" spans="1:22" ht="14.25" customHeight="1">
+    <row r="484" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="6">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -13605,7 +13613,7 @@
       <c r="U484" s="2"/>
       <c r="V484" s="2"/>
     </row>
-    <row r="485" spans="1:22" ht="14.25" customHeight="1">
+    <row r="485" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="6">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -13632,7 +13640,7 @@
       <c r="U485" s="2"/>
       <c r="V485" s="2"/>
     </row>
-    <row r="486" spans="1:22" ht="14.25" customHeight="1">
+    <row r="486" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="6">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -13659,7 +13667,7 @@
       <c r="U486" s="2"/>
       <c r="V486" s="2"/>
     </row>
-    <row r="487" spans="1:22" ht="14.25" customHeight="1">
+    <row r="487" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="6">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -13686,7 +13694,7 @@
       <c r="U487" s="2"/>
       <c r="V487" s="2"/>
     </row>
-    <row r="488" spans="1:22" ht="14.25" customHeight="1">
+    <row r="488" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="6">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -13713,7 +13721,7 @@
       <c r="U488" s="2"/>
       <c r="V488" s="2"/>
     </row>
-    <row r="489" spans="1:22" ht="14.25" customHeight="1">
+    <row r="489" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="6">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -13740,7 +13748,7 @@
       <c r="U489" s="2"/>
       <c r="V489" s="2"/>
     </row>
-    <row r="490" spans="1:22" ht="14.25" customHeight="1">
+    <row r="490" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="6">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -13767,7 +13775,7 @@
       <c r="U490" s="2"/>
       <c r="V490" s="2"/>
     </row>
-    <row r="491" spans="1:22" ht="14.25" customHeight="1">
+    <row r="491" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="6">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -13794,7 +13802,7 @@
       <c r="U491" s="2"/>
       <c r="V491" s="2"/>
     </row>
-    <row r="492" spans="1:22" ht="14.25" customHeight="1">
+    <row r="492" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="6">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -13821,7 +13829,7 @@
       <c r="U492" s="2"/>
       <c r="V492" s="2"/>
     </row>
-    <row r="493" spans="1:22" ht="14.25" customHeight="1">
+    <row r="493" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="6">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -13848,7 +13856,7 @@
       <c r="U493" s="2"/>
       <c r="V493" s="2"/>
     </row>
-    <row r="494" spans="1:22" ht="14.25" customHeight="1">
+    <row r="494" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="10"/>
       <c r="C494" s="2"/>
@@ -13872,7 +13880,7 @@
       <c r="U494" s="2"/>
       <c r="V494" s="2"/>
     </row>
-    <row r="495" spans="1:22" ht="14.25" customHeight="1">
+    <row r="495" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="10"/>
       <c r="C495" s="2"/>
@@ -13896,7 +13904,7 @@
       <c r="U495" s="2"/>
       <c r="V495" s="2"/>
     </row>
-    <row r="496" spans="1:22" ht="14.25" customHeight="1">
+    <row r="496" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="10"/>
       <c r="C496" s="2"/>
@@ -13920,7 +13928,7 @@
       <c r="U496" s="2"/>
       <c r="V496" s="2"/>
     </row>
-    <row r="497" spans="1:22" ht="14.25" customHeight="1">
+    <row r="497" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="10"/>
       <c r="C497" s="2"/>
@@ -13944,7 +13952,7 @@
       <c r="U497" s="2"/>
       <c r="V497" s="2"/>
     </row>
-    <row r="498" spans="1:22" ht="14.25" customHeight="1">
+    <row r="498" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="10"/>
       <c r="C498" s="2"/>
@@ -13968,7 +13976,7 @@
       <c r="U498" s="2"/>
       <c r="V498" s="2"/>
     </row>
-    <row r="499" spans="1:22" ht="14.25" customHeight="1">
+    <row r="499" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="10"/>
       <c r="C499" s="2"/>
@@ -13992,7 +14000,7 @@
       <c r="U499" s="2"/>
       <c r="V499" s="2"/>
     </row>
-    <row r="500" spans="1:22" ht="14.25" customHeight="1">
+    <row r="500" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="10"/>
       <c r="C500" s="2"/>
@@ -14016,7 +14024,7 @@
       <c r="U500" s="2"/>
       <c r="V500" s="2"/>
     </row>
-    <row r="501" spans="1:22" ht="14.25" customHeight="1">
+    <row r="501" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="10"/>
       <c r="C501" s="2"/>
@@ -14040,7 +14048,7 @@
       <c r="U501" s="2"/>
       <c r="V501" s="2"/>
     </row>
-    <row r="502" spans="1:22" ht="14.25" customHeight="1">
+    <row r="502" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="10"/>
       <c r="C502" s="2"/>
@@ -14064,7 +14072,7 @@
       <c r="U502" s="2"/>
       <c r="V502" s="2"/>
     </row>
-    <row r="503" spans="1:22" ht="14.25" customHeight="1">
+    <row r="503" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="10"/>
       <c r="C503" s="2"/>
@@ -14088,7 +14096,7 @@
       <c r="U503" s="2"/>
       <c r="V503" s="2"/>
     </row>
-    <row r="504" spans="1:22" ht="14.25" customHeight="1">
+    <row r="504" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="10"/>
       <c r="C504" s="2"/>
@@ -14112,7 +14120,7 @@
       <c r="U504" s="2"/>
       <c r="V504" s="2"/>
     </row>
-    <row r="505" spans="1:22" ht="14.25" customHeight="1">
+    <row r="505" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="10"/>
       <c r="C505" s="2"/>
@@ -14136,7 +14144,7 @@
       <c r="U505" s="2"/>
       <c r="V505" s="2"/>
     </row>
-    <row r="506" spans="1:22" ht="14.25" customHeight="1">
+    <row r="506" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="10"/>
       <c r="C506" s="2"/>
@@ -14160,7 +14168,7 @@
       <c r="U506" s="2"/>
       <c r="V506" s="2"/>
     </row>
-    <row r="507" spans="1:22" ht="14.25" customHeight="1">
+    <row r="507" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="10"/>
       <c r="C507" s="2"/>
@@ -14184,7 +14192,7 @@
       <c r="U507" s="2"/>
       <c r="V507" s="2"/>
     </row>
-    <row r="508" spans="1:22" ht="14.25" customHeight="1">
+    <row r="508" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="10"/>
       <c r="C508" s="2"/>
@@ -14208,7 +14216,7 @@
       <c r="U508" s="2"/>
       <c r="V508" s="2"/>
     </row>
-    <row r="509" spans="1:22" ht="14.25" customHeight="1">
+    <row r="509" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="10"/>
       <c r="C509" s="2"/>
@@ -14232,7 +14240,7 @@
       <c r="U509" s="2"/>
       <c r="V509" s="2"/>
     </row>
-    <row r="510" spans="1:22" ht="14.25" customHeight="1">
+    <row r="510" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="10"/>
       <c r="C510" s="2"/>
@@ -14256,7 +14264,7 @@
       <c r="U510" s="2"/>
       <c r="V510" s="2"/>
     </row>
-    <row r="511" spans="1:22" ht="14.25" customHeight="1">
+    <row r="511" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="10"/>
       <c r="C511" s="2"/>
@@ -14280,7 +14288,7 @@
       <c r="U511" s="2"/>
       <c r="V511" s="2"/>
     </row>
-    <row r="512" spans="1:22" ht="14.25" customHeight="1">
+    <row r="512" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="10"/>
       <c r="C512" s="2"/>
@@ -14304,7 +14312,7 @@
       <c r="U512" s="2"/>
       <c r="V512" s="2"/>
     </row>
-    <row r="513" spans="1:22" ht="14.25" customHeight="1">
+    <row r="513" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="10"/>
       <c r="C513" s="2"/>
@@ -14328,7 +14336,7 @@
       <c r="U513" s="2"/>
       <c r="V513" s="2"/>
     </row>
-    <row r="514" spans="1:22" ht="14.25" customHeight="1">
+    <row r="514" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="10"/>
       <c r="C514" s="2"/>
@@ -14352,7 +14360,7 @@
       <c r="U514" s="2"/>
       <c r="V514" s="2"/>
     </row>
-    <row r="515" spans="1:22" ht="14.25" customHeight="1">
+    <row r="515" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="10"/>
       <c r="C515" s="2"/>
@@ -14376,7 +14384,7 @@
       <c r="U515" s="2"/>
       <c r="V515" s="2"/>
     </row>
-    <row r="516" spans="1:22" ht="14.25" customHeight="1">
+    <row r="516" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="10"/>
       <c r="C516" s="2"/>
@@ -14400,7 +14408,7 @@
       <c r="U516" s="2"/>
       <c r="V516" s="2"/>
     </row>
-    <row r="517" spans="1:22" ht="14.25" customHeight="1">
+    <row r="517" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="10"/>
       <c r="C517" s="2"/>
@@ -14424,7 +14432,7 @@
       <c r="U517" s="2"/>
       <c r="V517" s="2"/>
     </row>
-    <row r="518" spans="1:22" ht="14.25" customHeight="1">
+    <row r="518" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="10"/>
       <c r="C518" s="2"/>
@@ -14448,7 +14456,7 @@
       <c r="U518" s="2"/>
       <c r="V518" s="2"/>
     </row>
-    <row r="519" spans="1:22" ht="14.25" customHeight="1">
+    <row r="519" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="10"/>
       <c r="C519" s="2"/>
@@ -14472,7 +14480,7 @@
       <c r="U519" s="2"/>
       <c r="V519" s="2"/>
     </row>
-    <row r="520" spans="1:22" ht="14.25" customHeight="1">
+    <row r="520" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="10"/>
       <c r="C520" s="2"/>
@@ -14496,7 +14504,7 @@
       <c r="U520" s="2"/>
       <c r="V520" s="2"/>
     </row>
-    <row r="521" spans="1:22" ht="14.25" customHeight="1">
+    <row r="521" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="10"/>
       <c r="C521" s="2"/>
@@ -14520,7 +14528,7 @@
       <c r="U521" s="2"/>
       <c r="V521" s="2"/>
     </row>
-    <row r="522" spans="1:22" ht="14.25" customHeight="1">
+    <row r="522" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="10"/>
       <c r="C522" s="2"/>
@@ -14544,7 +14552,7 @@
       <c r="U522" s="2"/>
       <c r="V522" s="2"/>
     </row>
-    <row r="523" spans="1:22" ht="14.25" customHeight="1">
+    <row r="523" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="10"/>
       <c r="C523" s="2"/>
@@ -14568,7 +14576,7 @@
       <c r="U523" s="2"/>
       <c r="V523" s="2"/>
     </row>
-    <row r="524" spans="1:22" ht="14.25" customHeight="1">
+    <row r="524" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="10"/>
       <c r="C524" s="2"/>
@@ -14592,7 +14600,7 @@
       <c r="U524" s="2"/>
       <c r="V524" s="2"/>
     </row>
-    <row r="525" spans="1:22" ht="14.25" customHeight="1">
+    <row r="525" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="10"/>
       <c r="C525" s="2"/>
@@ -14616,7 +14624,7 @@
       <c r="U525" s="2"/>
       <c r="V525" s="2"/>
     </row>
-    <row r="526" spans="1:22" ht="14.25" customHeight="1">
+    <row r="526" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="10"/>
       <c r="C526" s="2"/>
@@ -14640,7 +14648,7 @@
       <c r="U526" s="2"/>
       <c r="V526" s="2"/>
     </row>
-    <row r="527" spans="1:22" ht="14.25" customHeight="1">
+    <row r="527" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="10"/>
       <c r="C527" s="2"/>
@@ -14664,7 +14672,7 @@
       <c r="U527" s="2"/>
       <c r="V527" s="2"/>
     </row>
-    <row r="528" spans="1:22" ht="14.25" customHeight="1">
+    <row r="528" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="10"/>
       <c r="C528" s="2"/>
@@ -14688,7 +14696,7 @@
       <c r="U528" s="2"/>
       <c r="V528" s="2"/>
     </row>
-    <row r="529" spans="1:22" ht="14.25" customHeight="1">
+    <row r="529" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="10"/>
       <c r="C529" s="2"/>
@@ -14712,7 +14720,7 @@
       <c r="U529" s="2"/>
       <c r="V529" s="2"/>
     </row>
-    <row r="530" spans="1:22" ht="14.25" customHeight="1">
+    <row r="530" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="10"/>
       <c r="C530" s="2"/>
@@ -14736,7 +14744,7 @@
       <c r="U530" s="2"/>
       <c r="V530" s="2"/>
     </row>
-    <row r="531" spans="1:22" ht="14.25" customHeight="1">
+    <row r="531" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="10"/>
       <c r="C531" s="2"/>
@@ -14760,7 +14768,7 @@
       <c r="U531" s="2"/>
       <c r="V531" s="2"/>
     </row>
-    <row r="532" spans="1:22" ht="14.25" customHeight="1">
+    <row r="532" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="10"/>
       <c r="C532" s="2"/>
@@ -14784,7 +14792,7 @@
       <c r="U532" s="2"/>
       <c r="V532" s="2"/>
     </row>
-    <row r="533" spans="1:22" ht="14.25" customHeight="1">
+    <row r="533" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="10"/>
       <c r="C533" s="2"/>
@@ -14808,7 +14816,7 @@
       <c r="U533" s="2"/>
       <c r="V533" s="2"/>
     </row>
-    <row r="534" spans="1:22" ht="14.25" customHeight="1">
+    <row r="534" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="10"/>
       <c r="C534" s="2"/>
@@ -14832,7 +14840,7 @@
       <c r="U534" s="2"/>
       <c r="V534" s="2"/>
     </row>
-    <row r="535" spans="1:22" ht="14.25" customHeight="1">
+    <row r="535" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="10"/>
       <c r="C535" s="2"/>
@@ -14856,7 +14864,7 @@
       <c r="U535" s="2"/>
       <c r="V535" s="2"/>
     </row>
-    <row r="536" spans="1:22" ht="14.25" customHeight="1">
+    <row r="536" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="10"/>
       <c r="C536" s="2"/>
@@ -14880,7 +14888,7 @@
       <c r="U536" s="2"/>
       <c r="V536" s="2"/>
     </row>
-    <row r="537" spans="1:22" ht="14.25" customHeight="1">
+    <row r="537" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="10"/>
       <c r="C537" s="2"/>
@@ -14904,7 +14912,7 @@
       <c r="U537" s="2"/>
       <c r="V537" s="2"/>
     </row>
-    <row r="538" spans="1:22" ht="14.25" customHeight="1">
+    <row r="538" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="10"/>
       <c r="C538" s="2"/>
@@ -14928,7 +14936,7 @@
       <c r="U538" s="2"/>
       <c r="V538" s="2"/>
     </row>
-    <row r="539" spans="1:22" ht="14.25" customHeight="1">
+    <row r="539" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="10"/>
       <c r="C539" s="2"/>
@@ -14952,7 +14960,7 @@
       <c r="U539" s="2"/>
       <c r="V539" s="2"/>
     </row>
-    <row r="540" spans="1:22" ht="14.25" customHeight="1">
+    <row r="540" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="10"/>
       <c r="C540" s="2"/>
@@ -14976,7 +14984,7 @@
       <c r="U540" s="2"/>
       <c r="V540" s="2"/>
     </row>
-    <row r="541" spans="1:22" ht="14.25" customHeight="1">
+    <row r="541" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="10"/>
       <c r="C541" s="2"/>
@@ -15000,7 +15008,7 @@
       <c r="U541" s="2"/>
       <c r="V541" s="2"/>
     </row>
-    <row r="542" spans="1:22" ht="14.25" customHeight="1">
+    <row r="542" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="10"/>
       <c r="C542" s="2"/>
@@ -15024,7 +15032,7 @@
       <c r="U542" s="2"/>
       <c r="V542" s="2"/>
     </row>
-    <row r="543" spans="1:22" ht="14.25" customHeight="1">
+    <row r="543" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="10"/>
       <c r="C543" s="2"/>
@@ -15048,7 +15056,7 @@
       <c r="U543" s="2"/>
       <c r="V543" s="2"/>
     </row>
-    <row r="544" spans="1:22" ht="14.25" customHeight="1">
+    <row r="544" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="10"/>
       <c r="C544" s="2"/>
@@ -15072,7 +15080,7 @@
       <c r="U544" s="2"/>
       <c r="V544" s="2"/>
     </row>
-    <row r="545" spans="1:22" ht="14.25" customHeight="1">
+    <row r="545" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="10"/>
       <c r="C545" s="2"/>
@@ -15096,7 +15104,7 @@
       <c r="U545" s="2"/>
       <c r="V545" s="2"/>
     </row>
-    <row r="546" spans="1:22" ht="14.25" customHeight="1">
+    <row r="546" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="10"/>
       <c r="C546" s="2"/>
@@ -15120,7 +15128,7 @@
       <c r="U546" s="2"/>
       <c r="V546" s="2"/>
     </row>
-    <row r="547" spans="1:22" ht="14.25" customHeight="1">
+    <row r="547" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="10"/>
       <c r="C547" s="2"/>
@@ -15144,7 +15152,7 @@
       <c r="U547" s="2"/>
       <c r="V547" s="2"/>
     </row>
-    <row r="548" spans="1:22" ht="14.25" customHeight="1">
+    <row r="548" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="10"/>
       <c r="C548" s="2"/>
@@ -15168,7 +15176,7 @@
       <c r="U548" s="2"/>
       <c r="V548" s="2"/>
     </row>
-    <row r="549" spans="1:22" ht="14.25" customHeight="1">
+    <row r="549" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="10"/>
       <c r="C549" s="2"/>
@@ -15192,7 +15200,7 @@
       <c r="U549" s="2"/>
       <c r="V549" s="2"/>
     </row>
-    <row r="550" spans="1:22" ht="14.25" customHeight="1">
+    <row r="550" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="10"/>
       <c r="C550" s="2"/>
@@ -15216,7 +15224,7 @@
       <c r="U550" s="2"/>
       <c r="V550" s="2"/>
     </row>
-    <row r="551" spans="1:22" ht="14.25" customHeight="1">
+    <row r="551" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="10"/>
       <c r="C551" s="2"/>
@@ -15240,7 +15248,7 @@
       <c r="U551" s="2"/>
       <c r="V551" s="2"/>
     </row>
-    <row r="552" spans="1:22" ht="14.25" customHeight="1">
+    <row r="552" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="10"/>
       <c r="C552" s="2"/>
@@ -15264,7 +15272,7 @@
       <c r="U552" s="2"/>
       <c r="V552" s="2"/>
     </row>
-    <row r="553" spans="1:22" ht="14.25" customHeight="1">
+    <row r="553" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="10"/>
       <c r="C553" s="2"/>
@@ -15288,7 +15296,7 @@
       <c r="U553" s="2"/>
       <c r="V553" s="2"/>
     </row>
-    <row r="554" spans="1:22" ht="14.25" customHeight="1">
+    <row r="554" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="10"/>
       <c r="C554" s="2"/>
@@ -15312,7 +15320,7 @@
       <c r="U554" s="2"/>
       <c r="V554" s="2"/>
     </row>
-    <row r="555" spans="1:22" ht="14.25" customHeight="1">
+    <row r="555" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="10"/>
       <c r="C555" s="2"/>
@@ -15336,7 +15344,7 @@
       <c r="U555" s="2"/>
       <c r="V555" s="2"/>
     </row>
-    <row r="556" spans="1:22" ht="14.25" customHeight="1">
+    <row r="556" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="10"/>
       <c r="C556" s="2"/>
@@ -15360,7 +15368,7 @@
       <c r="U556" s="2"/>
       <c r="V556" s="2"/>
     </row>
-    <row r="557" spans="1:22" ht="14.25" customHeight="1">
+    <row r="557" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="10"/>
       <c r="C557" s="2"/>
@@ -15384,7 +15392,7 @@
       <c r="U557" s="2"/>
       <c r="V557" s="2"/>
     </row>
-    <row r="558" spans="1:22" ht="14.25" customHeight="1">
+    <row r="558" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="10"/>
       <c r="C558" s="2"/>
@@ -15408,7 +15416,7 @@
       <c r="U558" s="2"/>
       <c r="V558" s="2"/>
     </row>
-    <row r="559" spans="1:22" ht="14.25" customHeight="1">
+    <row r="559" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="10"/>
       <c r="C559" s="2"/>
@@ -15432,7 +15440,7 @@
       <c r="U559" s="2"/>
       <c r="V559" s="2"/>
     </row>
-    <row r="560" spans="1:22" ht="14.25" customHeight="1">
+    <row r="560" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="10"/>
       <c r="C560" s="2"/>
@@ -15456,7 +15464,7 @@
       <c r="U560" s="2"/>
       <c r="V560" s="2"/>
     </row>
-    <row r="561" spans="1:22" ht="14.25" customHeight="1">
+    <row r="561" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="10"/>
       <c r="C561" s="2"/>
@@ -15480,7 +15488,7 @@
       <c r="U561" s="2"/>
       <c r="V561" s="2"/>
     </row>
-    <row r="562" spans="1:22" ht="14.25" customHeight="1">
+    <row r="562" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="10"/>
       <c r="C562" s="2"/>
@@ -15504,7 +15512,7 @@
       <c r="U562" s="2"/>
       <c r="V562" s="2"/>
     </row>
-    <row r="563" spans="1:22" ht="14.25" customHeight="1">
+    <row r="563" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="10"/>
       <c r="C563" s="2"/>
@@ -15528,7 +15536,7 @@
       <c r="U563" s="2"/>
       <c r="V563" s="2"/>
     </row>
-    <row r="564" spans="1:22" ht="14.25" customHeight="1">
+    <row r="564" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="10"/>
       <c r="C564" s="2"/>
@@ -15552,7 +15560,7 @@
       <c r="U564" s="2"/>
       <c r="V564" s="2"/>
     </row>
-    <row r="565" spans="1:22" ht="14.25" customHeight="1">
+    <row r="565" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="10"/>
       <c r="C565" s="2"/>
@@ -15576,7 +15584,7 @@
       <c r="U565" s="2"/>
       <c r="V565" s="2"/>
     </row>
-    <row r="566" spans="1:22" ht="14.25" customHeight="1">
+    <row r="566" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="10"/>
       <c r="C566" s="2"/>
@@ -15600,7 +15608,7 @@
       <c r="U566" s="2"/>
       <c r="V566" s="2"/>
     </row>
-    <row r="567" spans="1:22" ht="14.25" customHeight="1">
+    <row r="567" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="10"/>
       <c r="C567" s="2"/>
@@ -15624,7 +15632,7 @@
       <c r="U567" s="2"/>
       <c r="V567" s="2"/>
     </row>
-    <row r="568" spans="1:22" ht="14.25" customHeight="1">
+    <row r="568" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="10"/>
       <c r="C568" s="2"/>
@@ -15648,7 +15656,7 @@
       <c r="U568" s="2"/>
       <c r="V568" s="2"/>
     </row>
-    <row r="569" spans="1:22" ht="14.25" customHeight="1">
+    <row r="569" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="10"/>
       <c r="C569" s="2"/>
@@ -15672,7 +15680,7 @@
       <c r="U569" s="2"/>
       <c r="V569" s="2"/>
     </row>
-    <row r="570" spans="1:22" ht="14.25" customHeight="1">
+    <row r="570" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="10"/>
       <c r="C570" s="2"/>
@@ -15696,7 +15704,7 @@
       <c r="U570" s="2"/>
       <c r="V570" s="2"/>
     </row>
-    <row r="571" spans="1:22" ht="14.25" customHeight="1">
+    <row r="571" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="10"/>
       <c r="C571" s="2"/>
@@ -15720,7 +15728,7 @@
       <c r="U571" s="2"/>
       <c r="V571" s="2"/>
     </row>
-    <row r="572" spans="1:22" ht="14.25" customHeight="1">
+    <row r="572" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="10"/>
       <c r="C572" s="2"/>
@@ -15744,7 +15752,7 @@
       <c r="U572" s="2"/>
       <c r="V572" s="2"/>
     </row>
-    <row r="573" spans="1:22" ht="14.25" customHeight="1">
+    <row r="573" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="10"/>
       <c r="C573" s="2"/>
@@ -15768,7 +15776,7 @@
       <c r="U573" s="2"/>
       <c r="V573" s="2"/>
     </row>
-    <row r="574" spans="1:22" ht="14.25" customHeight="1">
+    <row r="574" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="10"/>
       <c r="C574" s="2"/>
@@ -15792,7 +15800,7 @@
       <c r="U574" s="2"/>
       <c r="V574" s="2"/>
     </row>
-    <row r="575" spans="1:22" ht="14.25" customHeight="1">
+    <row r="575" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="10"/>
       <c r="C575" s="2"/>
@@ -15816,7 +15824,7 @@
       <c r="U575" s="2"/>
       <c r="V575" s="2"/>
     </row>
-    <row r="576" spans="1:22" ht="14.25" customHeight="1">
+    <row r="576" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="10"/>
       <c r="C576" s="2"/>
@@ -15840,7 +15848,7 @@
       <c r="U576" s="2"/>
       <c r="V576" s="2"/>
     </row>
-    <row r="577" spans="1:22" ht="14.25" customHeight="1">
+    <row r="577" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="10"/>
       <c r="C577" s="2"/>
@@ -15864,7 +15872,7 @@
       <c r="U577" s="2"/>
       <c r="V577" s="2"/>
     </row>
-    <row r="578" spans="1:22" ht="14.25" customHeight="1">
+    <row r="578" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="10"/>
       <c r="C578" s="2"/>
@@ -15888,7 +15896,7 @@
       <c r="U578" s="2"/>
       <c r="V578" s="2"/>
     </row>
-    <row r="579" spans="1:22" ht="14.25" customHeight="1">
+    <row r="579" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="10"/>
       <c r="C579" s="2"/>
@@ -15912,7 +15920,7 @@
       <c r="U579" s="2"/>
       <c r="V579" s="2"/>
     </row>
-    <row r="580" spans="1:22" ht="14.25" customHeight="1">
+    <row r="580" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="10"/>
       <c r="C580" s="2"/>
@@ -15936,7 +15944,7 @@
       <c r="U580" s="2"/>
       <c r="V580" s="2"/>
     </row>
-    <row r="581" spans="1:22" ht="14.25" customHeight="1">
+    <row r="581" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="10"/>
       <c r="C581" s="2"/>
@@ -15960,7 +15968,7 @@
       <c r="U581" s="2"/>
       <c r="V581" s="2"/>
     </row>
-    <row r="582" spans="1:22" ht="14.25" customHeight="1">
+    <row r="582" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="10"/>
       <c r="C582" s="2"/>
@@ -15984,7 +15992,7 @@
       <c r="U582" s="2"/>
       <c r="V582" s="2"/>
     </row>
-    <row r="583" spans="1:22" ht="14.25" customHeight="1">
+    <row r="583" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="10"/>
       <c r="C583" s="2"/>
@@ -16008,7 +16016,7 @@
       <c r="U583" s="2"/>
       <c r="V583" s="2"/>
     </row>
-    <row r="584" spans="1:22" ht="14.25" customHeight="1">
+    <row r="584" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="10"/>
       <c r="C584" s="2"/>
@@ -16032,7 +16040,7 @@
       <c r="U584" s="2"/>
       <c r="V584" s="2"/>
     </row>
-    <row r="585" spans="1:22" ht="14.25" customHeight="1">
+    <row r="585" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="10"/>
       <c r="C585" s="2"/>
@@ -16056,7 +16064,7 @@
       <c r="U585" s="2"/>
       <c r="V585" s="2"/>
     </row>
-    <row r="586" spans="1:22" ht="14.25" customHeight="1">
+    <row r="586" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="10"/>
       <c r="C586" s="2"/>
@@ -16080,7 +16088,7 @@
       <c r="U586" s="2"/>
       <c r="V586" s="2"/>
     </row>
-    <row r="587" spans="1:22" ht="14.25" customHeight="1">
+    <row r="587" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="10"/>
       <c r="C587" s="2"/>
@@ -16104,7 +16112,7 @@
       <c r="U587" s="2"/>
       <c r="V587" s="2"/>
     </row>
-    <row r="588" spans="1:22" ht="14.25" customHeight="1">
+    <row r="588" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="10"/>
       <c r="C588" s="2"/>
@@ -16128,7 +16136,7 @@
       <c r="U588" s="2"/>
       <c r="V588" s="2"/>
     </row>
-    <row r="589" spans="1:22" ht="14.25" customHeight="1">
+    <row r="589" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="10"/>
       <c r="C589" s="2"/>
@@ -16152,7 +16160,7 @@
       <c r="U589" s="2"/>
       <c r="V589" s="2"/>
     </row>
-    <row r="590" spans="1:22" ht="14.25" customHeight="1">
+    <row r="590" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="10"/>
       <c r="C590" s="2"/>
@@ -16176,7 +16184,7 @@
       <c r="U590" s="2"/>
       <c r="V590" s="2"/>
     </row>
-    <row r="591" spans="1:22" ht="14.25" customHeight="1">
+    <row r="591" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="10"/>
       <c r="C591" s="2"/>
@@ -16200,7 +16208,7 @@
       <c r="U591" s="2"/>
       <c r="V591" s="2"/>
     </row>
-    <row r="592" spans="1:22" ht="14.25" customHeight="1">
+    <row r="592" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="10"/>
       <c r="C592" s="2"/>
@@ -16224,7 +16232,7 @@
       <c r="U592" s="2"/>
       <c r="V592" s="2"/>
     </row>
-    <row r="593" spans="1:22" ht="14.25" customHeight="1">
+    <row r="593" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="10"/>
       <c r="C593" s="2"/>
@@ -16248,7 +16256,7 @@
       <c r="U593" s="2"/>
       <c r="V593" s="2"/>
     </row>
-    <row r="594" spans="1:22" ht="14.25" customHeight="1">
+    <row r="594" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="10"/>
       <c r="C594" s="2"/>
@@ -16272,7 +16280,7 @@
       <c r="U594" s="2"/>
       <c r="V594" s="2"/>
     </row>
-    <row r="595" spans="1:22" ht="14.25" customHeight="1">
+    <row r="595" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="10"/>
       <c r="C595" s="2"/>
@@ -16296,7 +16304,7 @@
       <c r="U595" s="2"/>
       <c r="V595" s="2"/>
     </row>
-    <row r="596" spans="1:22" ht="14.25" customHeight="1">
+    <row r="596" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="10"/>
       <c r="C596" s="2"/>
@@ -16320,7 +16328,7 @@
       <c r="U596" s="2"/>
       <c r="V596" s="2"/>
     </row>
-    <row r="597" spans="1:22" ht="14.25" customHeight="1">
+    <row r="597" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="10"/>
       <c r="C597" s="2"/>
@@ -16344,7 +16352,7 @@
       <c r="U597" s="2"/>
       <c r="V597" s="2"/>
     </row>
-    <row r="598" spans="1:22" ht="14.25" customHeight="1">
+    <row r="598" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="10"/>
       <c r="C598" s="2"/>
@@ -16368,7 +16376,7 @@
       <c r="U598" s="2"/>
       <c r="V598" s="2"/>
     </row>
-    <row r="599" spans="1:22" ht="14.25" customHeight="1">
+    <row r="599" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="10"/>
       <c r="C599" s="2"/>
@@ -16392,7 +16400,7 @@
       <c r="U599" s="2"/>
       <c r="V599" s="2"/>
     </row>
-    <row r="600" spans="1:22" ht="14.25" customHeight="1">
+    <row r="600" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="10"/>
       <c r="C600" s="2"/>
@@ -16416,7 +16424,7 @@
       <c r="U600" s="2"/>
       <c r="V600" s="2"/>
     </row>
-    <row r="601" spans="1:22" ht="14.25" customHeight="1">
+    <row r="601" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="10"/>
       <c r="C601" s="2"/>
@@ -16440,7 +16448,7 @@
       <c r="U601" s="2"/>
       <c r="V601" s="2"/>
     </row>
-    <row r="602" spans="1:22" ht="14.25" customHeight="1">
+    <row r="602" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="10"/>
       <c r="C602" s="2"/>
@@ -16464,7 +16472,7 @@
       <c r="U602" s="2"/>
       <c r="V602" s="2"/>
     </row>
-    <row r="603" spans="1:22" ht="14.25" customHeight="1">
+    <row r="603" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="10"/>
       <c r="C603" s="2"/>
@@ -16488,7 +16496,7 @@
       <c r="U603" s="2"/>
       <c r="V603" s="2"/>
     </row>
-    <row r="604" spans="1:22" ht="14.25" customHeight="1">
+    <row r="604" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="10"/>
       <c r="C604" s="2"/>
@@ -16512,7 +16520,7 @@
       <c r="U604" s="2"/>
       <c r="V604" s="2"/>
     </row>
-    <row r="605" spans="1:22" ht="14.25" customHeight="1">
+    <row r="605" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="10"/>
       <c r="C605" s="2"/>
@@ -16536,7 +16544,7 @@
       <c r="U605" s="2"/>
       <c r="V605" s="2"/>
     </row>
-    <row r="606" spans="1:22" ht="14.25" customHeight="1">
+    <row r="606" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="10"/>
       <c r="C606" s="2"/>
@@ -16560,7 +16568,7 @@
       <c r="U606" s="2"/>
       <c r="V606" s="2"/>
     </row>
-    <row r="607" spans="1:22" ht="14.25" customHeight="1">
+    <row r="607" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="10"/>
       <c r="C607" s="2"/>
@@ -16584,7 +16592,7 @@
       <c r="U607" s="2"/>
       <c r="V607" s="2"/>
     </row>
-    <row r="608" spans="1:22" ht="14.25" customHeight="1">
+    <row r="608" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="10"/>
       <c r="C608" s="2"/>
@@ -16608,7 +16616,7 @@
       <c r="U608" s="2"/>
       <c r="V608" s="2"/>
     </row>
-    <row r="609" spans="1:22" ht="14.25" customHeight="1">
+    <row r="609" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="10"/>
       <c r="C609" s="2"/>
@@ -16632,7 +16640,7 @@
       <c r="U609" s="2"/>
       <c r="V609" s="2"/>
     </row>
-    <row r="610" spans="1:22" ht="14.25" customHeight="1">
+    <row r="610" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="10"/>
       <c r="C610" s="2"/>
@@ -16656,7 +16664,7 @@
       <c r="U610" s="2"/>
       <c r="V610" s="2"/>
     </row>
-    <row r="611" spans="1:22" ht="14.25" customHeight="1">
+    <row r="611" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="10"/>
       <c r="C611" s="2"/>
@@ -16680,7 +16688,7 @@
       <c r="U611" s="2"/>
       <c r="V611" s="2"/>
     </row>
-    <row r="612" spans="1:22" ht="14.25" customHeight="1">
+    <row r="612" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="10"/>
       <c r="C612" s="2"/>
@@ -16704,7 +16712,7 @@
       <c r="U612" s="2"/>
       <c r="V612" s="2"/>
     </row>
-    <row r="613" spans="1:22" ht="14.25" customHeight="1">
+    <row r="613" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="10"/>
       <c r="C613" s="2"/>
@@ -16728,7 +16736,7 @@
       <c r="U613" s="2"/>
       <c r="V613" s="2"/>
     </row>
-    <row r="614" spans="1:22" ht="14.25" customHeight="1">
+    <row r="614" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="10"/>
       <c r="C614" s="2"/>
@@ -16752,7 +16760,7 @@
       <c r="U614" s="2"/>
       <c r="V614" s="2"/>
     </row>
-    <row r="615" spans="1:22" ht="14.25" customHeight="1">
+    <row r="615" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="10"/>
       <c r="C615" s="2"/>
@@ -16776,7 +16784,7 @@
       <c r="U615" s="2"/>
       <c r="V615" s="2"/>
     </row>
-    <row r="616" spans="1:22" ht="14.25" customHeight="1">
+    <row r="616" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="10"/>
       <c r="C616" s="2"/>
@@ -16800,7 +16808,7 @@
       <c r="U616" s="2"/>
       <c r="V616" s="2"/>
     </row>
-    <row r="617" spans="1:22" ht="14.25" customHeight="1">
+    <row r="617" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="10"/>
       <c r="C617" s="2"/>
@@ -16824,7 +16832,7 @@
       <c r="U617" s="2"/>
       <c r="V617" s="2"/>
     </row>
-    <row r="618" spans="1:22" ht="14.25" customHeight="1">
+    <row r="618" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="10"/>
       <c r="C618" s="2"/>
@@ -16848,7 +16856,7 @@
       <c r="U618" s="2"/>
       <c r="V618" s="2"/>
     </row>
-    <row r="619" spans="1:22" ht="14.25" customHeight="1">
+    <row r="619" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="10"/>
       <c r="C619" s="2"/>
@@ -16872,7 +16880,7 @@
       <c r="U619" s="2"/>
       <c r="V619" s="2"/>
     </row>
-    <row r="620" spans="1:22" ht="14.25" customHeight="1">
+    <row r="620" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="10"/>
       <c r="C620" s="2"/>
@@ -16896,7 +16904,7 @@
       <c r="U620" s="2"/>
       <c r="V620" s="2"/>
     </row>
-    <row r="621" spans="1:22" ht="14.25" customHeight="1">
+    <row r="621" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="10"/>
       <c r="C621" s="2"/>
@@ -16920,7 +16928,7 @@
       <c r="U621" s="2"/>
       <c r="V621" s="2"/>
     </row>
-    <row r="622" spans="1:22" ht="14.25" customHeight="1">
+    <row r="622" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="10"/>
       <c r="C622" s="2"/>
@@ -16944,7 +16952,7 @@
       <c r="U622" s="2"/>
       <c r="V622" s="2"/>
     </row>
-    <row r="623" spans="1:22" ht="14.25" customHeight="1">
+    <row r="623" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="10"/>
       <c r="C623" s="2"/>
@@ -16968,7 +16976,7 @@
       <c r="U623" s="2"/>
       <c r="V623" s="2"/>
     </row>
-    <row r="624" spans="1:22" ht="14.25" customHeight="1">
+    <row r="624" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="10"/>
       <c r="C624" s="2"/>
@@ -16992,7 +17000,7 @@
       <c r="U624" s="2"/>
       <c r="V624" s="2"/>
     </row>
-    <row r="625" spans="1:22" ht="14.25" customHeight="1">
+    <row r="625" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="10"/>
       <c r="C625" s="2"/>
@@ -17016,7 +17024,7 @@
       <c r="U625" s="2"/>
       <c r="V625" s="2"/>
     </row>
-    <row r="626" spans="1:22" ht="14.25" customHeight="1">
+    <row r="626" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="10"/>
       <c r="C626" s="2"/>
@@ -17040,7 +17048,7 @@
       <c r="U626" s="2"/>
       <c r="V626" s="2"/>
     </row>
-    <row r="627" spans="1:22" ht="14.25" customHeight="1">
+    <row r="627" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="10"/>
       <c r="C627" s="2"/>
@@ -17064,7 +17072,7 @@
       <c r="U627" s="2"/>
       <c r="V627" s="2"/>
     </row>
-    <row r="628" spans="1:22" ht="14.25" customHeight="1">
+    <row r="628" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="10"/>
       <c r="C628" s="2"/>
@@ -17088,7 +17096,7 @@
       <c r="U628" s="2"/>
       <c r="V628" s="2"/>
     </row>
-    <row r="629" spans="1:22" ht="14.25" customHeight="1">
+    <row r="629" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="10"/>
       <c r="C629" s="2"/>
@@ -17112,7 +17120,7 @@
       <c r="U629" s="2"/>
       <c r="V629" s="2"/>
     </row>
-    <row r="630" spans="1:22" ht="14.25" customHeight="1">
+    <row r="630" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="10"/>
       <c r="C630" s="2"/>
@@ -17136,7 +17144,7 @@
       <c r="U630" s="2"/>
       <c r="V630" s="2"/>
     </row>
-    <row r="631" spans="1:22" ht="14.25" customHeight="1">
+    <row r="631" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="10"/>
       <c r="C631" s="2"/>
@@ -17160,7 +17168,7 @@
       <c r="U631" s="2"/>
       <c r="V631" s="2"/>
     </row>
-    <row r="632" spans="1:22" ht="14.25" customHeight="1">
+    <row r="632" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="10"/>
       <c r="C632" s="2"/>
@@ -17184,7 +17192,7 @@
       <c r="U632" s="2"/>
       <c r="V632" s="2"/>
     </row>
-    <row r="633" spans="1:22" ht="14.25" customHeight="1">
+    <row r="633" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="10"/>
       <c r="C633" s="2"/>
@@ -17208,7 +17216,7 @@
       <c r="U633" s="2"/>
       <c r="V633" s="2"/>
     </row>
-    <row r="634" spans="1:22" ht="14.25" customHeight="1">
+    <row r="634" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="10"/>
       <c r="C634" s="2"/>
@@ -17232,7 +17240,7 @@
       <c r="U634" s="2"/>
       <c r="V634" s="2"/>
     </row>
-    <row r="635" spans="1:22" ht="14.25" customHeight="1">
+    <row r="635" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="10"/>
       <c r="C635" s="2"/>
@@ -17256,7 +17264,7 @@
       <c r="U635" s="2"/>
       <c r="V635" s="2"/>
     </row>
-    <row r="636" spans="1:22" ht="14.25" customHeight="1">
+    <row r="636" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="10"/>
       <c r="C636" s="2"/>
@@ -17280,7 +17288,7 @@
       <c r="U636" s="2"/>
       <c r="V636" s="2"/>
     </row>
-    <row r="637" spans="1:22" ht="14.25" customHeight="1">
+    <row r="637" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="10"/>
       <c r="C637" s="2"/>
@@ -17304,7 +17312,7 @@
       <c r="U637" s="2"/>
       <c r="V637" s="2"/>
     </row>
-    <row r="638" spans="1:22" ht="14.25" customHeight="1">
+    <row r="638" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="10"/>
       <c r="C638" s="2"/>
@@ -17328,7 +17336,7 @@
       <c r="U638" s="2"/>
       <c r="V638" s="2"/>
     </row>
-    <row r="639" spans="1:22" ht="14.25" customHeight="1">
+    <row r="639" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="10"/>
       <c r="C639" s="2"/>
@@ -17352,7 +17360,7 @@
       <c r="U639" s="2"/>
       <c r="V639" s="2"/>
     </row>
-    <row r="640" spans="1:22" ht="14.25" customHeight="1">
+    <row r="640" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="10"/>
       <c r="C640" s="2"/>
@@ -17376,7 +17384,7 @@
       <c r="U640" s="2"/>
       <c r="V640" s="2"/>
     </row>
-    <row r="641" spans="1:22" ht="14.25" customHeight="1">
+    <row r="641" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="10"/>
       <c r="C641" s="2"/>
@@ -17400,7 +17408,7 @@
       <c r="U641" s="2"/>
       <c r="V641" s="2"/>
     </row>
-    <row r="642" spans="1:22" ht="14.25" customHeight="1">
+    <row r="642" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="10"/>
       <c r="C642" s="2"/>
@@ -17424,7 +17432,7 @@
       <c r="U642" s="2"/>
       <c r="V642" s="2"/>
     </row>
-    <row r="643" spans="1:22" ht="14.25" customHeight="1">
+    <row r="643" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="10"/>
       <c r="C643" s="2"/>
@@ -17448,7 +17456,7 @@
       <c r="U643" s="2"/>
       <c r="V643" s="2"/>
     </row>
-    <row r="644" spans="1:22" ht="14.25" customHeight="1">
+    <row r="644" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="10"/>
       <c r="C644" s="2"/>
@@ -17472,7 +17480,7 @@
       <c r="U644" s="2"/>
       <c r="V644" s="2"/>
     </row>
-    <row r="645" spans="1:22" ht="14.25" customHeight="1">
+    <row r="645" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="10"/>
       <c r="C645" s="2"/>
@@ -17496,7 +17504,7 @@
       <c r="U645" s="2"/>
       <c r="V645" s="2"/>
     </row>
-    <row r="646" spans="1:22" ht="14.25" customHeight="1">
+    <row r="646" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="10"/>
       <c r="C646" s="2"/>
@@ -17520,7 +17528,7 @@
       <c r="U646" s="2"/>
       <c r="V646" s="2"/>
     </row>
-    <row r="647" spans="1:22" ht="14.25" customHeight="1">
+    <row r="647" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="10"/>
       <c r="C647" s="2"/>
@@ -17544,7 +17552,7 @@
       <c r="U647" s="2"/>
       <c r="V647" s="2"/>
     </row>
-    <row r="648" spans="1:22" ht="14.25" customHeight="1">
+    <row r="648" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="10"/>
       <c r="C648" s="2"/>
@@ -17568,7 +17576,7 @@
       <c r="U648" s="2"/>
       <c r="V648" s="2"/>
     </row>
-    <row r="649" spans="1:22" ht="14.25" customHeight="1">
+    <row r="649" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="10"/>
       <c r="C649" s="2"/>
@@ -17592,7 +17600,7 @@
       <c r="U649" s="2"/>
       <c r="V649" s="2"/>
     </row>
-    <row r="650" spans="1:22" ht="14.25" customHeight="1">
+    <row r="650" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="10"/>
       <c r="C650" s="2"/>
@@ -17616,7 +17624,7 @@
       <c r="U650" s="2"/>
       <c r="V650" s="2"/>
     </row>
-    <row r="651" spans="1:22" ht="14.25" customHeight="1">
+    <row r="651" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="10"/>
       <c r="C651" s="2"/>
@@ -17640,7 +17648,7 @@
       <c r="U651" s="2"/>
       <c r="V651" s="2"/>
     </row>
-    <row r="652" spans="1:22" ht="14.25" customHeight="1">
+    <row r="652" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="10"/>
       <c r="C652" s="2"/>
@@ -17664,7 +17672,7 @@
       <c r="U652" s="2"/>
       <c r="V652" s="2"/>
     </row>
-    <row r="653" spans="1:22" ht="14.25" customHeight="1">
+    <row r="653" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="10"/>
       <c r="C653" s="2"/>
@@ -17688,7 +17696,7 @@
       <c r="U653" s="2"/>
       <c r="V653" s="2"/>
     </row>
-    <row r="654" spans="1:22" ht="14.25" customHeight="1">
+    <row r="654" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="10"/>
       <c r="C654" s="2"/>
@@ -17712,7 +17720,7 @@
       <c r="U654" s="2"/>
       <c r="V654" s="2"/>
     </row>
-    <row r="655" spans="1:22" ht="14.25" customHeight="1">
+    <row r="655" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="10"/>
       <c r="C655" s="2"/>
@@ -17736,7 +17744,7 @@
       <c r="U655" s="2"/>
       <c r="V655" s="2"/>
     </row>
-    <row r="656" spans="1:22" ht="14.25" customHeight="1">
+    <row r="656" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="10"/>
       <c r="C656" s="2"/>
@@ -17760,7 +17768,7 @@
       <c r="U656" s="2"/>
       <c r="V656" s="2"/>
     </row>
-    <row r="657" spans="1:22" ht="14.25" customHeight="1">
+    <row r="657" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="10"/>
       <c r="C657" s="2"/>
@@ -17784,7 +17792,7 @@
       <c r="U657" s="2"/>
       <c r="V657" s="2"/>
     </row>
-    <row r="658" spans="1:22" ht="14.25" customHeight="1">
+    <row r="658" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="10"/>
       <c r="C658" s="2"/>
@@ -17808,7 +17816,7 @@
       <c r="U658" s="2"/>
       <c r="V658" s="2"/>
     </row>
-    <row r="659" spans="1:22" ht="14.25" customHeight="1">
+    <row r="659" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="10"/>
       <c r="C659" s="2"/>
@@ -17832,7 +17840,7 @@
       <c r="U659" s="2"/>
       <c r="V659" s="2"/>
     </row>
-    <row r="660" spans="1:22" ht="14.25" customHeight="1">
+    <row r="660" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="10"/>
       <c r="C660" s="2"/>
@@ -17856,7 +17864,7 @@
       <c r="U660" s="2"/>
       <c r="V660" s="2"/>
     </row>
-    <row r="661" spans="1:22" ht="14.25" customHeight="1">
+    <row r="661" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="10"/>
       <c r="C661" s="2"/>
@@ -17880,7 +17888,7 @@
       <c r="U661" s="2"/>
       <c r="V661" s="2"/>
     </row>
-    <row r="662" spans="1:22" ht="14.25" customHeight="1">
+    <row r="662" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="10"/>
       <c r="C662" s="2"/>
@@ -17904,7 +17912,7 @@
       <c r="U662" s="2"/>
       <c r="V662" s="2"/>
     </row>
-    <row r="663" spans="1:22" ht="14.25" customHeight="1">
+    <row r="663" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="10"/>
       <c r="C663" s="2"/>
@@ -17928,7 +17936,7 @@
       <c r="U663" s="2"/>
       <c r="V663" s="2"/>
     </row>
-    <row r="664" spans="1:22" ht="14.25" customHeight="1">
+    <row r="664" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="10"/>
       <c r="C664" s="2"/>
@@ -17952,7 +17960,7 @@
       <c r="U664" s="2"/>
       <c r="V664" s="2"/>
     </row>
-    <row r="665" spans="1:22" ht="14.25" customHeight="1">
+    <row r="665" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="10"/>
       <c r="C665" s="2"/>
@@ -17976,7 +17984,7 @@
       <c r="U665" s="2"/>
       <c r="V665" s="2"/>
     </row>
-    <row r="666" spans="1:22" ht="14.25" customHeight="1">
+    <row r="666" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="10"/>
       <c r="C666" s="2"/>
@@ -18000,7 +18008,7 @@
       <c r="U666" s="2"/>
       <c r="V666" s="2"/>
     </row>
-    <row r="667" spans="1:22" ht="14.25" customHeight="1">
+    <row r="667" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="10"/>
       <c r="C667" s="2"/>
@@ -18024,7 +18032,7 @@
       <c r="U667" s="2"/>
       <c r="V667" s="2"/>
     </row>
-    <row r="668" spans="1:22" ht="14.25" customHeight="1">
+    <row r="668" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="10"/>
       <c r="C668" s="2"/>
@@ -18048,7 +18056,7 @@
       <c r="U668" s="2"/>
       <c r="V668" s="2"/>
     </row>
-    <row r="669" spans="1:22" ht="14.25" customHeight="1">
+    <row r="669" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="10"/>
       <c r="C669" s="2"/>
@@ -18072,7 +18080,7 @@
       <c r="U669" s="2"/>
       <c r="V669" s="2"/>
     </row>
-    <row r="670" spans="1:22" ht="14.25" customHeight="1">
+    <row r="670" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="10"/>
       <c r="C670" s="2"/>
@@ -18096,7 +18104,7 @@
       <c r="U670" s="2"/>
       <c r="V670" s="2"/>
     </row>
-    <row r="671" spans="1:22" ht="14.25" customHeight="1">
+    <row r="671" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="10"/>
       <c r="C671" s="2"/>
@@ -18120,7 +18128,7 @@
       <c r="U671" s="2"/>
       <c r="V671" s="2"/>
     </row>
-    <row r="672" spans="1:22" ht="14.25" customHeight="1">
+    <row r="672" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="10"/>
       <c r="C672" s="2"/>
@@ -18144,7 +18152,7 @@
       <c r="U672" s="2"/>
       <c r="V672" s="2"/>
     </row>
-    <row r="673" spans="1:22" ht="14.25" customHeight="1">
+    <row r="673" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="10"/>
       <c r="C673" s="2"/>
@@ -18168,7 +18176,7 @@
       <c r="U673" s="2"/>
       <c r="V673" s="2"/>
     </row>
-    <row r="674" spans="1:22" ht="14.25" customHeight="1">
+    <row r="674" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="10"/>
       <c r="C674" s="2"/>
@@ -18192,7 +18200,7 @@
       <c r="U674" s="2"/>
       <c r="V674" s="2"/>
     </row>
-    <row r="675" spans="1:22" ht="14.25" customHeight="1">
+    <row r="675" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="10"/>
       <c r="C675" s="2"/>
@@ -18216,7 +18224,7 @@
       <c r="U675" s="2"/>
       <c r="V675" s="2"/>
     </row>
-    <row r="676" spans="1:22" ht="14.25" customHeight="1">
+    <row r="676" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="10"/>
       <c r="C676" s="2"/>
@@ -18240,7 +18248,7 @@
       <c r="U676" s="2"/>
       <c r="V676" s="2"/>
     </row>
-    <row r="677" spans="1:22" ht="14.25" customHeight="1">
+    <row r="677" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="10"/>
       <c r="C677" s="2"/>
@@ -18264,7 +18272,7 @@
       <c r="U677" s="2"/>
       <c r="V677" s="2"/>
     </row>
-    <row r="678" spans="1:22" ht="14.25" customHeight="1">
+    <row r="678" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="10"/>
       <c r="C678" s="2"/>
@@ -18288,7 +18296,7 @@
       <c r="U678" s="2"/>
       <c r="V678" s="2"/>
     </row>
-    <row r="679" spans="1:22" ht="14.25" customHeight="1">
+    <row r="679" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="10"/>
       <c r="C679" s="2"/>
@@ -18312,7 +18320,7 @@
       <c r="U679" s="2"/>
       <c r="V679" s="2"/>
     </row>
-    <row r="680" spans="1:22" ht="14.25" customHeight="1">
+    <row r="680" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="10"/>
       <c r="C680" s="2"/>
@@ -18336,7 +18344,7 @@
       <c r="U680" s="2"/>
       <c r="V680" s="2"/>
     </row>
-    <row r="681" spans="1:22" ht="14.25" customHeight="1">
+    <row r="681" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="10"/>
       <c r="C681" s="2"/>
@@ -18360,7 +18368,7 @@
       <c r="U681" s="2"/>
       <c r="V681" s="2"/>
     </row>
-    <row r="682" spans="1:22" ht="14.25" customHeight="1">
+    <row r="682" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="10"/>
       <c r="C682" s="2"/>
@@ -18384,7 +18392,7 @@
       <c r="U682" s="2"/>
       <c r="V682" s="2"/>
     </row>
-    <row r="683" spans="1:22" ht="14.25" customHeight="1">
+    <row r="683" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="10"/>
       <c r="C683" s="2"/>
@@ -18408,7 +18416,7 @@
       <c r="U683" s="2"/>
       <c r="V683" s="2"/>
     </row>
-    <row r="684" spans="1:22" ht="14.25" customHeight="1">
+    <row r="684" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="10"/>
       <c r="C684" s="2"/>
@@ -18432,7 +18440,7 @@
       <c r="U684" s="2"/>
       <c r="V684" s="2"/>
     </row>
-    <row r="685" spans="1:22" ht="14.25" customHeight="1">
+    <row r="685" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="10"/>
       <c r="C685" s="2"/>
@@ -18456,7 +18464,7 @@
       <c r="U685" s="2"/>
       <c r="V685" s="2"/>
     </row>
-    <row r="686" spans="1:22" ht="14.25" customHeight="1">
+    <row r="686" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="10"/>
       <c r="C686" s="2"/>
@@ -18480,7 +18488,7 @@
       <c r="U686" s="2"/>
       <c r="V686" s="2"/>
     </row>
-    <row r="687" spans="1:22" ht="14.25" customHeight="1">
+    <row r="687" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="10"/>
       <c r="C687" s="2"/>
@@ -18504,7 +18512,7 @@
       <c r="U687" s="2"/>
       <c r="V687" s="2"/>
     </row>
-    <row r="688" spans="1:22" ht="14.25" customHeight="1">
+    <row r="688" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="10"/>
       <c r="C688" s="2"/>
@@ -18528,7 +18536,7 @@
       <c r="U688" s="2"/>
       <c r="V688" s="2"/>
     </row>
-    <row r="689" spans="1:22" ht="14.25" customHeight="1">
+    <row r="689" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="10"/>
       <c r="C689" s="2"/>
@@ -18552,7 +18560,7 @@
       <c r="U689" s="2"/>
       <c r="V689" s="2"/>
     </row>
-    <row r="690" spans="1:22" ht="14.25" customHeight="1">
+    <row r="690" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="10"/>
       <c r="C690" s="2"/>
@@ -18576,7 +18584,7 @@
       <c r="U690" s="2"/>
       <c r="V690" s="2"/>
     </row>
-    <row r="691" spans="1:22" ht="14.25" customHeight="1">
+    <row r="691" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="10"/>
       <c r="C691" s="2"/>
@@ -18600,7 +18608,7 @@
       <c r="U691" s="2"/>
       <c r="V691" s="2"/>
     </row>
-    <row r="692" spans="1:22" ht="14.25" customHeight="1">
+    <row r="692" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="10"/>
       <c r="C692" s="2"/>
@@ -18624,7 +18632,7 @@
       <c r="U692" s="2"/>
       <c r="V692" s="2"/>
     </row>
-    <row r="693" spans="1:22" ht="14.25" customHeight="1">
+    <row r="693" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="10"/>
       <c r="C693" s="2"/>
@@ -18648,7 +18656,7 @@
       <c r="U693" s="2"/>
       <c r="V693" s="2"/>
     </row>
-    <row r="694" spans="1:22" ht="14.25" customHeight="1">
+    <row r="694" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="10"/>
       <c r="C694" s="2"/>
@@ -18672,7 +18680,7 @@
       <c r="U694" s="2"/>
       <c r="V694" s="2"/>
     </row>
-    <row r="695" spans="1:22" ht="14.25" customHeight="1">
+    <row r="695" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="10"/>
       <c r="C695" s="2"/>
@@ -18696,7 +18704,7 @@
       <c r="U695" s="2"/>
       <c r="V695" s="2"/>
     </row>
-    <row r="696" spans="1:22" ht="14.25" customHeight="1">
+    <row r="696" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="10"/>
       <c r="C696" s="2"/>
@@ -18720,7 +18728,7 @@
       <c r="U696" s="2"/>
       <c r="V696" s="2"/>
     </row>
-    <row r="697" spans="1:22" ht="14.25" customHeight="1">
+    <row r="697" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="10"/>
       <c r="C697" s="2"/>
@@ -18744,7 +18752,7 @@
       <c r="U697" s="2"/>
       <c r="V697" s="2"/>
     </row>
-    <row r="698" spans="1:22" ht="14.25" customHeight="1">
+    <row r="698" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="10"/>
       <c r="C698" s="2"/>
@@ -18768,7 +18776,7 @@
       <c r="U698" s="2"/>
       <c r="V698" s="2"/>
     </row>
-    <row r="699" spans="1:22" ht="14.25" customHeight="1">
+    <row r="699" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="10"/>
       <c r="C699" s="2"/>
@@ -18792,7 +18800,7 @@
       <c r="U699" s="2"/>
       <c r="V699" s="2"/>
     </row>
-    <row r="700" spans="1:22" ht="14.25" customHeight="1">
+    <row r="700" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="10"/>
       <c r="C700" s="2"/>
@@ -18816,7 +18824,7 @@
       <c r="U700" s="2"/>
       <c r="V700" s="2"/>
     </row>
-    <row r="701" spans="1:22" ht="14.25" customHeight="1">
+    <row r="701" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="10"/>
       <c r="C701" s="2"/>
@@ -18840,7 +18848,7 @@
       <c r="U701" s="2"/>
       <c r="V701" s="2"/>
     </row>
-    <row r="702" spans="1:22" ht="14.25" customHeight="1">
+    <row r="702" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="10"/>
       <c r="C702" s="2"/>
@@ -18864,7 +18872,7 @@
       <c r="U702" s="2"/>
       <c r="V702" s="2"/>
     </row>
-    <row r="703" spans="1:22" ht="14.25" customHeight="1">
+    <row r="703" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="10"/>
       <c r="C703" s="2"/>
@@ -18888,7 +18896,7 @@
       <c r="U703" s="2"/>
       <c r="V703" s="2"/>
     </row>
-    <row r="704" spans="1:22" ht="14.25" customHeight="1">
+    <row r="704" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="10"/>
       <c r="C704" s="2"/>
@@ -18912,7 +18920,7 @@
       <c r="U704" s="2"/>
       <c r="V704" s="2"/>
     </row>
-    <row r="705" spans="1:22" ht="14.25" customHeight="1">
+    <row r="705" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="10"/>
       <c r="C705" s="2"/>
@@ -18936,7 +18944,7 @@
       <c r="U705" s="2"/>
       <c r="V705" s="2"/>
     </row>
-    <row r="706" spans="1:22" ht="14.25" customHeight="1">
+    <row r="706" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="10"/>
       <c r="C706" s="2"/>
@@ -18960,7 +18968,7 @@
       <c r="U706" s="2"/>
       <c r="V706" s="2"/>
     </row>
-    <row r="707" spans="1:22" ht="14.25" customHeight="1">
+    <row r="707" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="10"/>
       <c r="C707" s="2"/>
@@ -18984,7 +18992,7 @@
       <c r="U707" s="2"/>
       <c r="V707" s="2"/>
     </row>
-    <row r="708" spans="1:22" ht="14.25" customHeight="1">
+    <row r="708" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="10"/>
       <c r="C708" s="2"/>
@@ -19008,7 +19016,7 @@
       <c r="U708" s="2"/>
       <c r="V708" s="2"/>
     </row>
-    <row r="709" spans="1:22" ht="14.25" customHeight="1">
+    <row r="709" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="10"/>
       <c r="C709" s="2"/>
@@ -19032,7 +19040,7 @@
       <c r="U709" s="2"/>
       <c r="V709" s="2"/>
     </row>
-    <row r="710" spans="1:22" ht="14.25" customHeight="1">
+    <row r="710" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="10"/>
       <c r="C710" s="2"/>
@@ -19056,7 +19064,7 @@
       <c r="U710" s="2"/>
       <c r="V710" s="2"/>
     </row>
-    <row r="711" spans="1:22" ht="14.25" customHeight="1">
+    <row r="711" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="10"/>
       <c r="C711" s="2"/>
@@ -19080,7 +19088,7 @@
       <c r="U711" s="2"/>
       <c r="V711" s="2"/>
     </row>
-    <row r="712" spans="1:22" ht="14.25" customHeight="1">
+    <row r="712" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="10"/>
       <c r="C712" s="2"/>
@@ -19104,7 +19112,7 @@
       <c r="U712" s="2"/>
       <c r="V712" s="2"/>
     </row>
-    <row r="713" spans="1:22" ht="14.25" customHeight="1">
+    <row r="713" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="10"/>
       <c r="C713" s="2"/>
@@ -19128,7 +19136,7 @@
       <c r="U713" s="2"/>
       <c r="V713" s="2"/>
     </row>
-    <row r="714" spans="1:22" ht="14.25" customHeight="1">
+    <row r="714" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="10"/>
       <c r="C714" s="2"/>
@@ -19152,7 +19160,7 @@
       <c r="U714" s="2"/>
       <c r="V714" s="2"/>
     </row>
-    <row r="715" spans="1:22" ht="14.25" customHeight="1">
+    <row r="715" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="10"/>
       <c r="C715" s="2"/>
@@ -19176,7 +19184,7 @@
       <c r="U715" s="2"/>
       <c r="V715" s="2"/>
     </row>
-    <row r="716" spans="1:22" ht="14.25" customHeight="1">
+    <row r="716" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="10"/>
       <c r="C716" s="2"/>
@@ -19200,7 +19208,7 @@
       <c r="U716" s="2"/>
       <c r="V716" s="2"/>
     </row>
-    <row r="717" spans="1:22" ht="14.25" customHeight="1">
+    <row r="717" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="10"/>
       <c r="C717" s="2"/>
@@ -19224,7 +19232,7 @@
       <c r="U717" s="2"/>
       <c r="V717" s="2"/>
     </row>
-    <row r="718" spans="1:22" ht="14.25" customHeight="1">
+    <row r="718" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="10"/>
       <c r="C718" s="2"/>
@@ -19248,7 +19256,7 @@
       <c r="U718" s="2"/>
       <c r="V718" s="2"/>
     </row>
-    <row r="719" spans="1:22" ht="14.25" customHeight="1">
+    <row r="719" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="10"/>
       <c r="C719" s="2"/>
@@ -19272,7 +19280,7 @@
       <c r="U719" s="2"/>
       <c r="V719" s="2"/>
     </row>
-    <row r="720" spans="1:22" ht="14.25" customHeight="1">
+    <row r="720" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="10"/>
       <c r="C720" s="2"/>
@@ -19296,7 +19304,7 @@
       <c r="U720" s="2"/>
       <c r="V720" s="2"/>
     </row>
-    <row r="721" spans="1:22" ht="14.25" customHeight="1">
+    <row r="721" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="10"/>
       <c r="C721" s="2"/>
@@ -19320,7 +19328,7 @@
       <c r="U721" s="2"/>
       <c r="V721" s="2"/>
     </row>
-    <row r="722" spans="1:22" ht="14.25" customHeight="1">
+    <row r="722" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="10"/>
       <c r="C722" s="2"/>
@@ -19344,7 +19352,7 @@
       <c r="U722" s="2"/>
       <c r="V722" s="2"/>
     </row>
-    <row r="723" spans="1:22" ht="14.25" customHeight="1">
+    <row r="723" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="10"/>
       <c r="C723" s="2"/>
@@ -19368,7 +19376,7 @@
       <c r="U723" s="2"/>
       <c r="V723" s="2"/>
     </row>
-    <row r="724" spans="1:22" ht="14.25" customHeight="1">
+    <row r="724" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="10"/>
       <c r="C724" s="2"/>
@@ -19392,7 +19400,7 @@
       <c r="U724" s="2"/>
       <c r="V724" s="2"/>
     </row>
-    <row r="725" spans="1:22" ht="14.25" customHeight="1">
+    <row r="725" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="10"/>
       <c r="C725" s="2"/>
@@ -19416,7 +19424,7 @@
       <c r="U725" s="2"/>
       <c r="V725" s="2"/>
     </row>
-    <row r="726" spans="1:22" ht="14.25" customHeight="1">
+    <row r="726" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="10"/>
       <c r="C726" s="2"/>
@@ -19440,7 +19448,7 @@
       <c r="U726" s="2"/>
       <c r="V726" s="2"/>
     </row>
-    <row r="727" spans="1:22" ht="14.25" customHeight="1">
+    <row r="727" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="10"/>
       <c r="C727" s="2"/>
@@ -19464,7 +19472,7 @@
       <c r="U727" s="2"/>
       <c r="V727" s="2"/>
     </row>
-    <row r="728" spans="1:22" ht="14.25" customHeight="1">
+    <row r="728" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="10"/>
       <c r="C728" s="2"/>
@@ -19488,7 +19496,7 @@
       <c r="U728" s="2"/>
       <c r="V728" s="2"/>
     </row>
-    <row r="729" spans="1:22" ht="14.25" customHeight="1">
+    <row r="729" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="10"/>
       <c r="C729" s="2"/>
@@ -19512,7 +19520,7 @@
       <c r="U729" s="2"/>
       <c r="V729" s="2"/>
     </row>
-    <row r="730" spans="1:22" ht="14.25" customHeight="1">
+    <row r="730" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="10"/>
       <c r="C730" s="2"/>
@@ -19536,7 +19544,7 @@
       <c r="U730" s="2"/>
       <c r="V730" s="2"/>
     </row>
-    <row r="731" spans="1:22" ht="14.25" customHeight="1">
+    <row r="731" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="10"/>
       <c r="C731" s="2"/>
@@ -19560,7 +19568,7 @@
       <c r="U731" s="2"/>
       <c r="V731" s="2"/>
     </row>
-    <row r="732" spans="1:22" ht="14.25" customHeight="1">
+    <row r="732" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="10"/>
       <c r="C732" s="2"/>
@@ -19584,7 +19592,7 @@
       <c r="U732" s="2"/>
       <c r="V732" s="2"/>
     </row>
-    <row r="733" spans="1:22" ht="14.25" customHeight="1">
+    <row r="733" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="10"/>
       <c r="C733" s="2"/>
@@ -19608,7 +19616,7 @@
       <c r="U733" s="2"/>
       <c r="V733" s="2"/>
     </row>
-    <row r="734" spans="1:22" ht="14.25" customHeight="1">
+    <row r="734" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="10"/>
       <c r="C734" s="2"/>
@@ -19632,7 +19640,7 @@
       <c r="U734" s="2"/>
       <c r="V734" s="2"/>
     </row>
-    <row r="735" spans="1:22" ht="14.25" customHeight="1">
+    <row r="735" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="10"/>
       <c r="C735" s="2"/>
@@ -19656,7 +19664,7 @@
       <c r="U735" s="2"/>
       <c r="V735" s="2"/>
     </row>
-    <row r="736" spans="1:22" ht="14.25" customHeight="1">
+    <row r="736" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="10"/>
       <c r="C736" s="2"/>
@@ -19680,7 +19688,7 @@
       <c r="U736" s="2"/>
       <c r="V736" s="2"/>
     </row>
-    <row r="737" spans="1:22" ht="14.25" customHeight="1">
+    <row r="737" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="10"/>
       <c r="C737" s="2"/>
@@ -19704,7 +19712,7 @@
       <c r="U737" s="2"/>
       <c r="V737" s="2"/>
     </row>
-    <row r="738" spans="1:22" ht="14.25" customHeight="1">
+    <row r="738" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="10"/>
       <c r="C738" s="2"/>
@@ -19728,7 +19736,7 @@
       <c r="U738" s="2"/>
       <c r="V738" s="2"/>
     </row>
-    <row r="739" spans="1:22" ht="14.25" customHeight="1">
+    <row r="739" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="10"/>
       <c r="C739" s="2"/>
@@ -19752,7 +19760,7 @@
       <c r="U739" s="2"/>
       <c r="V739" s="2"/>
     </row>
-    <row r="740" spans="1:22" ht="14.25" customHeight="1">
+    <row r="740" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="10"/>
       <c r="C740" s="2"/>
@@ -19776,7 +19784,7 @@
       <c r="U740" s="2"/>
       <c r="V740" s="2"/>
     </row>
-    <row r="741" spans="1:22" ht="14.25" customHeight="1">
+    <row r="741" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="10"/>
       <c r="C741" s="2"/>
@@ -19800,7 +19808,7 @@
       <c r="U741" s="2"/>
       <c r="V741" s="2"/>
     </row>
-    <row r="742" spans="1:22" ht="14.25" customHeight="1">
+    <row r="742" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="10"/>
       <c r="C742" s="2"/>
@@ -19824,7 +19832,7 @@
       <c r="U742" s="2"/>
       <c r="V742" s="2"/>
     </row>
-    <row r="743" spans="1:22" ht="14.25" customHeight="1">
+    <row r="743" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="10"/>
       <c r="C743" s="2"/>
@@ -19848,7 +19856,7 @@
       <c r="U743" s="2"/>
       <c r="V743" s="2"/>
     </row>
-    <row r="744" spans="1:22" ht="14.25" customHeight="1">
+    <row r="744" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="10"/>
       <c r="C744" s="2"/>
@@ -19872,7 +19880,7 @@
       <c r="U744" s="2"/>
       <c r="V744" s="2"/>
     </row>
-    <row r="745" spans="1:22" ht="14.25" customHeight="1">
+    <row r="745" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="10"/>
       <c r="C745" s="2"/>
@@ -19896,7 +19904,7 @@
       <c r="U745" s="2"/>
       <c r="V745" s="2"/>
     </row>
-    <row r="746" spans="1:22" ht="14.25" customHeight="1">
+    <row r="746" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="10"/>
       <c r="C746" s="2"/>
@@ -19920,7 +19928,7 @@
       <c r="U746" s="2"/>
       <c r="V746" s="2"/>
     </row>
-    <row r="747" spans="1:22" ht="14.25" customHeight="1">
+    <row r="747" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="10"/>
       <c r="C747" s="2"/>
@@ -19944,7 +19952,7 @@
       <c r="U747" s="2"/>
       <c r="V747" s="2"/>
     </row>
-    <row r="748" spans="1:22" ht="14.25" customHeight="1">
+    <row r="748" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="10"/>
       <c r="C748" s="2"/>
@@ -19968,7 +19976,7 @@
       <c r="U748" s="2"/>
       <c r="V748" s="2"/>
     </row>
-    <row r="749" spans="1:22" ht="14.25" customHeight="1">
+    <row r="749" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="10"/>
       <c r="C749" s="2"/>
@@ -19992,7 +20000,7 @@
       <c r="U749" s="2"/>
       <c r="V749" s="2"/>
     </row>
-    <row r="750" spans="1:22" ht="14.25" customHeight="1">
+    <row r="750" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="10"/>
       <c r="C750" s="2"/>
@@ -20016,7 +20024,7 @@
       <c r="U750" s="2"/>
       <c r="V750" s="2"/>
     </row>
-    <row r="751" spans="1:22" ht="14.25" customHeight="1">
+    <row r="751" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="10"/>
       <c r="C751" s="2"/>
@@ -20040,7 +20048,7 @@
       <c r="U751" s="2"/>
       <c r="V751" s="2"/>
     </row>
-    <row r="752" spans="1:22" ht="14.25" customHeight="1">
+    <row r="752" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="10"/>
       <c r="C752" s="2"/>
@@ -20064,7 +20072,7 @@
       <c r="U752" s="2"/>
       <c r="V752" s="2"/>
     </row>
-    <row r="753" spans="1:22" ht="14.25" customHeight="1">
+    <row r="753" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="10"/>
       <c r="C753" s="2"/>
@@ -20088,7 +20096,7 @@
       <c r="U753" s="2"/>
       <c r="V753" s="2"/>
     </row>
-    <row r="754" spans="1:22" ht="14.25" customHeight="1">
+    <row r="754" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="10"/>
       <c r="C754" s="2"/>
@@ -20112,7 +20120,7 @@
       <c r="U754" s="2"/>
       <c r="V754" s="2"/>
     </row>
-    <row r="755" spans="1:22" ht="14.25" customHeight="1">
+    <row r="755" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="10"/>
       <c r="C755" s="2"/>
@@ -20136,7 +20144,7 @@
       <c r="U755" s="2"/>
       <c r="V755" s="2"/>
     </row>
-    <row r="756" spans="1:22" ht="14.25" customHeight="1">
+    <row r="756" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="10"/>
       <c r="C756" s="2"/>
@@ -20160,7 +20168,7 @@
       <c r="U756" s="2"/>
       <c r="V756" s="2"/>
     </row>
-    <row r="757" spans="1:22" ht="14.25" customHeight="1">
+    <row r="757" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="10"/>
       <c r="C757" s="2"/>
@@ -20184,7 +20192,7 @@
       <c r="U757" s="2"/>
       <c r="V757" s="2"/>
     </row>
-    <row r="758" spans="1:22" ht="14.25" customHeight="1">
+    <row r="758" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="10"/>
       <c r="C758" s="2"/>
@@ -20208,7 +20216,7 @@
       <c r="U758" s="2"/>
       <c r="V758" s="2"/>
     </row>
-    <row r="759" spans="1:22" ht="14.25" customHeight="1">
+    <row r="759" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="10"/>
       <c r="C759" s="2"/>
@@ -20232,7 +20240,7 @@
       <c r="U759" s="2"/>
       <c r="V759" s="2"/>
     </row>
-    <row r="760" spans="1:22" ht="14.25" customHeight="1">
+    <row r="760" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="10"/>
       <c r="C760" s="2"/>
@@ -20256,7 +20264,7 @@
       <c r="U760" s="2"/>
       <c r="V760" s="2"/>
     </row>
-    <row r="761" spans="1:22" ht="14.25" customHeight="1">
+    <row r="761" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="10"/>
       <c r="C761" s="2"/>
@@ -20280,7 +20288,7 @@
       <c r="U761" s="2"/>
       <c r="V761" s="2"/>
     </row>
-    <row r="762" spans="1:22" ht="14.25" customHeight="1">
+    <row r="762" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="10"/>
       <c r="C762" s="2"/>
@@ -20304,7 +20312,7 @@
       <c r="U762" s="2"/>
       <c r="V762" s="2"/>
     </row>
-    <row r="763" spans="1:22" ht="14.25" customHeight="1">
+    <row r="763" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="10"/>
       <c r="C763" s="2"/>
@@ -20328,7 +20336,7 @@
       <c r="U763" s="2"/>
       <c r="V763" s="2"/>
     </row>
-    <row r="764" spans="1:22" ht="14.25" customHeight="1">
+    <row r="764" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="10"/>
       <c r="C764" s="2"/>
@@ -20352,7 +20360,7 @@
       <c r="U764" s="2"/>
       <c r="V764" s="2"/>
     </row>
-    <row r="765" spans="1:22" ht="14.25" customHeight="1">
+    <row r="765" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="10"/>
       <c r="C765" s="2"/>
@@ -20376,7 +20384,7 @@
       <c r="U765" s="2"/>
       <c r="V765" s="2"/>
     </row>
-    <row r="766" spans="1:22" ht="14.25" customHeight="1">
+    <row r="766" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="10"/>
       <c r="C766" s="2"/>
@@ -20400,7 +20408,7 @@
       <c r="U766" s="2"/>
       <c r="V766" s="2"/>
     </row>
-    <row r="767" spans="1:22" ht="14.25" customHeight="1">
+    <row r="767" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="10"/>
       <c r="C767" s="2"/>
@@ -20424,7 +20432,7 @@
       <c r="U767" s="2"/>
       <c r="V767" s="2"/>
     </row>
-    <row r="768" spans="1:22" ht="14.25" customHeight="1">
+    <row r="768" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="10"/>
       <c r="C768" s="2"/>
@@ -20448,7 +20456,7 @@
       <c r="U768" s="2"/>
       <c r="V768" s="2"/>
     </row>
-    <row r="769" spans="1:22" ht="14.25" customHeight="1">
+    <row r="769" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="10"/>
       <c r="C769" s="2"/>
@@ -20472,7 +20480,7 @@
       <c r="U769" s="2"/>
       <c r="V769" s="2"/>
     </row>
-    <row r="770" spans="1:22" ht="14.25" customHeight="1">
+    <row r="770" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="10"/>
       <c r="C770" s="2"/>
@@ -20496,7 +20504,7 @@
       <c r="U770" s="2"/>
       <c r="V770" s="2"/>
     </row>
-    <row r="771" spans="1:22" ht="14.25" customHeight="1">
+    <row r="771" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="10"/>
       <c r="C771" s="2"/>
@@ -20520,7 +20528,7 @@
       <c r="U771" s="2"/>
       <c r="V771" s="2"/>
     </row>
-    <row r="772" spans="1:22" ht="14.25" customHeight="1">
+    <row r="772" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="10"/>
       <c r="C772" s="2"/>
@@ -20544,7 +20552,7 @@
       <c r="U772" s="2"/>
       <c r="V772" s="2"/>
     </row>
-    <row r="773" spans="1:22" ht="14.25" customHeight="1">
+    <row r="773" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="10"/>
       <c r="C773" s="2"/>
@@ -20568,7 +20576,7 @@
       <c r="U773" s="2"/>
       <c r="V773" s="2"/>
     </row>
-    <row r="774" spans="1:22" ht="14.25" customHeight="1">
+    <row r="774" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="10"/>
       <c r="C774" s="2"/>
@@ -20592,7 +20600,7 @@
       <c r="U774" s="2"/>
       <c r="V774" s="2"/>
     </row>
-    <row r="775" spans="1:22" ht="14.25" customHeight="1">
+    <row r="775" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="10"/>
       <c r="C775" s="2"/>
@@ -20616,7 +20624,7 @@
       <c r="U775" s="2"/>
       <c r="V775" s="2"/>
     </row>
-    <row r="776" spans="1:22" ht="14.25" customHeight="1">
+    <row r="776" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="10"/>
       <c r="C776" s="2"/>
@@ -20640,7 +20648,7 @@
       <c r="U776" s="2"/>
       <c r="V776" s="2"/>
     </row>
-    <row r="777" spans="1:22" ht="14.25" customHeight="1">
+    <row r="777" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="10"/>
       <c r="C777" s="2"/>
@@ -20664,7 +20672,7 @@
       <c r="U777" s="2"/>
       <c r="V777" s="2"/>
     </row>
-    <row r="778" spans="1:22" ht="14.25" customHeight="1">
+    <row r="778" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="10"/>
       <c r="C778" s="2"/>
@@ -20688,7 +20696,7 @@
       <c r="U778" s="2"/>
       <c r="V778" s="2"/>
     </row>
-    <row r="779" spans="1:22" ht="14.25" customHeight="1">
+    <row r="779" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="10"/>
       <c r="C779" s="2"/>
@@ -20712,7 +20720,7 @@
       <c r="U779" s="2"/>
       <c r="V779" s="2"/>
     </row>
-    <row r="780" spans="1:22" ht="14.25" customHeight="1">
+    <row r="780" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="10"/>
       <c r="C780" s="2"/>
@@ -20736,7 +20744,7 @@
       <c r="U780" s="2"/>
       <c r="V780" s="2"/>
     </row>
-    <row r="781" spans="1:22" ht="14.25" customHeight="1">
+    <row r="781" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="10"/>
       <c r="C781" s="2"/>
@@ -20760,7 +20768,7 @@
       <c r="U781" s="2"/>
       <c r="V781" s="2"/>
     </row>
-    <row r="782" spans="1:22" ht="14.25" customHeight="1">
+    <row r="782" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="10"/>
       <c r="C782" s="2"/>
@@ -20784,7 +20792,7 @@
       <c r="U782" s="2"/>
       <c r="V782" s="2"/>
     </row>
-    <row r="783" spans="1:22" ht="14.25" customHeight="1">
+    <row r="783" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="10"/>
       <c r="C783" s="2"/>
@@ -20808,7 +20816,7 @@
       <c r="U783" s="2"/>
       <c r="V783" s="2"/>
     </row>
-    <row r="784" spans="1:22" ht="14.25" customHeight="1">
+    <row r="784" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="10"/>
       <c r="C784" s="2"/>
@@ -20832,7 +20840,7 @@
       <c r="U784" s="2"/>
       <c r="V784" s="2"/>
     </row>
-    <row r="785" spans="1:22" ht="14.25" customHeight="1">
+    <row r="785" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="10"/>
       <c r="C785" s="2"/>
@@ -20856,7 +20864,7 @@
       <c r="U785" s="2"/>
       <c r="V785" s="2"/>
     </row>
-    <row r="786" spans="1:22" ht="14.25" customHeight="1">
+    <row r="786" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="10"/>
       <c r="C786" s="2"/>
@@ -20880,7 +20888,7 @@
       <c r="U786" s="2"/>
       <c r="V786" s="2"/>
     </row>
-    <row r="787" spans="1:22" ht="14.25" customHeight="1">
+    <row r="787" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="10"/>
       <c r="C787" s="2"/>
@@ -20904,7 +20912,7 @@
       <c r="U787" s="2"/>
       <c r="V787" s="2"/>
     </row>
-    <row r="788" spans="1:22" ht="14.25" customHeight="1">
+    <row r="788" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="10"/>
       <c r="C788" s="2"/>
@@ -20928,7 +20936,7 @@
       <c r="U788" s="2"/>
       <c r="V788" s="2"/>
     </row>
-    <row r="789" spans="1:22" ht="14.25" customHeight="1">
+    <row r="789" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="10"/>
       <c r="C789" s="2"/>
@@ -20952,7 +20960,7 @@
       <c r="U789" s="2"/>
       <c r="V789" s="2"/>
     </row>
-    <row r="790" spans="1:22" ht="14.25" customHeight="1">
+    <row r="790" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="10"/>
       <c r="C790" s="2"/>
@@ -20976,7 +20984,7 @@
       <c r="U790" s="2"/>
       <c r="V790" s="2"/>
     </row>
-    <row r="791" spans="1:22" ht="14.25" customHeight="1">
+    <row r="791" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="10"/>
       <c r="C791" s="2"/>
@@ -21000,7 +21008,7 @@
       <c r="U791" s="2"/>
       <c r="V791" s="2"/>
     </row>
-    <row r="792" spans="1:22" ht="14.25" customHeight="1">
+    <row r="792" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="10"/>
       <c r="C792" s="2"/>
@@ -21024,7 +21032,7 @@
       <c r="U792" s="2"/>
       <c r="V792" s="2"/>
     </row>
-    <row r="793" spans="1:22" ht="14.25" customHeight="1">
+    <row r="793" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="10"/>
       <c r="C793" s="2"/>
@@ -21048,7 +21056,7 @@
       <c r="U793" s="2"/>
       <c r="V793" s="2"/>
     </row>
-    <row r="794" spans="1:22" ht="14.25" customHeight="1">
+    <row r="794" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="10"/>
       <c r="C794" s="2"/>
@@ -21072,7 +21080,7 @@
       <c r="U794" s="2"/>
       <c r="V794" s="2"/>
     </row>
-    <row r="795" spans="1:22" ht="14.25" customHeight="1">
+    <row r="795" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="10"/>
       <c r="C795" s="2"/>
@@ -21096,7 +21104,7 @@
       <c r="U795" s="2"/>
       <c r="V795" s="2"/>
     </row>
-    <row r="796" spans="1:22" ht="14.25" customHeight="1">
+    <row r="796" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="10"/>
       <c r="C796" s="2"/>
@@ -21120,7 +21128,7 @@
       <c r="U796" s="2"/>
       <c r="V796" s="2"/>
     </row>
-    <row r="797" spans="1:22" ht="14.25" customHeight="1">
+    <row r="797" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="10"/>
       <c r="C797" s="2"/>
@@ -21144,7 +21152,7 @@
       <c r="U797" s="2"/>
       <c r="V797" s="2"/>
     </row>
-    <row r="798" spans="1:22" ht="14.25" customHeight="1">
+    <row r="798" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="10"/>
       <c r="C798" s="2"/>
@@ -21168,7 +21176,7 @@
       <c r="U798" s="2"/>
       <c r="V798" s="2"/>
     </row>
-    <row r="799" spans="1:22" ht="14.25" customHeight="1">
+    <row r="799" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="10"/>
       <c r="C799" s="2"/>
@@ -21192,7 +21200,7 @@
       <c r="U799" s="2"/>
       <c r="V799" s="2"/>
     </row>
-    <row r="800" spans="1:22" ht="14.25" customHeight="1">
+    <row r="800" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="10"/>
       <c r="C800" s="2"/>
@@ -21216,7 +21224,7 @@
       <c r="U800" s="2"/>
       <c r="V800" s="2"/>
     </row>
-    <row r="801" spans="1:22" ht="14.25" customHeight="1">
+    <row r="801" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="10"/>
       <c r="C801" s="2"/>
@@ -21240,7 +21248,7 @@
       <c r="U801" s="2"/>
       <c r="V801" s="2"/>
     </row>
-    <row r="802" spans="1:22" ht="14.25" customHeight="1">
+    <row r="802" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="10"/>
       <c r="C802" s="2"/>
@@ -21264,7 +21272,7 @@
       <c r="U802" s="2"/>
       <c r="V802" s="2"/>
     </row>
-    <row r="803" spans="1:22" ht="14.25" customHeight="1">
+    <row r="803" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="10"/>
       <c r="C803" s="2"/>
@@ -21288,7 +21296,7 @@
       <c r="U803" s="2"/>
       <c r="V803" s="2"/>
     </row>
-    <row r="804" spans="1:22" ht="14.25" customHeight="1">
+    <row r="804" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="10"/>
       <c r="C804" s="2"/>
@@ -21312,7 +21320,7 @@
       <c r="U804" s="2"/>
       <c r="V804" s="2"/>
     </row>
-    <row r="805" spans="1:22" ht="14.25" customHeight="1">
+    <row r="805" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="10"/>
       <c r="C805" s="2"/>
@@ -21336,7 +21344,7 @@
       <c r="U805" s="2"/>
       <c r="V805" s="2"/>
     </row>
-    <row r="806" spans="1:22" ht="14.25" customHeight="1">
+    <row r="806" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="10"/>
       <c r="C806" s="2"/>
@@ -21360,7 +21368,7 @@
       <c r="U806" s="2"/>
       <c r="V806" s="2"/>
     </row>
-    <row r="807" spans="1:22" ht="14.25" customHeight="1">
+    <row r="807" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="10"/>
       <c r="C807" s="2"/>
@@ -21384,7 +21392,7 @@
       <c r="U807" s="2"/>
       <c r="V807" s="2"/>
     </row>
-    <row r="808" spans="1:22" ht="14.25" customHeight="1">
+    <row r="808" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="10"/>
       <c r="C808" s="2"/>
@@ -21408,7 +21416,7 @@
       <c r="U808" s="2"/>
       <c r="V808" s="2"/>
     </row>
-    <row r="809" spans="1:22" ht="14.25" customHeight="1">
+    <row r="809" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="10"/>
       <c r="C809" s="2"/>
@@ -21432,7 +21440,7 @@
       <c r="U809" s="2"/>
       <c r="V809" s="2"/>
     </row>
-    <row r="810" spans="1:22" ht="14.25" customHeight="1">
+    <row r="810" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="10"/>
       <c r="C810" s="2"/>
@@ -21456,7 +21464,7 @@
       <c r="U810" s="2"/>
       <c r="V810" s="2"/>
     </row>
-    <row r="811" spans="1:22" ht="14.25" customHeight="1">
+    <row r="811" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="10"/>
       <c r="C811" s="2"/>
@@ -21480,7 +21488,7 @@
       <c r="U811" s="2"/>
       <c r="V811" s="2"/>
     </row>
-    <row r="812" spans="1:22" ht="14.25" customHeight="1">
+    <row r="812" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="10"/>
       <c r="C812" s="2"/>
@@ -21504,7 +21512,7 @@
       <c r="U812" s="2"/>
       <c r="V812" s="2"/>
     </row>
-    <row r="813" spans="1:22" ht="14.25" customHeight="1">
+    <row r="813" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="10"/>
       <c r="C813" s="2"/>
@@ -21528,7 +21536,7 @@
       <c r="U813" s="2"/>
       <c r="V813" s="2"/>
     </row>
-    <row r="814" spans="1:22" ht="14.25" customHeight="1">
+    <row r="814" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="10"/>
       <c r="C814" s="2"/>
@@ -21552,7 +21560,7 @@
       <c r="U814" s="2"/>
       <c r="V814" s="2"/>
     </row>
-    <row r="815" spans="1:22" ht="14.25" customHeight="1">
+    <row r="815" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="10"/>
       <c r="C815" s="2"/>
@@ -21576,7 +21584,7 @@
       <c r="U815" s="2"/>
       <c r="V815" s="2"/>
     </row>
-    <row r="816" spans="1:22" ht="14.25" customHeight="1">
+    <row r="816" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="10"/>
       <c r="C816" s="2"/>
@@ -21600,7 +21608,7 @@
       <c r="U816" s="2"/>
       <c r="V816" s="2"/>
     </row>
-    <row r="817" spans="1:22" ht="14.25" customHeight="1">
+    <row r="817" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="10"/>
       <c r="C817" s="2"/>
@@ -21624,7 +21632,7 @@
       <c r="U817" s="2"/>
       <c r="V817" s="2"/>
     </row>
-    <row r="818" spans="1:22" ht="14.25" customHeight="1">
+    <row r="818" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="10"/>
       <c r="C818" s="2"/>
@@ -21648,7 +21656,7 @@
       <c r="U818" s="2"/>
       <c r="V818" s="2"/>
     </row>
-    <row r="819" spans="1:22" ht="14.25" customHeight="1">
+    <row r="819" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="10"/>
       <c r="C819" s="2"/>
@@ -21672,7 +21680,7 @@
       <c r="U819" s="2"/>
       <c r="V819" s="2"/>
     </row>
-    <row r="820" spans="1:22" ht="14.25" customHeight="1">
+    <row r="820" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="10"/>
       <c r="C820" s="2"/>
@@ -21696,7 +21704,7 @@
       <c r="U820" s="2"/>
       <c r="V820" s="2"/>
     </row>
-    <row r="821" spans="1:22" ht="14.25" customHeight="1">
+    <row r="821" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="10"/>
       <c r="C821" s="2"/>
@@ -21720,7 +21728,7 @@
       <c r="U821" s="2"/>
       <c r="V821" s="2"/>
     </row>
-    <row r="822" spans="1:22" ht="14.25" customHeight="1">
+    <row r="822" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="10"/>
       <c r="C822" s="2"/>
@@ -21744,7 +21752,7 @@
       <c r="U822" s="2"/>
       <c r="V822" s="2"/>
     </row>
-    <row r="823" spans="1:22" ht="14.25" customHeight="1">
+    <row r="823" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="10"/>
       <c r="C823" s="2"/>
@@ -21768,7 +21776,7 @@
       <c r="U823" s="2"/>
       <c r="V823" s="2"/>
     </row>
-    <row r="824" spans="1:22" ht="14.25" customHeight="1">
+    <row r="824" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="10"/>
       <c r="C824" s="2"/>
@@ -21792,7 +21800,7 @@
       <c r="U824" s="2"/>
       <c r="V824" s="2"/>
     </row>
-    <row r="825" spans="1:22" ht="14.25" customHeight="1">
+    <row r="825" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="10"/>
       <c r="C825" s="2"/>
@@ -21816,7 +21824,7 @@
       <c r="U825" s="2"/>
       <c r="V825" s="2"/>
     </row>
-    <row r="826" spans="1:22" ht="14.25" customHeight="1">
+    <row r="826" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="10"/>
       <c r="C826" s="2"/>
@@ -21840,7 +21848,7 @@
       <c r="U826" s="2"/>
       <c r="V826" s="2"/>
     </row>
-    <row r="827" spans="1:22" ht="14.25" customHeight="1">
+    <row r="827" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="10"/>
       <c r="C827" s="2"/>
@@ -21864,7 +21872,7 @@
       <c r="U827" s="2"/>
       <c r="V827" s="2"/>
     </row>
-    <row r="828" spans="1:22" ht="14.25" customHeight="1">
+    <row r="828" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="10"/>
       <c r="C828" s="2"/>
@@ -21888,7 +21896,7 @@
       <c r="U828" s="2"/>
       <c r="V828" s="2"/>
     </row>
-    <row r="829" spans="1:22" ht="14.25" customHeight="1">
+    <row r="829" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="10"/>
       <c r="C829" s="2"/>
@@ -21912,7 +21920,7 @@
       <c r="U829" s="2"/>
       <c r="V829" s="2"/>
     </row>
-    <row r="830" spans="1:22" ht="14.25" customHeight="1">
+    <row r="830" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="10"/>
       <c r="C830" s="2"/>
@@ -21936,7 +21944,7 @@
       <c r="U830" s="2"/>
       <c r="V830" s="2"/>
     </row>
-    <row r="831" spans="1:22" ht="14.25" customHeight="1">
+    <row r="831" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="10"/>
       <c r="C831" s="2"/>
@@ -21960,7 +21968,7 @@
       <c r="U831" s="2"/>
       <c r="V831" s="2"/>
     </row>
-    <row r="832" spans="1:22" ht="14.25" customHeight="1">
+    <row r="832" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="10"/>
       <c r="C832" s="2"/>
@@ -21984,7 +21992,7 @@
       <c r="U832" s="2"/>
       <c r="V832" s="2"/>
     </row>
-    <row r="833" spans="1:22" ht="14.25" customHeight="1">
+    <row r="833" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="10"/>
       <c r="C833" s="2"/>
@@ -22008,7 +22016,7 @@
       <c r="U833" s="2"/>
       <c r="V833" s="2"/>
     </row>
-    <row r="834" spans="1:22" ht="14.25" customHeight="1">
+    <row r="834" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="10"/>
       <c r="C834" s="2"/>
@@ -22032,7 +22040,7 @@
       <c r="U834" s="2"/>
       <c r="V834" s="2"/>
     </row>
-    <row r="835" spans="1:22" ht="14.25" customHeight="1">
+    <row r="835" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="10"/>
       <c r="C835" s="2"/>
@@ -22056,7 +22064,7 @@
       <c r="U835" s="2"/>
       <c r="V835" s="2"/>
     </row>
-    <row r="836" spans="1:22" ht="14.25" customHeight="1">
+    <row r="836" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="10"/>
       <c r="C836" s="2"/>
@@ -22080,7 +22088,7 @@
       <c r="U836" s="2"/>
       <c r="V836" s="2"/>
     </row>
-    <row r="837" spans="1:22" ht="14.25" customHeight="1">
+    <row r="837" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="10"/>
       <c r="C837" s="2"/>
@@ -22104,7 +22112,7 @@
       <c r="U837" s="2"/>
       <c r="V837" s="2"/>
     </row>
-    <row r="838" spans="1:22" ht="14.25" customHeight="1">
+    <row r="838" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="10"/>
       <c r="C838" s="2"/>
@@ -22128,7 +22136,7 @@
       <c r="U838" s="2"/>
       <c r="V838" s="2"/>
     </row>
-    <row r="839" spans="1:22" ht="14.25" customHeight="1">
+    <row r="839" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="10"/>
       <c r="C839" s="2"/>
@@ -22152,7 +22160,7 @@
       <c r="U839" s="2"/>
       <c r="V839" s="2"/>
     </row>
-    <row r="840" spans="1:22" ht="14.25" customHeight="1">
+    <row r="840" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="10"/>
       <c r="C840" s="2"/>
@@ -22176,7 +22184,7 @@
       <c r="U840" s="2"/>
       <c r="V840" s="2"/>
     </row>
-    <row r="841" spans="1:22" ht="14.25" customHeight="1">
+    <row r="841" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="10"/>
       <c r="C841" s="2"/>
@@ -22200,7 +22208,7 @@
       <c r="U841" s="2"/>
       <c r="V841" s="2"/>
     </row>
-    <row r="842" spans="1:22" ht="14.25" customHeight="1">
+    <row r="842" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="10"/>
       <c r="C842" s="2"/>
@@ -22224,7 +22232,7 @@
       <c r="U842" s="2"/>
       <c r="V842" s="2"/>
     </row>
-    <row r="843" spans="1:22" ht="14.25" customHeight="1">
+    <row r="843" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="10"/>
       <c r="C843" s="2"/>
@@ -22248,7 +22256,7 @@
       <c r="U843" s="2"/>
       <c r="V843" s="2"/>
     </row>
-    <row r="844" spans="1:22" ht="14.25" customHeight="1">
+    <row r="844" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="10"/>
       <c r="C844" s="2"/>
@@ -22272,7 +22280,7 @@
       <c r="U844" s="2"/>
       <c r="V844" s="2"/>
     </row>
-    <row r="845" spans="1:22" ht="14.25" customHeight="1">
+    <row r="845" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="10"/>
       <c r="C845" s="2"/>
@@ -22296,7 +22304,7 @@
       <c r="U845" s="2"/>
       <c r="V845" s="2"/>
     </row>
-    <row r="846" spans="1:22" ht="14.25" customHeight="1">
+    <row r="846" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="10"/>
       <c r="C846" s="2"/>
@@ -22320,7 +22328,7 @@
       <c r="U846" s="2"/>
       <c r="V846" s="2"/>
     </row>
-    <row r="847" spans="1:22" ht="14.25" customHeight="1">
+    <row r="847" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="10"/>
       <c r="C847" s="2"/>
@@ -22344,7 +22352,7 @@
       <c r="U847" s="2"/>
       <c r="V847" s="2"/>
     </row>
-    <row r="848" spans="1:22" ht="14.25" customHeight="1">
+    <row r="848" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="10"/>
       <c r="C848" s="2"/>
@@ -22368,7 +22376,7 @@
       <c r="U848" s="2"/>
       <c r="V848" s="2"/>
     </row>
-    <row r="849" spans="1:22" ht="14.25" customHeight="1">
+    <row r="849" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="10"/>
       <c r="C849" s="2"/>
@@ -22392,7 +22400,7 @@
       <c r="U849" s="2"/>
       <c r="V849" s="2"/>
     </row>
-    <row r="850" spans="1:22" ht="14.25" customHeight="1">
+    <row r="850" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="10"/>
       <c r="C850" s="2"/>
@@ -22416,7 +22424,7 @@
       <c r="U850" s="2"/>
       <c r="V850" s="2"/>
     </row>
-    <row r="851" spans="1:22" ht="14.25" customHeight="1">
+    <row r="851" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="10"/>
       <c r="C851" s="2"/>
@@ -22440,7 +22448,7 @@
       <c r="U851" s="2"/>
       <c r="V851" s="2"/>
     </row>
-    <row r="852" spans="1:22" ht="14.25" customHeight="1">
+    <row r="852" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="10"/>
       <c r="C852" s="2"/>
@@ -22464,7 +22472,7 @@
       <c r="U852" s="2"/>
       <c r="V852" s="2"/>
     </row>
-    <row r="853" spans="1:22" ht="14.25" customHeight="1">
+    <row r="853" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="10"/>
       <c r="C853" s="2"/>
@@ -22488,7 +22496,7 @@
       <c r="U853" s="2"/>
       <c r="V853" s="2"/>
     </row>
-    <row r="854" spans="1:22" ht="14.25" customHeight="1">
+    <row r="854" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="10"/>
       <c r="C854" s="2"/>
@@ -22512,7 +22520,7 @@
       <c r="U854" s="2"/>
       <c r="V854" s="2"/>
     </row>
-    <row r="855" spans="1:22" ht="14.25" customHeight="1">
+    <row r="855" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="10"/>
       <c r="C855" s="2"/>
@@ -22536,7 +22544,7 @@
       <c r="U855" s="2"/>
       <c r="V855" s="2"/>
     </row>
-    <row r="856" spans="1:22" ht="14.25" customHeight="1">
+    <row r="856" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="10"/>
       <c r="C856" s="2"/>
@@ -22560,7 +22568,7 @@
       <c r="U856" s="2"/>
       <c r="V856" s="2"/>
     </row>
-    <row r="857" spans="1:22" ht="14.25" customHeight="1">
+    <row r="857" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="10"/>
       <c r="C857" s="2"/>
@@ -22584,7 +22592,7 @@
       <c r="U857" s="2"/>
       <c r="V857" s="2"/>
     </row>
-    <row r="858" spans="1:22" ht="14.25" customHeight="1">
+    <row r="858" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="10"/>
       <c r="C858" s="2"/>
@@ -22608,7 +22616,7 @@
       <c r="U858" s="2"/>
       <c r="V858" s="2"/>
     </row>
-    <row r="859" spans="1:22" ht="14.25" customHeight="1">
+    <row r="859" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="10"/>
       <c r="C859" s="2"/>
@@ -22632,7 +22640,7 @@
       <c r="U859" s="2"/>
       <c r="V859" s="2"/>
     </row>
-    <row r="860" spans="1:22" ht="14.25" customHeight="1">
+    <row r="860" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="10"/>
       <c r="C860" s="2"/>
@@ -22656,7 +22664,7 @@
       <c r="U860" s="2"/>
       <c r="V860" s="2"/>
     </row>
-    <row r="861" spans="1:22" ht="14.25" customHeight="1">
+    <row r="861" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="10"/>
       <c r="C861" s="2"/>
@@ -22680,7 +22688,7 @@
       <c r="U861" s="2"/>
       <c r="V861" s="2"/>
     </row>
-    <row r="862" spans="1:22" ht="14.25" customHeight="1">
+    <row r="862" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="10"/>
       <c r="C862" s="2"/>
@@ -22704,7 +22712,7 @@
       <c r="U862" s="2"/>
       <c r="V862" s="2"/>
     </row>
-    <row r="863" spans="1:22" ht="14.25" customHeight="1">
+    <row r="863" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="10"/>
       <c r="C863" s="2"/>
@@ -22728,7 +22736,7 @@
       <c r="U863" s="2"/>
       <c r="V863" s="2"/>
     </row>
-    <row r="864" spans="1:22" ht="14.25" customHeight="1">
+    <row r="864" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="10"/>
       <c r="C864" s="2"/>
@@ -22752,7 +22760,7 @@
       <c r="U864" s="2"/>
       <c r="V864" s="2"/>
     </row>
-    <row r="865" spans="1:22" ht="14.25" customHeight="1">
+    <row r="865" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="10"/>
       <c r="C865" s="2"/>
@@ -22776,7 +22784,7 @@
       <c r="U865" s="2"/>
       <c r="V865" s="2"/>
     </row>
-    <row r="866" spans="1:22" ht="14.25" customHeight="1">
+    <row r="866" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="10"/>
       <c r="C866" s="2"/>
@@ -22800,7 +22808,7 @@
       <c r="U866" s="2"/>
       <c r="V866" s="2"/>
     </row>
-    <row r="867" spans="1:22" ht="14.25" customHeight="1">
+    <row r="867" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="10"/>
       <c r="C867" s="2"/>
@@ -22824,7 +22832,7 @@
       <c r="U867" s="2"/>
       <c r="V867" s="2"/>
     </row>
-    <row r="868" spans="1:22" ht="14.25" customHeight="1">
+    <row r="868" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="10"/>
       <c r="C868" s="2"/>
@@ -22848,7 +22856,7 @@
       <c r="U868" s="2"/>
       <c r="V868" s="2"/>
     </row>
-    <row r="869" spans="1:22" ht="14.25" customHeight="1">
+    <row r="869" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="10"/>
       <c r="C869" s="2"/>
@@ -22872,7 +22880,7 @@
       <c r="U869" s="2"/>
       <c r="V869" s="2"/>
     </row>
-    <row r="870" spans="1:22" ht="14.25" customHeight="1">
+    <row r="870" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="10"/>
       <c r="C870" s="2"/>
@@ -22896,7 +22904,7 @@
       <c r="U870" s="2"/>
       <c r="V870" s="2"/>
     </row>
-    <row r="871" spans="1:22" ht="14.25" customHeight="1">
+    <row r="871" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="10"/>
       <c r="C871" s="2"/>
@@ -22920,7 +22928,7 @@
       <c r="U871" s="2"/>
       <c r="V871" s="2"/>
     </row>
-    <row r="872" spans="1:22" ht="14.25" customHeight="1">
+    <row r="872" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="10"/>
       <c r="C872" s="2"/>
@@ -22944,7 +22952,7 @@
       <c r="U872" s="2"/>
       <c r="V872" s="2"/>
     </row>
-    <row r="873" spans="1:22" ht="14.25" customHeight="1">
+    <row r="873" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="10"/>
       <c r="C873" s="2"/>
@@ -22968,7 +22976,7 @@
       <c r="U873" s="2"/>
       <c r="V873" s="2"/>
     </row>
-    <row r="874" spans="1:22" ht="14.25" customHeight="1">
+    <row r="874" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="10"/>
       <c r="C874" s="2"/>
@@ -22992,7 +23000,7 @@
       <c r="U874" s="2"/>
       <c r="V874" s="2"/>
     </row>
-    <row r="875" spans="1:22" ht="14.25" customHeight="1">
+    <row r="875" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="10"/>
       <c r="C875" s="2"/>
@@ -23016,7 +23024,7 @@
       <c r="U875" s="2"/>
       <c r="V875" s="2"/>
     </row>
-    <row r="876" spans="1:22" ht="14.25" customHeight="1">
+    <row r="876" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="10"/>
       <c r="C876" s="2"/>
@@ -23040,7 +23048,7 @@
       <c r="U876" s="2"/>
       <c r="V876" s="2"/>
     </row>
-    <row r="877" spans="1:22" ht="14.25" customHeight="1">
+    <row r="877" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="10"/>
       <c r="C877" s="2"/>
@@ -23064,7 +23072,7 @@
       <c r="U877" s="2"/>
       <c r="V877" s="2"/>
     </row>
-    <row r="878" spans="1:22" ht="14.25" customHeight="1">
+    <row r="878" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="10"/>
       <c r="C878" s="2"/>
@@ -23088,7 +23096,7 @@
       <c r="U878" s="2"/>
       <c r="V878" s="2"/>
     </row>
-    <row r="879" spans="1:22" ht="14.25" customHeight="1">
+    <row r="879" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="10"/>
       <c r="C879" s="2"/>
@@ -23112,7 +23120,7 @@
       <c r="U879" s="2"/>
       <c r="V879" s="2"/>
     </row>
-    <row r="880" spans="1:22" ht="14.25" customHeight="1">
+    <row r="880" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="10"/>
       <c r="C880" s="2"/>
@@ -23136,7 +23144,7 @@
       <c r="U880" s="2"/>
       <c r="V880" s="2"/>
     </row>
-    <row r="881" spans="1:22" ht="14.25" customHeight="1">
+    <row r="881" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="10"/>
       <c r="C881" s="2"/>
@@ -23160,7 +23168,7 @@
       <c r="U881" s="2"/>
       <c r="V881" s="2"/>
     </row>
-    <row r="882" spans="1:22" ht="14.25" customHeight="1">
+    <row r="882" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="10"/>
       <c r="C882" s="2"/>
@@ -23184,7 +23192,7 @@
       <c r="U882" s="2"/>
       <c r="V882" s="2"/>
     </row>
-    <row r="883" spans="1:22" ht="14.25" customHeight="1">
+    <row r="883" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="10"/>
       <c r="C883" s="2"/>
@@ -23208,7 +23216,7 @@
       <c r="U883" s="2"/>
       <c r="V883" s="2"/>
     </row>
-    <row r="884" spans="1:22" ht="14.25" customHeight="1">
+    <row r="884" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="10"/>
       <c r="C884" s="2"/>
@@ -23232,7 +23240,7 @@
       <c r="U884" s="2"/>
       <c r="V884" s="2"/>
     </row>
-    <row r="885" spans="1:22" ht="14.25" customHeight="1">
+    <row r="885" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="10"/>
       <c r="C885" s="2"/>
@@ -23256,7 +23264,7 @@
       <c r="U885" s="2"/>
       <c r="V885" s="2"/>
     </row>
-    <row r="886" spans="1:22" ht="14.25" customHeight="1">
+    <row r="886" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="10"/>
       <c r="C886" s="2"/>
@@ -23280,7 +23288,7 @@
       <c r="U886" s="2"/>
       <c r="V886" s="2"/>
     </row>
-    <row r="887" spans="1:22" ht="14.25" customHeight="1">
+    <row r="887" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="10"/>
       <c r="C887" s="2"/>
@@ -23304,7 +23312,7 @@
       <c r="U887" s="2"/>
       <c r="V887" s="2"/>
     </row>
-    <row r="888" spans="1:22" ht="14.25" customHeight="1">
+    <row r="888" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="10"/>
       <c r="C888" s="2"/>
@@ -23328,7 +23336,7 @@
       <c r="U888" s="2"/>
       <c r="V888" s="2"/>
     </row>
-    <row r="889" spans="1:22" ht="14.25" customHeight="1">
+    <row r="889" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="10"/>
       <c r="C889" s="2"/>
@@ -23352,7 +23360,7 @@
       <c r="U889" s="2"/>
       <c r="V889" s="2"/>
     </row>
-    <row r="890" spans="1:22" ht="14.25" customHeight="1">
+    <row r="890" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="10"/>
       <c r="C890" s="2"/>
@@ -23376,7 +23384,7 @@
       <c r="U890" s="2"/>
       <c r="V890" s="2"/>
     </row>
-    <row r="891" spans="1:22" ht="14.25" customHeight="1">
+    <row r="891" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="10"/>
       <c r="C891" s="2"/>
@@ -23400,7 +23408,7 @@
       <c r="U891" s="2"/>
       <c r="V891" s="2"/>
     </row>
-    <row r="892" spans="1:22" ht="14.25" customHeight="1">
+    <row r="892" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="10"/>
       <c r="C892" s="2"/>
@@ -23424,7 +23432,7 @@
       <c r="U892" s="2"/>
       <c r="V892" s="2"/>
     </row>
-    <row r="893" spans="1:22" ht="14.25" customHeight="1">
+    <row r="893" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="10"/>
       <c r="C893" s="2"/>
@@ -23448,7 +23456,7 @@
       <c r="U893" s="2"/>
       <c r="V893" s="2"/>
     </row>
-    <row r="894" spans="1:22" ht="14.25" customHeight="1">
+    <row r="894" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="10"/>
       <c r="C894" s="2"/>
@@ -23472,7 +23480,7 @@
       <c r="U894" s="2"/>
       <c r="V894" s="2"/>
     </row>
-    <row r="895" spans="1:22" ht="14.25" customHeight="1">
+    <row r="895" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="10"/>
       <c r="C895" s="2"/>
@@ -23496,7 +23504,7 @@
       <c r="U895" s="2"/>
       <c r="V895" s="2"/>
     </row>
-    <row r="896" spans="1:22" ht="14.25" customHeight="1">
+    <row r="896" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="10"/>
       <c r="C896" s="2"/>
@@ -23520,7 +23528,7 @@
       <c r="U896" s="2"/>
       <c r="V896" s="2"/>
     </row>
-    <row r="897" spans="1:22" ht="14.25" customHeight="1">
+    <row r="897" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="10"/>
       <c r="C897" s="2"/>
@@ -23544,7 +23552,7 @@
       <c r="U897" s="2"/>
       <c r="V897" s="2"/>
     </row>
-    <row r="898" spans="1:22" ht="14.25" customHeight="1">
+    <row r="898" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="10"/>
       <c r="C898" s="2"/>
@@ -23568,7 +23576,7 @@
       <c r="U898" s="2"/>
       <c r="V898" s="2"/>
     </row>
-    <row r="899" spans="1:22" ht="14.25" customHeight="1">
+    <row r="899" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="10"/>
       <c r="C899" s="2"/>
@@ -23592,7 +23600,7 @@
       <c r="U899" s="2"/>
       <c r="V899" s="2"/>
     </row>
-    <row r="900" spans="1:22" ht="14.25" customHeight="1">
+    <row r="900" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="10"/>
       <c r="C900" s="2"/>
@@ -23616,7 +23624,7 @@
       <c r="U900" s="2"/>
       <c r="V900" s="2"/>
     </row>
-    <row r="901" spans="1:22" ht="14.25" customHeight="1">
+    <row r="901" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="10"/>
       <c r="C901" s="2"/>
@@ -23640,7 +23648,7 @@
       <c r="U901" s="2"/>
       <c r="V901" s="2"/>
     </row>
-    <row r="902" spans="1:22" ht="14.25" customHeight="1">
+    <row r="902" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="10"/>
       <c r="C902" s="2"/>
@@ -23664,7 +23672,7 @@
       <c r="U902" s="2"/>
       <c r="V902" s="2"/>
     </row>
-    <row r="903" spans="1:22" ht="14.25" customHeight="1">
+    <row r="903" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="10"/>
       <c r="C903" s="2"/>
@@ -23688,7 +23696,7 @@
       <c r="U903" s="2"/>
       <c r="V903" s="2"/>
     </row>
-    <row r="904" spans="1:22" ht="14.25" customHeight="1">
+    <row r="904" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="10"/>
       <c r="C904" s="2"/>
@@ -23712,7 +23720,7 @@
       <c r="U904" s="2"/>
       <c r="V904" s="2"/>
     </row>
-    <row r="905" spans="1:22" ht="14.25" customHeight="1">
+    <row r="905" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="10"/>
       <c r="C905" s="2"/>
@@ -23736,7 +23744,7 @@
       <c r="U905" s="2"/>
       <c r="V905" s="2"/>
     </row>
-    <row r="906" spans="1:22" ht="14.25" customHeight="1">
+    <row r="906" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="10"/>
       <c r="C906" s="2"/>
@@ -23760,7 +23768,7 @@
       <c r="U906" s="2"/>
       <c r="V906" s="2"/>
     </row>
-    <row r="907" spans="1:22" ht="14.25" customHeight="1">
+    <row r="907" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="10"/>
       <c r="C907" s="2"/>
@@ -23784,7 +23792,7 @@
       <c r="U907" s="2"/>
       <c r="V907" s="2"/>
     </row>
-    <row r="908" spans="1:22" ht="14.25" customHeight="1">
+    <row r="908" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="10"/>
       <c r="C908" s="2"/>
@@ -23808,7 +23816,7 @@
       <c r="U908" s="2"/>
       <c r="V908" s="2"/>
     </row>
-    <row r="909" spans="1:22" ht="14.25" customHeight="1">
+    <row r="909" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="10"/>
       <c r="C909" s="2"/>
@@ -23832,7 +23840,7 @@
       <c r="U909" s="2"/>
       <c r="V909" s="2"/>
     </row>
-    <row r="910" spans="1:22" ht="14.25" customHeight="1">
+    <row r="910" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="10"/>
       <c r="C910" s="2"/>
@@ -23856,7 +23864,7 @@
       <c r="U910" s="2"/>
       <c r="V910" s="2"/>
     </row>
-    <row r="911" spans="1:22" ht="14.25" customHeight="1">
+    <row r="911" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="10"/>
       <c r="C911" s="2"/>
@@ -23880,7 +23888,7 @@
       <c r="U911" s="2"/>
       <c r="V911" s="2"/>
     </row>
-    <row r="912" spans="1:22" ht="14.25" customHeight="1">
+    <row r="912" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="10"/>
       <c r="C912" s="2"/>
@@ -23904,7 +23912,7 @@
       <c r="U912" s="2"/>
       <c r="V912" s="2"/>
     </row>
-    <row r="913" spans="1:22" ht="14.25" customHeight="1">
+    <row r="913" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="10"/>
       <c r="C913" s="2"/>
@@ -23928,7 +23936,7 @@
       <c r="U913" s="2"/>
       <c r="V913" s="2"/>
     </row>
-    <row r="914" spans="1:22" ht="14.25" customHeight="1">
+    <row r="914" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="10"/>
       <c r="C914" s="2"/>
@@ -23952,7 +23960,7 @@
       <c r="U914" s="2"/>
       <c r="V914" s="2"/>
     </row>
-    <row r="915" spans="1:22" ht="14.25" customHeight="1">
+    <row r="915" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="10"/>
       <c r="C915" s="2"/>
@@ -23976,7 +23984,7 @@
       <c r="U915" s="2"/>
       <c r="V915" s="2"/>
     </row>
-    <row r="916" spans="1:22" ht="14.25" customHeight="1">
+    <row r="916" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="10"/>
       <c r="C916" s="2"/>
@@ -24000,7 +24008,7 @@
       <c r="U916" s="2"/>
       <c r="V916" s="2"/>
     </row>
-    <row r="917" spans="1:22" ht="14.25" customHeight="1">
+    <row r="917" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="10"/>
       <c r="C917" s="2"/>
@@ -24024,7 +24032,7 @@
       <c r="U917" s="2"/>
       <c r="V917" s="2"/>
     </row>
-    <row r="918" spans="1:22" ht="14.25" customHeight="1">
+    <row r="918" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="10"/>
       <c r="C918" s="2"/>
@@ -24048,7 +24056,7 @@
       <c r="U918" s="2"/>
       <c r="V918" s="2"/>
     </row>
-    <row r="919" spans="1:22" ht="14.25" customHeight="1">
+    <row r="919" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="10"/>
       <c r="C919" s="2"/>
@@ -24072,7 +24080,7 @@
       <c r="U919" s="2"/>
       <c r="V919" s="2"/>
     </row>
-    <row r="920" spans="1:22" ht="14.25" customHeight="1">
+    <row r="920" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="10"/>
       <c r="C920" s="2"/>
@@ -24096,7 +24104,7 @@
       <c r="U920" s="2"/>
       <c r="V920" s="2"/>
     </row>
-    <row r="921" spans="1:22" ht="14.25" customHeight="1">
+    <row r="921" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="B921" s="10"/>
       <c r="C921" s="2"/>
@@ -24120,7 +24128,7 @@
       <c r="U921" s="2"/>
       <c r="V921" s="2"/>
     </row>
-    <row r="922" spans="1:22" ht="14.25" customHeight="1">
+    <row r="922" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="1"/>
       <c r="B922" s="10"/>
       <c r="C922" s="2"/>
@@ -24144,7 +24152,7 @@
       <c r="U922" s="2"/>
       <c r="V922" s="2"/>
     </row>
-    <row r="923" spans="1:22" ht="14.25" customHeight="1">
+    <row r="923" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="1"/>
       <c r="B923" s="10"/>
       <c r="C923" s="2"/>
@@ -24168,7 +24176,7 @@
       <c r="U923" s="2"/>
       <c r="V923" s="2"/>
     </row>
-    <row r="924" spans="1:22" ht="14.25" customHeight="1">
+    <row r="924" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="1"/>
       <c r="B924" s="10"/>
       <c r="C924" s="2"/>
@@ -24192,7 +24200,7 @@
       <c r="U924" s="2"/>
       <c r="V924" s="2"/>
     </row>
-    <row r="925" spans="1:22" ht="14.25" customHeight="1">
+    <row r="925" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="1"/>
       <c r="B925" s="10"/>
       <c r="C925" s="2"/>
@@ -24216,7 +24224,7 @@
       <c r="U925" s="2"/>
       <c r="V925" s="2"/>
     </row>
-    <row r="926" spans="1:22" ht="14.25" customHeight="1">
+    <row r="926" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="10"/>
       <c r="C926" s="2"/>
@@ -24240,7 +24248,7 @@
       <c r="U926" s="2"/>
       <c r="V926" s="2"/>
     </row>
-    <row r="927" spans="1:22" ht="14.25" customHeight="1">
+    <row r="927" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="1"/>
       <c r="B927" s="10"/>
       <c r="C927" s="2"/>
@@ -24264,7 +24272,7 @@
       <c r="U927" s="2"/>
       <c r="V927" s="2"/>
     </row>
-    <row r="928" spans="1:22" ht="14.25" customHeight="1">
+    <row r="928" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="1"/>
       <c r="B928" s="10"/>
       <c r="C928" s="2"/>
@@ -24288,7 +24296,7 @@
       <c r="U928" s="2"/>
       <c r="V928" s="2"/>
     </row>
-    <row r="929" spans="1:22" ht="14.25" customHeight="1">
+    <row r="929" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="1"/>
       <c r="B929" s="10"/>
       <c r="C929" s="2"/>
@@ -24312,7 +24320,7 @@
       <c r="U929" s="2"/>
       <c r="V929" s="2"/>
     </row>
-    <row r="930" spans="1:22" ht="14.25" customHeight="1">
+    <row r="930" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="10"/>
       <c r="C930" s="2"/>
@@ -24336,7 +24344,7 @@
       <c r="U930" s="2"/>
       <c r="V930" s="2"/>
     </row>
-    <row r="931" spans="1:22" ht="14.25" customHeight="1">
+    <row r="931" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="1"/>
       <c r="B931" s="10"/>
       <c r="C931" s="2"/>
@@ -24360,7 +24368,7 @@
       <c r="U931" s="2"/>
       <c r="V931" s="2"/>
     </row>
-    <row r="932" spans="1:22" ht="14.25" customHeight="1">
+    <row r="932" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="1"/>
       <c r="B932" s="10"/>
       <c r="C932" s="2"/>
@@ -24384,7 +24392,7 @@
       <c r="U932" s="2"/>
       <c r="V932" s="2"/>
     </row>
-    <row r="933" spans="1:22" ht="14.25" customHeight="1">
+    <row r="933" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="1"/>
       <c r="B933" s="10"/>
       <c r="C933" s="2"/>
@@ -24408,7 +24416,7 @@
       <c r="U933" s="2"/>
       <c r="V933" s="2"/>
     </row>
-    <row r="934" spans="1:22" ht="14.25" customHeight="1">
+    <row r="934" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="1"/>
       <c r="B934" s="10"/>
       <c r="C934" s="2"/>
@@ -24432,7 +24440,7 @@
       <c r="U934" s="2"/>
       <c r="V934" s="2"/>
     </row>
-    <row r="935" spans="1:22" ht="14.25" customHeight="1">
+    <row r="935" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="1"/>
       <c r="B935" s="10"/>
       <c r="C935" s="2"/>
@@ -24456,7 +24464,7 @@
       <c r="U935" s="2"/>
       <c r="V935" s="2"/>
     </row>
-    <row r="936" spans="1:22" ht="14.25" customHeight="1">
+    <row r="936" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="1"/>
       <c r="B936" s="10"/>
       <c r="C936" s="2"/>
@@ -24480,7 +24488,7 @@
       <c r="U936" s="2"/>
       <c r="V936" s="2"/>
     </row>
-    <row r="937" spans="1:22" ht="14.25" customHeight="1">
+    <row r="937" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="10"/>
       <c r="C937" s="2"/>
@@ -24504,7 +24512,7 @@
       <c r="U937" s="2"/>
       <c r="V937" s="2"/>
     </row>
-    <row r="938" spans="1:22" ht="14.25" customHeight="1">
+    <row r="938" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="1"/>
       <c r="B938" s="10"/>
       <c r="C938" s="2"/>
@@ -24528,7 +24536,7 @@
       <c r="U938" s="2"/>
       <c r="V938" s="2"/>
     </row>
-    <row r="939" spans="1:22" ht="14.25" customHeight="1">
+    <row r="939" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="1"/>
       <c r="B939" s="10"/>
       <c r="C939" s="2"/>
@@ -24552,7 +24560,7 @@
       <c r="U939" s="2"/>
       <c r="V939" s="2"/>
     </row>
-    <row r="940" spans="1:22" ht="14.25" customHeight="1">
+    <row r="940" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="1"/>
       <c r="B940" s="10"/>
       <c r="C940" s="2"/>
@@ -24576,7 +24584,7 @@
       <c r="U940" s="2"/>
       <c r="V940" s="2"/>
     </row>
-    <row r="941" spans="1:22" ht="14.25" customHeight="1">
+    <row r="941" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="10"/>
       <c r="C941" s="2"/>
@@ -24600,7 +24608,7 @@
       <c r="U941" s="2"/>
       <c r="V941" s="2"/>
     </row>
-    <row r="942" spans="1:22" ht="14.25" customHeight="1">
+    <row r="942" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="1"/>
       <c r="B942" s="10"/>
       <c r="C942" s="2"/>
@@ -24624,7 +24632,7 @@
       <c r="U942" s="2"/>
       <c r="V942" s="2"/>
     </row>
-    <row r="943" spans="1:22" ht="14.25" customHeight="1">
+    <row r="943" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="1"/>
       <c r="B943" s="10"/>
       <c r="C943" s="2"/>
@@ -24648,7 +24656,7 @@
       <c r="U943" s="2"/>
       <c r="V943" s="2"/>
     </row>
-    <row r="944" spans="1:22" ht="14.25" customHeight="1">
+    <row r="944" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="1"/>
       <c r="B944" s="10"/>
       <c r="C944" s="2"/>
@@ -24672,7 +24680,7 @@
       <c r="U944" s="2"/>
       <c r="V944" s="2"/>
     </row>
-    <row r="945" spans="1:22" ht="14.25" customHeight="1">
+    <row r="945" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="1"/>
       <c r="B945" s="10"/>
       <c r="C945" s="2"/>
@@ -24696,7 +24704,7 @@
       <c r="U945" s="2"/>
       <c r="V945" s="2"/>
     </row>
-    <row r="946" spans="1:22" ht="14.25" customHeight="1">
+    <row r="946" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="1"/>
       <c r="B946" s="10"/>
       <c r="C946" s="2"/>
@@ -24720,7 +24728,7 @@
       <c r="U946" s="2"/>
       <c r="V946" s="2"/>
     </row>
-    <row r="947" spans="1:22" ht="14.25" customHeight="1">
+    <row r="947" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="1"/>
       <c r="B947" s="10"/>
       <c r="C947" s="2"/>
@@ -24744,7 +24752,7 @@
       <c r="U947" s="2"/>
       <c r="V947" s="2"/>
     </row>
-    <row r="948" spans="1:22" ht="14.25" customHeight="1">
+    <row r="948" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="10"/>
       <c r="C948" s="2"/>
@@ -24768,7 +24776,7 @@
       <c r="U948" s="2"/>
       <c r="V948" s="2"/>
     </row>
-    <row r="949" spans="1:22" ht="14.25" customHeight="1">
+    <row r="949" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="1"/>
       <c r="B949" s="10"/>
       <c r="C949" s="2"/>
@@ -24792,7 +24800,7 @@
       <c r="U949" s="2"/>
       <c r="V949" s="2"/>
     </row>
-    <row r="950" spans="1:22" ht="14.25" customHeight="1">
+    <row r="950" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="1"/>
       <c r="B950" s="10"/>
       <c r="C950" s="2"/>
@@ -24816,7 +24824,7 @@
       <c r="U950" s="2"/>
       <c r="V950" s="2"/>
     </row>
-    <row r="951" spans="1:22" ht="14.25" customHeight="1">
+    <row r="951" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="1"/>
       <c r="B951" s="10"/>
       <c r="C951" s="2"/>
@@ -24840,7 +24848,7 @@
       <c r="U951" s="2"/>
       <c r="V951" s="2"/>
     </row>
-    <row r="952" spans="1:22" ht="14.25" customHeight="1">
+    <row r="952" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="10"/>
       <c r="C952" s="2"/>
@@ -24864,7 +24872,7 @@
       <c r="U952" s="2"/>
       <c r="V952" s="2"/>
     </row>
-    <row r="953" spans="1:22" ht="14.25" customHeight="1">
+    <row r="953" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="1"/>
       <c r="B953" s="10"/>
       <c r="C953" s="2"/>
@@ -24888,7 +24896,7 @@
       <c r="U953" s="2"/>
       <c r="V953" s="2"/>
     </row>
-    <row r="954" spans="1:22" ht="14.25" customHeight="1">
+    <row r="954" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="1"/>
       <c r="B954" s="10"/>
       <c r="C954" s="2"/>
@@ -24912,7 +24920,7 @@
       <c r="U954" s="2"/>
       <c r="V954" s="2"/>
     </row>
-    <row r="955" spans="1:22" ht="14.25" customHeight="1">
+    <row r="955" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="1"/>
       <c r="B955" s="10"/>
       <c r="C955" s="2"/>
@@ -24936,7 +24944,7 @@
       <c r="U955" s="2"/>
       <c r="V955" s="2"/>
     </row>
-    <row r="956" spans="1:22" ht="14.25" customHeight="1">
+    <row r="956" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="1"/>
       <c r="B956" s="10"/>
       <c r="C956" s="2"/>
@@ -24960,7 +24968,7 @@
       <c r="U956" s="2"/>
       <c r="V956" s="2"/>
     </row>
-    <row r="957" spans="1:22" ht="14.25" customHeight="1">
+    <row r="957" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="1"/>
       <c r="B957" s="10"/>
       <c r="C957" s="2"/>
@@ -24984,7 +24992,7 @@
       <c r="U957" s="2"/>
       <c r="V957" s="2"/>
     </row>
-    <row r="958" spans="1:22" ht="14.25" customHeight="1">
+    <row r="958" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="1"/>
       <c r="B958" s="10"/>
       <c r="C958" s="2"/>
@@ -25008,7 +25016,7 @@
       <c r="U958" s="2"/>
       <c r="V958" s="2"/>
     </row>
-    <row r="959" spans="1:22" ht="14.25" customHeight="1">
+    <row r="959" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="1"/>
       <c r="B959" s="10"/>
       <c r="C959" s="2"/>
@@ -25032,7 +25040,7 @@
       <c r="U959" s="2"/>
       <c r="V959" s="2"/>
     </row>
-    <row r="960" spans="1:22" ht="14.25" customHeight="1">
+    <row r="960" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="10"/>
       <c r="C960" s="2"/>
@@ -25056,7 +25064,7 @@
       <c r="U960" s="2"/>
       <c r="V960" s="2"/>
     </row>
-    <row r="961" spans="1:22" ht="14.25" customHeight="1">
+    <row r="961" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="1"/>
       <c r="B961" s="10"/>
       <c r="C961" s="2"/>
@@ -25080,7 +25088,7 @@
       <c r="U961" s="2"/>
       <c r="V961" s="2"/>
     </row>
-    <row r="962" spans="1:22" ht="14.25" customHeight="1">
+    <row r="962" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="1"/>
       <c r="B962" s="10"/>
       <c r="C962" s="2"/>
@@ -25104,7 +25112,7 @@
       <c r="U962" s="2"/>
       <c r="V962" s="2"/>
     </row>
-    <row r="963" spans="1:22" ht="14.25" customHeight="1">
+    <row r="963" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="1"/>
       <c r="B963" s="10"/>
       <c r="C963" s="2"/>
@@ -25128,7 +25136,7 @@
       <c r="U963" s="2"/>
       <c r="V963" s="2"/>
     </row>
-    <row r="964" spans="1:22" ht="14.25" customHeight="1">
+    <row r="964" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="10"/>
       <c r="C964" s="2"/>
@@ -25152,7 +25160,7 @@
       <c r="U964" s="2"/>
       <c r="V964" s="2"/>
     </row>
-    <row r="965" spans="1:22" ht="14.25" customHeight="1">
+    <row r="965" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="1"/>
       <c r="B965" s="10"/>
       <c r="C965" s="2"/>
@@ -25176,7 +25184,7 @@
       <c r="U965" s="2"/>
       <c r="V965" s="2"/>
     </row>
-    <row r="966" spans="1:22" ht="14.25" customHeight="1">
+    <row r="966" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="1"/>
       <c r="B966" s="10"/>
       <c r="C966" s="2"/>
@@ -25200,7 +25208,7 @@
       <c r="U966" s="2"/>
       <c r="V966" s="2"/>
     </row>
-    <row r="967" spans="1:22" ht="14.25" customHeight="1">
+    <row r="967" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="1"/>
       <c r="B967" s="10"/>
       <c r="C967" s="2"/>
@@ -25224,7 +25232,7 @@
       <c r="U967" s="2"/>
       <c r="V967" s="2"/>
     </row>
-    <row r="968" spans="1:22" ht="14.25" customHeight="1">
+    <row r="968" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="1"/>
       <c r="B968" s="10"/>
       <c r="C968" s="2"/>
@@ -25248,7 +25256,7 @@
       <c r="U968" s="2"/>
       <c r="V968" s="2"/>
     </row>
-    <row r="969" spans="1:22" ht="14.25" customHeight="1">
+    <row r="969" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="1"/>
       <c r="B969" s="10"/>
       <c r="C969" s="2"/>
@@ -25272,7 +25280,7 @@
       <c r="U969" s="2"/>
       <c r="V969" s="2"/>
     </row>
-    <row r="970" spans="1:22" ht="14.25" customHeight="1">
+    <row r="970" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="1"/>
       <c r="B970" s="10"/>
       <c r="C970" s="2"/>
@@ -25296,7 +25304,7 @@
       <c r="U970" s="2"/>
       <c r="V970" s="2"/>
     </row>
-    <row r="971" spans="1:22" ht="14.25" customHeight="1">
+    <row r="971" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="10"/>
       <c r="C971" s="2"/>
@@ -25320,7 +25328,7 @@
       <c r="U971" s="2"/>
       <c r="V971" s="2"/>
     </row>
-    <row r="972" spans="1:22" ht="14.25" customHeight="1">
+    <row r="972" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="1"/>
       <c r="B972" s="10"/>
       <c r="C972" s="2"/>
@@ -25344,7 +25352,7 @@
       <c r="U972" s="2"/>
       <c r="V972" s="2"/>
     </row>
-    <row r="973" spans="1:22" ht="14.25" customHeight="1">
+    <row r="973" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="1"/>
       <c r="B973" s="10"/>
       <c r="C973" s="2"/>
@@ -25368,7 +25376,7 @@
       <c r="U973" s="2"/>
       <c r="V973" s="2"/>
     </row>
-    <row r="974" spans="1:22" ht="14.25" customHeight="1">
+    <row r="974" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="1"/>
       <c r="B974" s="10"/>
       <c r="C974" s="2"/>
@@ -25392,7 +25400,7 @@
       <c r="U974" s="2"/>
       <c r="V974" s="2"/>
     </row>
-    <row r="975" spans="1:22" ht="14.25" customHeight="1">
+    <row r="975" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="10"/>
       <c r="C975" s="2"/>
@@ -25416,7 +25424,7 @@
       <c r="U975" s="2"/>
       <c r="V975" s="2"/>
     </row>
-    <row r="976" spans="1:22" ht="14.25" customHeight="1">
+    <row r="976" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="1"/>
       <c r="B976" s="10"/>
       <c r="C976" s="2"/>
@@ -25440,7 +25448,7 @@
       <c r="U976" s="2"/>
       <c r="V976" s="2"/>
     </row>
-    <row r="977" spans="1:22" ht="14.25" customHeight="1">
+    <row r="977" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="1"/>
       <c r="B977" s="10"/>
       <c r="C977" s="2"/>
@@ -25464,7 +25472,7 @@
       <c r="U977" s="2"/>
       <c r="V977" s="2"/>
     </row>
-    <row r="978" spans="1:22" ht="14.25" customHeight="1">
+    <row r="978" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="1"/>
       <c r="B978" s="10"/>
       <c r="C978" s="2"/>
@@ -25488,7 +25496,7 @@
       <c r="U978" s="2"/>
       <c r="V978" s="2"/>
     </row>
-    <row r="979" spans="1:22" ht="14.25" customHeight="1">
+    <row r="979" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="1"/>
       <c r="B979" s="10"/>
       <c r="C979" s="2"/>
@@ -25512,7 +25520,7 @@
       <c r="U979" s="2"/>
       <c r="V979" s="2"/>
     </row>
-    <row r="980" spans="1:22" ht="14.25" customHeight="1">
+    <row r="980" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="1"/>
       <c r="B980" s="10"/>
       <c r="C980" s="2"/>
@@ -25536,7 +25544,7 @@
       <c r="U980" s="2"/>
       <c r="V980" s="2"/>
     </row>
-    <row r="981" spans="1:22" ht="14.25" customHeight="1">
+    <row r="981" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="1"/>
       <c r="B981" s="10"/>
       <c r="C981" s="2"/>
@@ -25560,7 +25568,7 @@
       <c r="U981" s="2"/>
       <c r="V981" s="2"/>
     </row>
-    <row r="982" spans="1:22" ht="14.25" customHeight="1">
+    <row r="982" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="1"/>
       <c r="B982" s="10"/>
       <c r="C982" s="2"/>
@@ -25584,7 +25592,7 @@
       <c r="U982" s="2"/>
       <c r="V982" s="2"/>
     </row>
-    <row r="983" spans="1:22" ht="14.25" customHeight="1">
+    <row r="983" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="B983" s="10"/>
       <c r="C983" s="2"/>
@@ -25608,7 +25616,7 @@
       <c r="U983" s="2"/>
       <c r="V983" s="2"/>
     </row>
-    <row r="984" spans="1:22" ht="14.25" customHeight="1">
+    <row r="984" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="1"/>
       <c r="B984" s="10"/>
       <c r="C984" s="2"/>
@@ -25632,7 +25640,7 @@
       <c r="U984" s="2"/>
       <c r="V984" s="2"/>
     </row>
-    <row r="985" spans="1:22" ht="14.25" customHeight="1">
+    <row r="985" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="1"/>
       <c r="B985" s="10"/>
       <c r="C985" s="2"/>
@@ -25656,7 +25664,7 @@
       <c r="U985" s="2"/>
       <c r="V985" s="2"/>
     </row>
-    <row r="986" spans="1:22" ht="14.25" customHeight="1">
+    <row r="986" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="1"/>
       <c r="B986" s="10"/>
       <c r="C986" s="2"/>
@@ -25680,7 +25688,7 @@
       <c r="U986" s="2"/>
       <c r="V986" s="2"/>
     </row>
-    <row r="987" spans="1:22" ht="14.25" customHeight="1">
+    <row r="987" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="B987" s="10"/>
       <c r="C987" s="2"/>
@@ -25704,7 +25712,7 @@
       <c r="U987" s="2"/>
       <c r="V987" s="2"/>
     </row>
-    <row r="988" spans="1:22" ht="14.25" customHeight="1">
+    <row r="988" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="1"/>
       <c r="B988" s="10"/>
       <c r="C988" s="2"/>
@@ -25728,7 +25736,7 @@
       <c r="U988" s="2"/>
       <c r="V988" s="2"/>
     </row>
-    <row r="989" spans="1:22" ht="14.25" customHeight="1">
+    <row r="989" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="1"/>
       <c r="B989" s="10"/>
       <c r="C989" s="2"/>
@@ -25752,7 +25760,7 @@
       <c r="U989" s="2"/>
       <c r="V989" s="2"/>
     </row>
-    <row r="990" spans="1:22" ht="14.25" customHeight="1">
+    <row r="990" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="1"/>
       <c r="B990" s="10"/>
       <c r="C990" s="2"/>
@@ -25776,7 +25784,7 @@
       <c r="U990" s="2"/>
       <c r="V990" s="2"/>
     </row>
-    <row r="991" spans="1:22" ht="14.25" customHeight="1">
+    <row r="991" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="1"/>
       <c r="B991" s="10"/>
       <c r="C991" s="2"/>
@@ -25800,7 +25808,7 @@
       <c r="U991" s="2"/>
       <c r="V991" s="2"/>
     </row>
-    <row r="992" spans="1:22" ht="14.25" customHeight="1">
+    <row r="992" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="1"/>
       <c r="B992" s="10"/>
       <c r="C992" s="2"/>
@@ -25824,7 +25832,7 @@
       <c r="U992" s="2"/>
       <c r="V992" s="2"/>
     </row>
-    <row r="993" spans="1:22" ht="14.25" customHeight="1">
+    <row r="993" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="1"/>
       <c r="B993" s="10"/>
       <c r="C993" s="2"/>
@@ -25848,7 +25856,7 @@
       <c r="U993" s="2"/>
       <c r="V993" s="2"/>
     </row>
-    <row r="994" spans="1:22" ht="14.25" customHeight="1">
+    <row r="994" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="1"/>
       <c r="B994" s="10"/>
       <c r="C994" s="2"/>
@@ -25872,7 +25880,7 @@
       <c r="U994" s="2"/>
       <c r="V994" s="2"/>
     </row>
-    <row r="995" spans="1:22" ht="14.25" customHeight="1">
+    <row r="995" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="B995" s="10"/>
       <c r="C995" s="2"/>
@@ -25896,7 +25904,7 @@
       <c r="U995" s="2"/>
       <c r="V995" s="2"/>
     </row>
-    <row r="996" spans="1:22" ht="14.25" customHeight="1">
+    <row r="996" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="1"/>
       <c r="B996" s="10"/>
       <c r="C996" s="2"/>
@@ -25920,7 +25928,7 @@
       <c r="U996" s="2"/>
       <c r="V996" s="2"/>
     </row>
-    <row r="997" spans="1:22" ht="14.25" customHeight="1">
+    <row r="997" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="1"/>
       <c r="B997" s="10"/>
       <c r="C997" s="2"/>
@@ -25944,7 +25952,7 @@
       <c r="U997" s="2"/>
       <c r="V997" s="2"/>
     </row>
-    <row r="998" spans="1:22" ht="14.25" customHeight="1">
+    <row r="998" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="1"/>
       <c r="B998" s="10"/>
       <c r="C998" s="2"/>
@@ -25968,7 +25976,7 @@
       <c r="U998" s="2"/>
       <c r="V998" s="2"/>
     </row>
-    <row r="999" spans="1:22" ht="14.25" customHeight="1">
+    <row r="999" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="1"/>
       <c r="B999" s="10"/>
       <c r="C999" s="2"/>
@@ -25992,7 +26000,7 @@
       <c r="U999" s="2"/>
       <c r="V999" s="2"/>
     </row>
-    <row r="1000" spans="1:22" ht="14.25" customHeight="1">
+    <row r="1000" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="1"/>
       <c r="B1000" s="10"/>
       <c r="C1000" s="2"/>
@@ -26016,7 +26024,7 @@
       <c r="U1000" s="2"/>
       <c r="V1000" s="2"/>
     </row>
-    <row r="1001" spans="1:22" ht="14.25" customHeight="1">
+    <row r="1001" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="1"/>
       <c r="B1001" s="10"/>
       <c r="C1001" s="2"/>
@@ -26040,7 +26048,7 @@
       <c r="U1001" s="2"/>
       <c r="V1001" s="2"/>
     </row>
-    <row r="1002" spans="1:22" ht="14.25" customHeight="1">
+    <row r="1002" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="1"/>
       <c r="B1002" s="10"/>
       <c r="C1002" s="2"/>
